--- a/Basisverzeichnis/trunk/04_Test/Systemtest_TestCases.xlsx
+++ b/Basisverzeichnis/trunk/04_Test/Systemtest_TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="47">
   <si>
     <t>Nr.</t>
   </si>
@@ -104,6 +104,76 @@
   </si>
   <si>
     <t>UseCase</t>
+  </si>
+  <si>
+    <t>UC-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es liegt ein fehlerfreies UseCaseDokument (.docx) vor </t>
+  </si>
+  <si>
+    <t>Dieser Testfall testet den "Normalablauf" für das Einlesen eines UseCaseDokuments mit einem fehlerfreien UseCaseDokument (.docx)</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Anwender bricht die Dateiauswahl ab</t>
+  </si>
+  <si>
+    <t>UseCase-Dokument Importieren (fehlerfreies Dokument)</t>
+  </si>
+  <si>
+    <t>Es liegt ein fehlerfreies UseCaseDokument (.docx) vor, welches jedoch einen Ringschluss beinhaltet</t>
+  </si>
+  <si>
+    <t>Das Tool soll einen Ringschluss innerhalb eines UseCases erkennen, den Anwender warnen und mit dem nächsten UseCase fortfahren (UseCase nicht in der Liste eingelesener UseCases enthalten)</t>
+  </si>
+  <si>
+    <t>1. Der Anwender betätigt das Auswahlmenü "File" -&gt; "Import word file" 
+2. Der Anwender wählt den Pfad zu seinem UseCaseDokument
+3. Der Anwender wählt sein Dokument aus und bestätigt den Dialog mit dem Button "Öffnen"
+4. Das Tool gibt eine Rückmeldung, dass der Einlesevorgang erfolgreich war
+5. Das Tool stellt die Liste von eingelesenen UseCases dar</t>
+  </si>
+  <si>
+    <t>Kein Feedback nach Importvorgang</t>
+  </si>
+  <si>
+    <t>1. Der Anwender betätigt das Auswahlmenü "File" -&gt; "Import word file" 
+2. Der Anwender wählt den Pfad zu seinem UseCaseDokument
+3. Der Anwender wählt sein Dokument aus und bricht den Dialog mit dem Button "Abbrechen" ab
+4. Das Tool gibt kein Feedback, dass ImportVorgang abgebrochen wurde
+5. Das Tool zeigt keine oder die bereits zuvor eingelesenen UseCases an</t>
+  </si>
+  <si>
+    <t>UseCase-Dokument Importieren (Untersuchung von Ringschlüssen)</t>
+  </si>
+  <si>
+    <t>Es liegt ein fehlerfreies UseCaseDokument (.docx) vor, welches jedoch zwei Ringschlüsse beinhaltet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Der Anwender betätigt das Auswahlmenü "File" -&gt; "Import word file" 
+2. Der Anwender wählt den Pfad zu seinem UseCaseDokument
+3. Der Anwender wählt sein Dokument aus und bestätigt den Dialog mit dem Button "Öffnen"
+4. Das Tool gibt dem Anwender die Rückmeldung, dass ein Ringschluss gefunden wurde und die Bearbeitung mit dem nächsten UseCase fortgesetzt wird
+5.  Das Tool gibt eine Rückmeldung, dass der Einlesevorgang erfolgreich war
+6. Das Tool stellt die Liste von eingelesenen UseCases dar, ausser den Use Case mit Ringschluss
+</t>
+  </si>
+  <si>
+    <t>Es liegt ein fehlerfreies UseCaseDokument (.docx) vor, welches jedoch mehr als zwei Ringschlüsse beinhaltet</t>
+  </si>
+  <si>
+    <t>1. Der Anwender betätigt das Auswahlmenü "File" -&gt; "Import word file" 
+2. Der Anwender wählt den Pfad zu seinem UseCaseDokument
+3. Der Anwender wählt sein Dokument aus und bestätigt den Dialog mit dem Button "Öffnen"
+4. Das Tool gibt dem Anwender für jeden Ringschluss die Rückmeldung, dass ein Ringschluss gefunden wurde und die Bearbeitung mit dem nächsten UseCase fortgesetzt wird
+5.  Das Tool gibt eine Rückmeldung, dass der Einlesevorgang erfolgreich war
+6. Das Tool stellt die Liste von eingelesenen UseCases dar, ausser den Use Cases mit Ringschlüssen</t>
+  </si>
+  <si>
+    <t>UseCase-Dokument Importieren (fehlerhaftes Dokument)</t>
   </si>
 </sst>
 </file>
@@ -234,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -368,6 +438,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -375,7 +458,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,10 +487,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,19 +502,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,17 +516,77 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -468,7 +595,7 @@
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="376">
+  <dxfs count="428">
     <dxf>
       <fill>
         <patternFill>
@@ -892,6 +1019,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -906,6 +1089,258 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -927,34 +1362,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -983,6 +1390,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -997,202 +1432,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1221,6 +1460,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1228,6 +1523,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1235,6 +1558,118 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1242,62 +1677,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1305,6 +1684,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1319,34 +1726,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1375,6 +1754,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1389,28 +1796,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1445,6 +1852,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1459,84 +1894,84 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1571,6 +2006,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1578,6 +2041,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1585,6 +2076,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1592,6 +2139,118 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1613,34 +2272,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1669,6 +2300,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1683,202 +2342,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1907,6 +2370,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1935,34 +2454,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1991,6 +2482,118 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1998,62 +2601,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2061,6 +2608,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2075,34 +2650,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -2131,6 +2678,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2145,84 +2720,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2271,6 +2790,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2278,6 +2825,118 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2299,34 +2958,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -2355,6 +2986,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2369,174 +3028,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -2565,6 +3056,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2572,34 +3119,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2607,34 +3126,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2733,6 +3224,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2747,6 +3294,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2817,146 +3392,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2992,6 +3427,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2999,34 +3462,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -3034,34 +3469,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -3098,6 +3505,90 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3315,11 +3806,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="143165440"/>
-        <c:axId val="86694656"/>
+        <c:axId val="122378752"/>
+        <c:axId val="79156288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143165440"/>
+        <c:axId val="122378752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,7 +3819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86694656"/>
+        <c:crossAx val="79156288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3336,7 +3827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86694656"/>
+        <c:axId val="79156288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3349,7 +3840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143165440"/>
+        <c:crossAx val="122378752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3575,11 +4066,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="77104128"/>
-        <c:axId val="139475712"/>
+        <c:axId val="122419200"/>
+        <c:axId val="79158016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77104128"/>
+        <c:axId val="122419200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3588,7 +4079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139475712"/>
+        <c:crossAx val="79158016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3596,7 +4087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139475712"/>
+        <c:axId val="79158016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3609,7 +4100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77104128"/>
+        <c:crossAx val="122419200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3835,11 +4326,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="246747648"/>
-        <c:axId val="142761280"/>
+        <c:axId val="80073728"/>
+        <c:axId val="71045056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246747648"/>
+        <c:axId val="80073728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3848,7 +4339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142761280"/>
+        <c:crossAx val="71045056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3856,7 +4347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142761280"/>
+        <c:axId val="71045056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3869,267 +4360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246747648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="110"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="10"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SystemTest Softwareprojekt'!$H$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>offen </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SystemTest Softwareprojekt'!$H$21:$M$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Auswertung aller Testdurchläufe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SystemTest Softwareprojekt'!$H$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SystemTest Softwareprojekt'!$I$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nicht relevant </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SystemTest Softwareprojekt'!$H$21:$M$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Auswertung aller Testdurchläufe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SystemTest Softwareprojekt'!$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SystemTest Softwareprojekt'!$J$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fehlerhaft</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SystemTest Softwareprojekt'!$H$21:$M$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Auswertung aller Testdurchläufe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SystemTest Softwareprojekt'!$J$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SystemTest Softwareprojekt'!$K$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>richtig</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SystemTest Softwareprojekt'!$H$21:$M$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Auswertung aller Testdurchläufe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SystemTest Softwareprojekt'!$K$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="139111424"/>
-        <c:axId val="238202240"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="139111424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238202240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="238202240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139111424"/>
+        <c:crossAx val="80073728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4219,18 +4450,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1114424</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="107" name="Diagramm 106"/>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4242,38 +4473,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1114424</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="108" name="Diagramm 107"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4570,10 +4769,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O21" sqref="O20:O21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4581,7 +4780,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="58.140625" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -4608,15 +4807,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="12"/>
       <c r="I1" s="7"/>
       <c r="J1" s="12"/>
@@ -4630,15 +4829,15 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="12"/>
       <c r="I2" s="7"/>
       <c r="J2" s="12"/>
@@ -4654,9 +4853,9 @@
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -4666,9 +4865,9 @@
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -4678,9 +4877,9 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="H5"/>
       <c r="J5"/>
       <c r="L5"/>
@@ -4693,9 +4892,9 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="H6"/>
       <c r="J6"/>
       <c r="L6"/>
@@ -4708,44 +4907,46 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="25" t="s">
+      <c r="A10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25" t="s">
+      <c r="I10" s="32"/>
+      <c r="J10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25" t="s">
+      <c r="K10" s="32"/>
+      <c r="L10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="26"/>
+      <c r="M10" s="32"/>
       <c r="O10"/>
       <c r="Q10"/>
     </row>
@@ -4753,10 +4954,10 @@
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
@@ -4790,228 +4991,274 @@
       <c r="O11"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="H12" s="1" t="s">
+    <row r="12" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>1</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="42"/>
+      <c r="L12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="M12" s="42"/>
       <c r="O12"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="1" t="s">
+    <row r="13" spans="1:18" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>2</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="42"/>
+      <c r="L13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="M13" s="42"/>
       <c r="O13"/>
       <c r="Q13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="H14" s="1" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="K14" s="42"/>
+      <c r="L14" s="40" t="s">
         <v>7</v>
       </c>
+      <c r="M14" s="42"/>
       <c r="O14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="H15" s="1" t="s">
+    <row r="15" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="42"/>
+      <c r="J15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="K15" s="42"/>
+      <c r="L15" s="40" t="s">
         <v>7</v>
       </c>
+      <c r="M15" s="42"/>
       <c r="O15"/>
       <c r="Q15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="F16" s="13"/>
       <c r="O16"/>
       <c r="Q16"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="F17" s="13"/>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
       <c r="O17"/>
       <c r="Q17"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="F18" s="13"/>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="16" t="s">
         <v>17</v>
       </c>
       <c r="O18"/>
       <c r="Q18"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="F19" s="13"/>
-      <c r="H19" s="16">
+      <c r="H19" s="14">
         <f>COUNTIF(J12:J15,"O")+COUNTIF(L12:L15,"O")+COUNTIF(H12:H15,"O")</f>
-        <v>12</v>
-      </c>
-      <c r="I19" s="16">
+        <v>10</v>
+      </c>
+      <c r="I19" s="14">
         <f>COUNTIF(J12:J15,"N")+COUNTIF(L12:L15,"N")+COUNTIF(H12:H15,"N")</f>
         <v>0</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="14">
         <f>COUNTIF(J12:J15,"F")+COUNTIF(L12:L15,"F")+COUNTIF(H12:H15,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="16">
+        <v>1</v>
+      </c>
+      <c r="K19" s="14">
         <f>COUNTIF(J12:J15,"R")+COUNTIF(L12:L15,"R")+COUNTIF(H12:H15,"R")</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="16">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14">
         <f>SUM(H19:K19)</f>
         <v>12</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="15">
         <f>(K19+I19)/L19</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O19"/>
       <c r="Q19"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="F20" s="13"/>
       <c r="O20"/>
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="F21" s="13"/>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
       <c r="O21"/>
       <c r="Q21"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="F22" s="13"/>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="O22"/>
       <c r="Q22"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="F23" s="13"/>
-      <c r="H23" s="16" t="e">
+      <c r="H23" s="14" t="e">
         <f>H19+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I23" s="16" t="e">
+      <c r="I23" s="14" t="e">
         <f>I19+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J23" s="16" t="e">
+      <c r="J23" s="14" t="e">
         <f>J19+#REF!+#REF!-#REF!-#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K23" s="16" t="e">
+      <c r="K23" s="14" t="e">
         <f>K19+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L23" s="16" t="e">
+      <c r="L23" s="14" t="e">
         <f>SUM(H23:K23)</f>
         <v>#REF!</v>
       </c>
-      <c r="M23" s="17" t="e">
+      <c r="M23" s="15" t="e">
         <f>(K23+I23)/L23</f>
         <v>#REF!</v>
       </c>
@@ -5019,878 +5266,696 @@
       <c r="Q23"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="F24" s="13"/>
       <c r="O24"/>
       <c r="Q24"/>
     </row>
     <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="25" t="s">
+      <c r="A25" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="25" t="s">
+      <c r="I25" s="32"/>
+      <c r="J25" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="25" t="s">
+      <c r="K25" s="32"/>
+      <c r="L25" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="26"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="H27" s="1" t="s">
+    <row r="27" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>3</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="I27" s="40"/>
+      <c r="J27" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="K27" s="40"/>
+      <c r="L27" s="40" t="s">
         <v>7</v>
       </c>
+      <c r="M27" s="40"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="H28" s="1" t="s">
+    <row r="28" spans="1:17" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>4</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="I28" s="40"/>
+      <c r="J28" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="K28" s="40"/>
+      <c r="L28" s="40" t="s">
         <v>7</v>
       </c>
+      <c r="M28" s="40"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="H29" s="1" t="s">
+    <row r="29" spans="1:17" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>5</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="I29" s="40"/>
+      <c r="J29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="K29" s="40"/>
+      <c r="L29" s="40" t="s">
         <v>7</v>
       </c>
+      <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="H30" s="1" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="I30" s="40"/>
+      <c r="J30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="K30" s="40"/>
+      <c r="L30" s="40" t="s">
         <v>7</v>
       </c>
+      <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="F32" s="13"/>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
       <c r="F33" s="13"/>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
       <c r="F34" s="13"/>
-      <c r="H34" s="16">
+      <c r="H34" s="14">
         <f>COUNTIF(J27:J30,"O")+COUNTIF(L27:L30,"O")+COUNTIF(H27:H30,"O")</f>
         <v>12</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="14">
         <f>COUNTIF(J27:J30,"N")+COUNTIF(L27:L30,"N")+COUNTIF(H27:H30,"N")</f>
         <v>0</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="14">
         <f>COUNTIF(J27:J30,"F")+COUNTIF(L27:L30,"F")+COUNTIF(H27:H30,"F")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="14">
         <f>COUNTIF(J27:J30,"R")+COUNTIF(L27:L30,"R")+COUNTIF(H27:H30,"R")</f>
         <v>0</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="14">
         <f>SUM(H34:K34)</f>
         <v>12</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="15">
         <f>(K34+I34)/L34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
       <c r="F36" s="13"/>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
       <c r="F37" s="13"/>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="K37" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="18" t="s">
+      <c r="L37" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M37" s="18" t="s">
+      <c r="M37" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="F38" s="13"/>
-      <c r="H38" s="16" t="e">
+      <c r="H38" s="14" t="e">
         <f>H34+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I38" s="16" t="e">
+      <c r="I38" s="14" t="e">
         <f>I34+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J38" s="16" t="e">
+      <c r="J38" s="14" t="e">
         <f>J34+#REF!+#REF!-#REF!-#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K38" s="16" t="e">
+      <c r="K38" s="14" t="e">
         <f>K34+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L38" s="16" t="e">
+      <c r="L38" s="14" t="e">
         <f>SUM(H38:K38)</f>
         <v>#REF!</v>
       </c>
-      <c r="M38" s="17" t="e">
+      <c r="M38" s="15" t="e">
         <f>(K38+I38)/L38</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="41" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="25" t="s">
+    <row r="40" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="25" t="s">
+      <c r="I40" s="32"/>
+      <c r="J40" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="26"/>
-      <c r="L41" s="25" t="s">
+      <c r="K40" s="32"/>
+      <c r="L40" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="26"/>
+      <c r="M40" s="32"/>
+      <c r="O40" s="25"/>
+      <c r="Q40" s="25"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B41" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="20" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I41" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="K41" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="19" t="s">
+      <c r="M41" s="20" t="s">
         <v>6</v>
       </c>
+      <c r="O41" s="25"/>
+      <c r="Q41" s="25"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="H43" s="1" t="s">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
+        <v>6</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="I42" s="40"/>
+      <c r="J42" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="K42" s="40"/>
+      <c r="L42" s="40" t="s">
         <v>7</v>
       </c>
+      <c r="M42" s="40"/>
+      <c r="O42" s="25"/>
+      <c r="Q42" s="25"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="H44" s="1" t="s">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
         <v>7</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="B43" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="I43" s="40"/>
+      <c r="J43" s="40" t="s">
         <v>7</v>
       </c>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="40"/>
+      <c r="O43" s="25"/>
+      <c r="Q43" s="25"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="H45" s="1" t="s">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
+        <v>8</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="I44" s="40"/>
+      <c r="J44" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="K44" s="40"/>
+      <c r="L44" s="40" t="s">
         <v>7</v>
       </c>
+      <c r="M44" s="40"/>
+      <c r="O44" s="25"/>
+      <c r="Q44" s="25"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="13"/>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="40"/>
+      <c r="O45" s="25"/>
+      <c r="Q45" s="25"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="F46" s="13"/>
-      <c r="H46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="Q46" s="25"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="F47" s="13"/>
+      <c r="H47" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="O47" s="25"/>
+      <c r="Q47" s="25"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
       <c r="F48" s="13"/>
-      <c r="H48" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
+      <c r="H48" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O48" s="25"/>
+      <c r="Q48" s="25"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
       <c r="F49" s="13"/>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="14">
+        <f>COUNTIF(J42:J45,"O")+COUNTIF(L42:L45,"O")+COUNTIF(H42:H45,"O")</f>
+        <v>12</v>
+      </c>
+      <c r="I49" s="14">
+        <f>COUNTIF(J42:J45,"N")+COUNTIF(L42:L45,"N")+COUNTIF(H42:H45,"N")</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="14">
+        <f>COUNTIF(J42:J45,"F")+COUNTIF(L42:L45,"F")+COUNTIF(H42:H45,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="14">
+        <f>COUNTIF(J42:J45,"R")+COUNTIF(L42:L45,"R")+COUNTIF(H42:H45,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="14">
+        <f>SUM(H49:K49)</f>
+        <v>12</v>
+      </c>
+      <c r="M49" s="15">
+        <f>(K49+I49)/L49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="25"/>
+      <c r="Q49" s="25"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="F50" s="13"/>
+      <c r="H50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="Q50" s="25"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="F51" s="13"/>
+      <c r="H51" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="O51" s="25"/>
+      <c r="Q51" s="25"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="F52" s="13"/>
+      <c r="H52" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="18" t="s">
+      <c r="I52" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J49" s="18" t="s">
+      <c r="J52" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="18" t="s">
+      <c r="K52" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="18" t="s">
+      <c r="L52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="18" t="s">
+      <c r="M52" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="O52" s="25"/>
+      <c r="Q52" s="25"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="F50" s="13"/>
-      <c r="H50" s="16">
-        <f>COUNTIF(J43:J46,"O")+COUNTIF(L43:L46,"O")+COUNTIF(H43:H46,"O")</f>
-        <v>12</v>
-      </c>
-      <c r="I50" s="16">
-        <f>COUNTIF(J43:J46,"N")+COUNTIF(L43:L46,"N")+COUNTIF(H43:H46,"N")</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="16">
-        <f>COUNTIF(J43:J46,"F")+COUNTIF(L43:L46,"F")+COUNTIF(H43:H46,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="K50" s="16">
-        <f>COUNTIF(J43:J46,"R")+COUNTIF(L43:L46,"R")+COUNTIF(H43:H46,"R")</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="16">
-        <f>SUM(H50:K50)</f>
-        <v>12</v>
-      </c>
-      <c r="M50" s="17">
-        <f>(K50+I50)/L50</f>
-        <v>0</v>
-      </c>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="F53" s="13"/>
+      <c r="H53" s="14" t="e">
+        <f>H49+#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I53" s="14" t="e">
+        <f>I49+#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J53" s="14" t="e">
+        <f>J49+#REF!+#REF!-#REF!-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K53" s="14" t="e">
+        <f>K49+#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L53" s="14" t="e">
+        <f>SUM(H53:K53)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M53" s="15" t="e">
+        <f>(K53+I53)/L53</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O53" s="25"/>
+      <c r="Q53" s="25"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="F52" s="13"/>
-      <c r="H52" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="F53" s="13"/>
-      <c r="H53" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
       <c r="F54" s="13"/>
-      <c r="H54" s="16" t="e">
-        <f>H50+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I54" s="16" t="e">
-        <f>I50+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J54" s="16" t="e">
-        <f>J50+#REF!+#REF!-#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K54" s="16" t="e">
-        <f>K50+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L54" s="16" t="e">
-        <f>SUM(H54:K54)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M54" s="17" t="e">
-        <f>(K54+I54)/L54</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="57" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K57" s="26"/>
-      <c r="L57" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M57" s="26"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L58" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="H59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="H60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="H61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="H62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="F64" s="13"/>
-      <c r="H64" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="F65" s="13"/>
-      <c r="H65" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K65" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="F66" s="13"/>
-      <c r="H66" s="16">
-        <f>COUNTIF(J59:J62,"O")+COUNTIF(L59:L62,"O")+COUNTIF(H59:H62,"O")</f>
-        <v>12</v>
-      </c>
-      <c r="I66" s="16">
-        <f>COUNTIF(J59:J62,"N")+COUNTIF(L59:L62,"N")+COUNTIF(H59:H62,"N")</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="16">
-        <f>COUNTIF(J59:J62,"F")+COUNTIF(L59:L62,"F")+COUNTIF(H59:H62,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="16">
-        <f>COUNTIF(J59:J62,"R")+COUNTIF(L59:L62,"R")+COUNTIF(H59:H62,"R")</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="16">
-        <f>SUM(H66:K66)</f>
-        <v>12</v>
-      </c>
-      <c r="M66" s="17">
-        <f>(K66+I66)/L66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="F68" s="13"/>
-      <c r="H68" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="F69" s="13"/>
-      <c r="H69" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K69" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L69" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="F70" s="13"/>
-      <c r="H70" s="16" t="e">
-        <f>H66+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I70" s="16" t="e">
-        <f>I66+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J70" s="16" t="e">
-        <f>J66+#REF!+#REF!-#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K70" s="16" t="e">
-        <f>K66+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L70" s="16" t="e">
-        <f>SUM(H70:K70)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M70" s="17" t="e">
-        <f>(K70+I70)/L70</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="F71" s="13"/>
+      <c r="H54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="Q54" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="H64:M64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="H68:M68"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+  <mergeCells count="62">
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="J10:K10"/>
@@ -5907,18 +5972,42 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="colorScale" priority="459">
+    <cfRule type="colorScale" priority="512">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5930,7 +6019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B7 B8:B9">
-    <cfRule type="dataBar" priority="461">
+    <cfRule type="dataBar" priority="514">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5944,7 +6033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="427">
+    <cfRule type="colorScale" priority="480">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5956,7 +6045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="465">
+    <cfRule type="colorScale" priority="518">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5968,7 +6057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="colorScale" priority="140">
+    <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5980,7 +6069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="colorScale" priority="153">
+    <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5991,8 +6080,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="colorScale" priority="89">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6003,32 +6092,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="H50">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6059,18 +6124,246 @@
           <xm:sqref>A4:B7 B8:B9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="454" operator="containsText" id="{576A23B7-C247-43C1-A1FA-CE8EF6C3EFB4}">
+          <x14:cfRule type="containsText" priority="507" operator="containsText" id="{576A23B7-C247-43C1-A1FA-CE8EF6C3EFB4}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,H16)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="508" operator="containsText" id="{03D0585C-BB6A-4045-897F-3A9872BE4D94}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,H16)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="509" operator="containsText" id="{B74697CD-CC39-4BA4-96B6-D8C226A046A0}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,H16)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L20 J20 H20 H16 J16 L55:L67 J55:J304 H55:H187 L16 Q25:Q39 O25:O39 O55:O66 Q55:Q65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="506" operator="containsText" id="{2B29767B-FA0A-44FF-9C9A-CD971BEF9E4C}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,H16)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L20 J20 H20 H16 J16 Q25:Q39 O25:O39 L16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="502" operator="containsText" id="{2271144A-DAC2-4D80-AB29-C60EEE3FCE33}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,L13)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="503" operator="containsText" id="{61DAA8CF-E097-4FB1-9427-9F3768071BA8}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,L13)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="504" operator="containsText" id="{181DC468-EE04-4006-BBB9-9BFD2B4A15D7}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,L13)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L13 L15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="501" operator="containsText" id="{20F3E20A-074E-44BA-A68C-0D8D0E24C508}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,L13)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L13 L15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="482" operator="containsText" id="{51C3C8B7-46E6-4678-A9A1-70A5900A3D33}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,J14)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="483" operator="containsText" id="{257B2929-1095-4587-906A-E882E6D8B8C1}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,J14)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="484" operator="containsText" id="{CB58348D-B391-4739-BEAC-B4D1CD094F32}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,J14)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J14:J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="481" operator="containsText" id="{DEE86439-7F49-4B3A-83A9-17D856DD5A67}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,J14)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J14:J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="459" operator="containsText" id="{77870EE6-AFAE-4A2E-B7A9-5D61CDA5C403}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,H15)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="456" operator="containsText" id="{2DF706CB-5F38-4F70-969B-12434273A9C9}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,H15)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="457" operator="containsText" id="{E344B85B-432F-48C9-8EDB-89631E7D7D32}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,H15)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="458" operator="containsText" id="{72EF6144-AAED-4E0D-8EFD-3FCABEC5FD1D}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,H15)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="455" operator="containsText" id="{4C9C7B85-593D-4DD4-B134-763F0A6EE1AC}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,H15)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="369" operator="containsText" id="{5A0E69EE-4E0F-48D3-9E99-5F6A90C1B3E6}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H14)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="366" operator="containsText" id="{80309EE4-413A-48B8-9CB2-4A990CC24B5E}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,H14)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
                   <bgColor theme="0" tint="-0.14996795556505021"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="455" operator="containsText" id="{03D0585C-BB6A-4045-897F-3A9872BE4D94}">
+          <x14:cfRule type="containsText" priority="367" operator="containsText" id="{EDCD2A00-4EED-47C3-B8DF-D3FE014AA8A7}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H14)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6081,7 +6374,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="456" operator="containsText" id="{B74697CD-CC39-4BA4-96B6-D8C226A046A0}">
+          <x14:cfRule type="containsText" priority="368" operator="containsText" id="{788F73ED-53DB-4A3A-89A4-E8D12B49A090}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H14)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6092,10 +6385,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L20 J20 H20 H16 J15:J16 L14:L16 Q25:Q96 O25:O97 L40 J40 H40 H56 J56 L56 L72:L98 J72:J335 H72:H218</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="453" operator="containsText" id="{2B29767B-FA0A-44FF-9C9A-CD971BEF9E4C}">
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="365" operator="containsText" id="{66F9A9F9-1052-4534-88A9-0DEB24FDF48C}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H14)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6106,266 +6399,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L20 J20 H20 H16 J15:J16 L14:L16 Q25:Q57 O25:O57 L40 J40 H40 H56 J56 L56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="449" operator="containsText" id="{2271144A-DAC2-4D80-AB29-C60EEE3FCE33}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L13)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="450" operator="containsText" id="{61DAA8CF-E097-4FB1-9427-9F3768071BA8}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,L13)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="451" operator="containsText" id="{181DC468-EE04-4006-BBB9-9BFD2B4A15D7}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,L13)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="448" operator="containsText" id="{20F3E20A-074E-44BA-A68C-0D8D0E24C508}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,L13)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="429" operator="containsText" id="{51C3C8B7-46E6-4678-A9A1-70A5900A3D33}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J14)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="430" operator="containsText" id="{257B2929-1095-4587-906A-E882E6D8B8C1}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,J14)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="431" operator="containsText" id="{CB58348D-B391-4739-BEAC-B4D1CD094F32}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,J14)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="428" operator="containsText" id="{DEE86439-7F49-4B3A-83A9-17D856DD5A67}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,J14)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="406" operator="containsText" id="{77870EE6-AFAE-4A2E-B7A9-5D61CDA5C403}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H15)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="403" operator="containsText" id="{2DF706CB-5F38-4F70-969B-12434273A9C9}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H15)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="404" operator="containsText" id="{E344B85B-432F-48C9-8EDB-89631E7D7D32}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,H15)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="405" operator="containsText" id="{72EF6144-AAED-4E0D-8EFD-3FCABEC5FD1D}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,H15)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="402" operator="containsText" id="{4C9C7B85-593D-4DD4-B134-763F0A6EE1AC}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,H15)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="333" operator="containsText" id="{B128C913-1F6D-417E-92A0-05B19B2511C0}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J15)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="332" operator="containsText" id="{AEF11232-F3B8-4B51-BB70-CD869C9A9A1D}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L15)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="316" operator="containsText" id="{5A0E69EE-4E0F-48D3-9E99-5F6A90C1B3E6}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H14)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="313" operator="containsText" id="{80309EE4-413A-48B8-9CB2-4A990CC24B5E}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H14)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="314" operator="containsText" id="{EDCD2A00-4EED-47C3-B8DF-D3FE014AA8A7}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,H14)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="315" operator="containsText" id="{788F73ED-53DB-4A3A-89A4-E8D12B49A090}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,H14)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="312" operator="containsText" id="{66F9A9F9-1052-4534-88A9-0DEB24FDF48C}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,H14)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="174" operator="containsText" id="{14DAB33A-A654-468F-9D84-CB03B2C1F0EC}">
+          <x14:cfRule type="containsText" priority="227" operator="containsText" id="{14DAB33A-A654-468F-9D84-CB03B2C1F0EC}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,J13)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6376,7 +6413,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="175" operator="containsText" id="{45B7A473-F3CA-443F-AB14-DA5FF2A92AE2}">
+          <x14:cfRule type="containsText" priority="228" operator="containsText" id="{45B7A473-F3CA-443F-AB14-DA5FF2A92AE2}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,J13)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6387,7 +6424,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="176" operator="containsText" id="{46A2B0D3-B318-4373-AD08-B69DD84C2E66}">
+          <x14:cfRule type="containsText" priority="229" operator="containsText" id="{46A2B0D3-B318-4373-AD08-B69DD84C2E66}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,J13)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6401,7 +6438,7 @@
           <xm:sqref>J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="173" operator="containsText" id="{D0EC8C1E-BE41-4BAB-AFF9-CCD6096E90A7}">
+          <x14:cfRule type="containsText" priority="226" operator="containsText" id="{D0EC8C1E-BE41-4BAB-AFF9-CCD6096E90A7}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,J13)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6415,7 +6452,7 @@
           <xm:sqref>J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="192" operator="containsText" id="{CFA4F87D-F69F-4514-BB20-7562E85FF9EA}">
+          <x14:cfRule type="containsText" priority="245" operator="containsText" id="{CFA4F87D-F69F-4514-BB20-7562E85FF9EA}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H13)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6429,7 +6466,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="189" operator="containsText" id="{A2748584-0203-4B64-8AB2-736A532A55C2}">
+          <x14:cfRule type="containsText" priority="242" operator="containsText" id="{A2748584-0203-4B64-8AB2-736A532A55C2}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H13)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6440,7 +6477,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="190" operator="containsText" id="{A05F741D-690B-4A93-9F5B-730E90B9907D}">
+          <x14:cfRule type="containsText" priority="243" operator="containsText" id="{A05F741D-690B-4A93-9F5B-730E90B9907D}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H13)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6451,7 +6488,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="191" operator="containsText" id="{F2A5976D-7110-47F8-9657-D44090B88974}">
+          <x14:cfRule type="containsText" priority="244" operator="containsText" id="{F2A5976D-7110-47F8-9657-D44090B88974}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H13)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6465,7 +6502,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="188" operator="containsText" id="{00E666FF-28D9-47F4-926D-00FB71B8F68B}">
+          <x14:cfRule type="containsText" priority="241" operator="containsText" id="{00E666FF-28D9-47F4-926D-00FB71B8F68B}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H13)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6479,7 +6516,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="187" operator="containsText" id="{30FE5BDC-E8F2-47D1-AB7A-4E9056E6C534}">
+          <x14:cfRule type="containsText" priority="240" operator="containsText" id="{30FE5BDC-E8F2-47D1-AB7A-4E9056E6C534}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H12)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6493,7 +6530,7 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="184" operator="containsText" id="{D0E4F8B1-B584-472F-B3CA-AA48EDA49BC9}">
+          <x14:cfRule type="containsText" priority="237" operator="containsText" id="{D0E4F8B1-B584-472F-B3CA-AA48EDA49BC9}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H12)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6504,7 +6541,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="185" operator="containsText" id="{9CC96CA1-4203-48E0-9853-E3728D721F36}">
+          <x14:cfRule type="containsText" priority="238" operator="containsText" id="{9CC96CA1-4203-48E0-9853-E3728D721F36}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H12)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6515,7 +6552,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="186" operator="containsText" id="{495BEF51-188D-4EF7-A87C-CE1A10D61264}">
+          <x14:cfRule type="containsText" priority="239" operator="containsText" id="{495BEF51-188D-4EF7-A87C-CE1A10D61264}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H12)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6529,7 +6566,7 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="183" operator="containsText" id="{680A7EA6-B3D2-4656-809E-8491089F7933}">
+          <x14:cfRule type="containsText" priority="236" operator="containsText" id="{680A7EA6-B3D2-4656-809E-8491089F7933}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H12)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6543,7 +6580,7 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="182" operator="containsText" id="{25B7CA14-B12B-42E7-8E4A-C403F8FBAB5D}">
+          <x14:cfRule type="containsText" priority="235" operator="containsText" id="{25B7CA14-B12B-42E7-8E4A-C403F8FBAB5D}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,J12)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6557,7 +6594,7 @@
           <xm:sqref>J12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="179" operator="containsText" id="{90E6E15A-173D-42D6-8069-0CEA170769C9}">
+          <x14:cfRule type="containsText" priority="232" operator="containsText" id="{90E6E15A-173D-42D6-8069-0CEA170769C9}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,J12)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6568,7 +6605,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="180" operator="containsText" id="{1AF03AAA-1513-416A-BBA7-CD588C95CAE5}">
+          <x14:cfRule type="containsText" priority="233" operator="containsText" id="{1AF03AAA-1513-416A-BBA7-CD588C95CAE5}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,J12)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6579,7 +6616,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="181" operator="containsText" id="{3E300078-A8AF-4D5B-BA3D-9AF5ECD5BB0C}">
+          <x14:cfRule type="containsText" priority="234" operator="containsText" id="{3E300078-A8AF-4D5B-BA3D-9AF5ECD5BB0C}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,J12)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6593,7 +6630,7 @@
           <xm:sqref>J12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="178" operator="containsText" id="{B3C4A68F-2C4E-4674-9499-BF57E6BBA905}">
+          <x14:cfRule type="containsText" priority="231" operator="containsText" id="{B3C4A68F-2C4E-4674-9499-BF57E6BBA905}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,J12)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6607,7 +6644,7 @@
           <xm:sqref>J12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="177" operator="containsText" id="{A5E43126-3BEA-49A2-96BC-0DAA757A0A2D}">
+          <x14:cfRule type="containsText" priority="230" operator="containsText" id="{A5E43126-3BEA-49A2-96BC-0DAA757A0A2D}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,J13)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6621,7 +6658,7 @@
           <xm:sqref>J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="172" operator="containsText" id="{95021187-A443-4A97-8268-6AF4CC627198}">
+          <x14:cfRule type="containsText" priority="225" operator="containsText" id="{95021187-A443-4A97-8268-6AF4CC627198}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,L12)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6632,10 +6669,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="169" operator="containsText" id="{BC231818-6A6E-4833-9BA7-46FE6A5D7BC0}">
+          <xm:sqref>L12 L14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="222" operator="containsText" id="{BC231818-6A6E-4833-9BA7-46FE6A5D7BC0}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,L12)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6646,7 +6683,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="170" operator="containsText" id="{35701F11-E773-47F9-882A-E4E6233DD379}">
+          <x14:cfRule type="containsText" priority="223" operator="containsText" id="{35701F11-E773-47F9-882A-E4E6233DD379}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,L12)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6657,7 +6694,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="171" operator="containsText" id="{2B985FDF-1B2E-4F00-AC27-72F8286474B2}">
+          <x14:cfRule type="containsText" priority="224" operator="containsText" id="{2B985FDF-1B2E-4F00-AC27-72F8286474B2}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,L12)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6668,10 +6705,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="168" operator="containsText" id="{4EED8CCC-AE0B-44AC-9424-FDF3D035AE56}">
+          <xm:sqref>L12 L14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="221" operator="containsText" id="{4EED8CCC-AE0B-44AC-9424-FDF3D035AE56}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,L12)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6682,10 +6719,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="150" operator="containsText" id="{48FB22D6-76B0-4F13-8F61-03E426F093B0}">
+          <xm:sqref>L12 L14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="203" operator="containsText" id="{48FB22D6-76B0-4F13-8F61-03E426F093B0}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H29)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6696,7 +6733,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="151" operator="containsText" id="{BCCD0B7E-07EA-45B2-9F52-4AB3CAC9CD63}">
+          <x14:cfRule type="containsText" priority="204" operator="containsText" id="{BCCD0B7E-07EA-45B2-9F52-4AB3CAC9CD63}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H29)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6707,7 +6744,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="152" operator="containsText" id="{CBE8A2B2-E7C4-4D1C-AC25-A6066F9E7435}">
+          <x14:cfRule type="containsText" priority="205" operator="containsText" id="{CBE8A2B2-E7C4-4D1C-AC25-A6066F9E7435}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H29)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6718,10 +6755,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L35 J35 H35 H31 J30:J31 L29:L31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="149" operator="containsText" id="{3943401D-034D-43DB-9C0C-8CF08F4D98D8}">
+          <xm:sqref>L35 J35 H35 H31 J31 L29 L31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="202" operator="containsText" id="{3943401D-034D-43DB-9C0C-8CF08F4D98D8}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H29)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6732,10 +6769,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L35 J35 H35 H31 J30:J31 L29:L31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="146" operator="containsText" id="{55111395-9204-4CC9-98B4-4B3C862D9FBB}">
+          <xm:sqref>L35 J35 H35 H31 J31 L29 L31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="199" operator="containsText" id="{55111395-9204-4CC9-98B4-4B3C862D9FBB}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,L28)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6746,7 +6783,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="147" operator="containsText" id="{1B555607-2090-4978-A91D-F95A816A742E}">
+          <x14:cfRule type="containsText" priority="200" operator="containsText" id="{1B555607-2090-4978-A91D-F95A816A742E}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,L28)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6757,7 +6794,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="148" operator="containsText" id="{828DEE34-E5E6-4C21-9593-36325AFCA501}">
+          <x14:cfRule type="containsText" priority="201" operator="containsText" id="{828DEE34-E5E6-4C21-9593-36325AFCA501}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,L28)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6768,10 +6805,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="145" operator="containsText" id="{81ED4F04-7CBE-4444-8BEA-3A43C5418728}">
+          <xm:sqref>L28 L30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="198" operator="containsText" id="{81ED4F04-7CBE-4444-8BEA-3A43C5418728}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,L28)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6782,10 +6819,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="142" operator="containsText" id="{E6809D32-5941-46F8-B451-0FE66BDF5EC3}">
+          <xm:sqref>L28 L30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="195" operator="containsText" id="{E6809D32-5941-46F8-B451-0FE66BDF5EC3}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,J29)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6796,7 +6833,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="143" operator="containsText" id="{C4C496E1-BCEA-4AD5-8FEB-6DCAAB0241B8}">
+          <x14:cfRule type="containsText" priority="196" operator="containsText" id="{C4C496E1-BCEA-4AD5-8FEB-6DCAAB0241B8}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,J29)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6807,7 +6844,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="144" operator="containsText" id="{8D30BBB6-BF3E-4C91-B62B-68CCC9809CEA}">
+          <x14:cfRule type="containsText" priority="197" operator="containsText" id="{8D30BBB6-BF3E-4C91-B62B-68CCC9809CEA}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,J29)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6821,7 +6858,7 @@
           <xm:sqref>J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="141" operator="containsText" id="{492C41E8-7BCD-42F9-B029-44B2E28475EA}">
+          <x14:cfRule type="containsText" priority="194" operator="containsText" id="{492C41E8-7BCD-42F9-B029-44B2E28475EA}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,J29)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6835,7 +6872,7 @@
           <xm:sqref>J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="139" operator="containsText" id="{5762C31E-769C-4C3A-9334-4881A7125E51}">
+          <x14:cfRule type="containsText" priority="192" operator="containsText" id="{5762C31E-769C-4C3A-9334-4881A7125E51}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H30)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6849,7 +6886,7 @@
           <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="136" operator="containsText" id="{4B48E861-A9C1-4733-B32C-0F20CACF7A5F}">
+          <x14:cfRule type="containsText" priority="189" operator="containsText" id="{4B48E861-A9C1-4733-B32C-0F20CACF7A5F}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H30)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6860,7 +6897,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="137" operator="containsText" id="{02DC4B9F-BF34-4B6C-835D-A5CBF65EBE41}">
+          <x14:cfRule type="containsText" priority="190" operator="containsText" id="{02DC4B9F-BF34-4B6C-835D-A5CBF65EBE41}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H30)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6871,7 +6908,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="138" operator="containsText" id="{1F5C5EAA-F48B-4757-9D72-FA368301C066}">
+          <x14:cfRule type="containsText" priority="191" operator="containsText" id="{1F5C5EAA-F48B-4757-9D72-FA368301C066}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H30)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6885,7 +6922,7 @@
           <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="135" operator="containsText" id="{32FF0D5A-2BF6-45E3-AA34-104DD5513327}">
+          <x14:cfRule type="containsText" priority="188" operator="containsText" id="{32FF0D5A-2BF6-45E3-AA34-104DD5513327}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H30)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6899,35 +6936,7 @@
           <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="134" operator="containsText" id="{0D833B19-6D10-481C-8BE0-853FCE280054}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J30)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="133" operator="containsText" id="{EFA27E39-C636-408A-962C-1410BFD1F118}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L30)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="132" operator="containsText" id="{B9CD4B2F-45B2-465D-80F3-FE9E272A7B73}">
+          <x14:cfRule type="containsText" priority="185" operator="containsText" id="{B9CD4B2F-45B2-465D-80F3-FE9E272A7B73}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H29)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6941,7 +6950,7 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="129" operator="containsText" id="{8A14B4C1-7768-459B-9821-BAB886387320}">
+          <x14:cfRule type="containsText" priority="182" operator="containsText" id="{8A14B4C1-7768-459B-9821-BAB886387320}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H29)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -6952,7 +6961,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="130" operator="containsText" id="{692086C8-FFF5-443B-91F2-02B891815D6F}">
+          <x14:cfRule type="containsText" priority="183" operator="containsText" id="{692086C8-FFF5-443B-91F2-02B891815D6F}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H29)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -6963,7 +6972,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="131" operator="containsText" id="{F21716E2-7BDD-43E6-84DE-BCCD73B50BF1}">
+          <x14:cfRule type="containsText" priority="184" operator="containsText" id="{F21716E2-7BDD-43E6-84DE-BCCD73B50BF1}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H29)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -6977,7 +6986,7 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="128" operator="containsText" id="{EB1BDDBA-9C10-481D-8C48-FA3A5C95170F}">
+          <x14:cfRule type="containsText" priority="181" operator="containsText" id="{EB1BDDBA-9C10-481D-8C48-FA3A5C95170F}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H29)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -6991,7 +7000,7 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="109" operator="containsText" id="{FC41F506-6C1F-4258-8DA0-5B0A7ADA48F5}">
+          <x14:cfRule type="containsText" priority="162" operator="containsText" id="{FC41F506-6C1F-4258-8DA0-5B0A7ADA48F5}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,J28)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7002,7 +7011,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="110" operator="containsText" id="{6CE7B373-AC6E-4CC0-AFEC-D72F5179969B}">
+          <x14:cfRule type="containsText" priority="163" operator="containsText" id="{6CE7B373-AC6E-4CC0-AFEC-D72F5179969B}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,J28)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -7013,7 +7022,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="111" operator="containsText" id="{78758799-E18B-4D55-BBFC-9A1573B68133}">
+          <x14:cfRule type="containsText" priority="164" operator="containsText" id="{78758799-E18B-4D55-BBFC-9A1573B68133}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,J28)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -7024,10 +7033,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="108" operator="containsText" id="{85B4C88C-2476-488F-AD94-D32CD4AF86D8}">
+          <xm:sqref>J28 J30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="161" operator="containsText" id="{85B4C88C-2476-488F-AD94-D32CD4AF86D8}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,J28)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -7038,10 +7047,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="127" operator="containsText" id="{357A7C7E-6699-458F-8F06-A96B61DDC1F8}">
+          <xm:sqref>J28 J30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="180" operator="containsText" id="{357A7C7E-6699-458F-8F06-A96B61DDC1F8}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H28)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7055,7 +7064,7 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="124" operator="containsText" id="{64B30783-2F91-4E5A-85FB-611F155319FB}">
+          <x14:cfRule type="containsText" priority="177" operator="containsText" id="{64B30783-2F91-4E5A-85FB-611F155319FB}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H28)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7066,7 +7075,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="125" operator="containsText" id="{564D7907-56EA-47F6-8E04-8A0392EDAC70}">
+          <x14:cfRule type="containsText" priority="178" operator="containsText" id="{564D7907-56EA-47F6-8E04-8A0392EDAC70}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H28)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -7077,7 +7086,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="126" operator="containsText" id="{27DCD854-A0D3-4BB9-8597-70798E8AC9E2}">
+          <x14:cfRule type="containsText" priority="179" operator="containsText" id="{27DCD854-A0D3-4BB9-8597-70798E8AC9E2}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H28)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -7091,7 +7100,7 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="123" operator="containsText" id="{995FA4D2-079A-41EF-BC74-DF5B6C2142E4}">
+          <x14:cfRule type="containsText" priority="176" operator="containsText" id="{995FA4D2-079A-41EF-BC74-DF5B6C2142E4}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H28)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -7105,7 +7114,7 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="122" operator="containsText" id="{2385B0FA-0000-4007-AE10-00A2B95D9753}">
+          <x14:cfRule type="containsText" priority="175" operator="containsText" id="{2385B0FA-0000-4007-AE10-00A2B95D9753}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H27)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7119,7 +7128,7 @@
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="119" operator="containsText" id="{5DA766ED-3D0F-4C53-A6F0-B1225F58486B}">
+          <x14:cfRule type="containsText" priority="172" operator="containsText" id="{5DA766ED-3D0F-4C53-A6F0-B1225F58486B}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H27)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7130,7 +7139,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="120" operator="containsText" id="{CD195527-4630-46A6-959D-DA3F5C7E4179}">
+          <x14:cfRule type="containsText" priority="173" operator="containsText" id="{CD195527-4630-46A6-959D-DA3F5C7E4179}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H27)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -7141,7 +7150,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="121" operator="containsText" id="{F728BA65-90E3-45F7-9B4C-B96C426D0376}">
+          <x14:cfRule type="containsText" priority="174" operator="containsText" id="{F728BA65-90E3-45F7-9B4C-B96C426D0376}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H27)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -7155,7 +7164,7 @@
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="118" operator="containsText" id="{AE9C13E4-D2B2-4958-B8BF-BB1CAF472767}">
+          <x14:cfRule type="containsText" priority="171" operator="containsText" id="{AE9C13E4-D2B2-4958-B8BF-BB1CAF472767}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H27)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -7169,7 +7178,7 @@
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="117" operator="containsText" id="{13CA7BE1-BB53-450C-9F92-B1FBC01AE0ED}">
+          <x14:cfRule type="containsText" priority="170" operator="containsText" id="{13CA7BE1-BB53-450C-9F92-B1FBC01AE0ED}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,J27)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7183,7 +7192,7 @@
           <xm:sqref>J27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="114" operator="containsText" id="{0EE8F5D0-1564-4531-929C-2BE7772AE97B}">
+          <x14:cfRule type="containsText" priority="167" operator="containsText" id="{0EE8F5D0-1564-4531-929C-2BE7772AE97B}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,J27)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7194,7 +7203,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="115" operator="containsText" id="{100A25F0-6536-4258-9B3B-019421314CB8}">
+          <x14:cfRule type="containsText" priority="168" operator="containsText" id="{100A25F0-6536-4258-9B3B-019421314CB8}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,J27)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -7205,7 +7214,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="116" operator="containsText" id="{995FC51F-B7C1-467B-AD4E-644D024B9000}">
+          <x14:cfRule type="containsText" priority="169" operator="containsText" id="{995FC51F-B7C1-467B-AD4E-644D024B9000}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,J27)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -7219,7 +7228,7 @@
           <xm:sqref>J27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="113" operator="containsText" id="{5861E215-760A-4C7D-AF76-EE6F7EF23777}">
+          <x14:cfRule type="containsText" priority="166" operator="containsText" id="{5861E215-760A-4C7D-AF76-EE6F7EF23777}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,J27)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -7233,7 +7242,7 @@
           <xm:sqref>J27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="112" operator="containsText" id="{0245CD86-8B8F-45DD-9418-D987B7A58694}">
+          <x14:cfRule type="containsText" priority="165" operator="containsText" id="{0245CD86-8B8F-45DD-9418-D987B7A58694}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,J28)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7244,10 +7253,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="107" operator="containsText" id="{EE301EF3-91B5-4C02-8258-F213E34DA429}">
+          <xm:sqref>J28 J30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="160" operator="containsText" id="{EE301EF3-91B5-4C02-8258-F213E34DA429}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,L27)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7261,7 +7270,7 @@
           <xm:sqref>L27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="104" operator="containsText" id="{A0606533-7274-4214-B858-972168A2861E}">
+          <x14:cfRule type="containsText" priority="157" operator="containsText" id="{A0606533-7274-4214-B858-972168A2861E}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,L27)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7272,7 +7281,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="105" operator="containsText" id="{B2C731CD-3FFD-4F85-AEC3-CE133908692E}">
+          <x14:cfRule type="containsText" priority="158" operator="containsText" id="{B2C731CD-3FFD-4F85-AEC3-CE133908692E}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,L27)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -7283,7 +7292,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="106" operator="containsText" id="{9D3E8913-C995-4D1F-BA8D-6B40EAE52E05}">
+          <x14:cfRule type="containsText" priority="159" operator="containsText" id="{9D3E8913-C995-4D1F-BA8D-6B40EAE52E05}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,L27)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -7297,7 +7306,7 @@
           <xm:sqref>L27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="103" operator="containsText" id="{B17FEB67-525F-405F-AE30-35BBB21A69E2}">
+          <x14:cfRule type="containsText" priority="156" operator="containsText" id="{B17FEB67-525F-405F-AE30-35BBB21A69E2}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,L27)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -7311,18 +7320,232 @@
           <xm:sqref>L27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="99" operator="containsText" id="{A9346666-0F62-4EF7-B963-74C63E0A4A67}">
+          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{62A3FAEF-B0D3-4EDA-B8A8-31A48E4A3AB5}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,O40)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{755A7A46-E6BB-48EC-9458-A846B4057E19}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,O40)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{5FD520F1-7946-4161-BC5A-32F0A10EDA22}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,O40)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q40:Q54 O40:O54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{2D881FDC-D8BC-4CB2-97AE-FAF524ACC872}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,O40)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q40:Q54 O40:O54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="46" operator="containsText" id="{C1E3BE8A-BD39-4CFC-9742-6A4EAD2285EC}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,H44)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{285866E5-DD5A-42D9-858E-AAB44E2C4C79}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,H44)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{074CE9F0-0DC9-4BB4-AF14-9FDCD8B4A076}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,H44)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L50 J50 H50 H46 J46 L44 L46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="45" operator="containsText" id="{6898465C-D3A6-4A3E-A1DF-813C5D7B465F}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,H44)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L50 J50 H50 H46 J46 L44 L46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{ED3F0CDF-CEF3-496B-81D4-325ECA0C9F83}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,L43)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{3C16823B-C801-41EE-98CB-B65E89927670}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,L43)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{E3A0D051-BD20-4A2F-8613-6D60A134C96E}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,L43)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L43 L45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{3A72C9A1-0847-41B1-A0CB-0C8676448D1F}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,L43)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L43 L45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{8F282C1E-A5EC-45BB-85E6-D352D727C589}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,J44)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{A02D772B-C11F-487C-BBB2-91F2C9BB75AB}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,J44)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{FE8C3A8C-1A4B-4E88-B3CB-B04EB168532B}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,J44)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{650B61BF-C0F6-4980-9F2E-85BEBAE6236B}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,J44)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{36797817-14DF-4B44-B105-FA3EAEE8E94E}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H45)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{37D19118-478B-46BC-B439-BDB76EFA1929}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,H45)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
                   <bgColor theme="0" tint="-0.14996795556505021"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="100" operator="containsText" id="{A61A13FF-3380-40BE-9E4A-E97F53A3A6EA}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{91F6B284-6D0A-408A-B096-613926BE9832}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H45)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -7333,7 +7556,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="101" operator="containsText" id="{70A13B3B-4CCA-422B-BF80-6A124C08F0B2}">
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{1590142C-0736-47A0-A6D5-FC76CFC288E2}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H45)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -7344,10 +7567,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L51 J51 H51 H47 J46:J47 L45:L47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="98" operator="containsText" id="{17C028F5-EBF6-417E-BE00-0C2434BCD2DA}">
+          <xm:sqref>H45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{783CBE05-BBD6-45B2-B5B5-F929A12136C7}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H45)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -7358,316 +7581,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L51 J51 H51 H47 J46:J47 L45:L47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="95" operator="containsText" id="{1BA2AFDF-542C-4E53-94CE-6C4840D3F378}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L44)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="96" operator="containsText" id="{CDB395C9-839A-4A5A-9FFC-24E278F05407}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,L44)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="97" operator="containsText" id="{03034F5B-6EE3-407D-95F7-A61CD56A59EA}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,L44)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="94" operator="containsText" id="{A36E3869-3096-4A9A-B674-6D695E17037F}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,L44)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="91" operator="containsText" id="{434F635C-F852-4E02-AB01-ADEB337D469B}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J45)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="92" operator="containsText" id="{269BFDF3-8790-4A0E-9611-2DDD79A4406A}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,J45)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="93" operator="containsText" id="{C70A35EE-E6DB-4AE3-B380-4FF56687FA4C}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,J45)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="90" operator="containsText" id="{A68AECD5-3A23-4FCE-AF72-09FCD2CAF036}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,J45)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="88" operator="containsText" id="{612CDA25-A6DC-4B4D-B40C-7619DB1EE04D}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H46)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="85" operator="containsText" id="{4F4E7A9F-15AE-4893-8C86-10E2C1082057}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H46)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="86" operator="containsText" id="{DF558E39-0E0F-4612-B376-B40CC6B6B7AB}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,H46)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="87" operator="containsText" id="{8787CD79-FDA8-465E-9D79-B7D4B1DA0B85}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,H46)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="84" operator="containsText" id="{488E9FD2-93BA-44F9-BD68-E296D9E7589F}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,H46)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="83" operator="containsText" id="{E314B603-5C01-4CF1-8089-7F98BFCC660A}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J46)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="82" operator="containsText" id="{D5853540-E25D-4826-91E7-242651F99387}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L46)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="81" operator="containsText" id="{A91C7E48-F9CD-4A91-8F03-4DD8EBEBACD4}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H45)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <xm:sqref>H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{2017FCC3-DB3E-472F-9308-908151F13D94}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H45)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="79" operator="containsText" id="{33EE9551-EF0F-4269-BDC2-B5FCF4BC2076}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,H45)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="80" operator="containsText" id="{4799B343-1720-47FE-8ADD-893FDE41DD13}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,H45)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{8A3572D8-18A3-4E57-B807-B5AC8B988A9F}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,H45)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{DE28E9A0-759B-4DB8-A81A-EF439E0FD655}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J44)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{40489D1A-995F-4DAE-A1DB-54A41DE87328}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,J44)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{90B8AA1B-EB34-4D71-9DEE-2C8F05818CB9}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,J44)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{7E91CE9C-3D84-4472-BB44-1396BA474DFF}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,J44)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="76" operator="containsText" id="{EAB0B442-3A5A-431A-B5A7-9C4A1F40173E}">
+          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{12510C67-2BE7-403B-8940-E8F7B25C9219}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H44)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7681,7 +7598,7 @@
           <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{22C5E0AD-2106-49FC-8256-319C826ACCA0}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{8F612609-185D-4F88-94E1-7A42EAD72D88}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H44)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7692,7 +7609,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="74" operator="containsText" id="{FED76A3B-8459-4A74-8AAF-911B40C60D27}">
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{7EC958B2-96A6-46CF-9D4E-CAD18A611576}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H44)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -7703,7 +7620,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="75" operator="containsText" id="{81C96DC9-E04C-4A34-89DC-FE6AAA330F5E}">
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{06EEA2A1-7F61-4502-BD6A-50F7D8BFA335}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H44)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -7717,7 +7634,7 @@
           <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="72" operator="containsText" id="{420ABABD-7E96-4A05-A748-C536DF91ABEC}">
+          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{231FCA08-D526-4FEB-A9D8-CD05889FF3ED}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H44)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -7731,7 +7648,57 @@
           <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="71" operator="containsText" id="{27E8640D-1361-4370-93EE-F1BB32BB4409}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{D99AC30A-5CA3-4EE3-8FCE-A95009249CD9}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,J43)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{FA6D5C34-56FD-4DB3-9BEB-DC169F74A5A8}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,J43)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{D8B98610-F7FF-4105-8B36-5BFD18F0E19A}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,J43)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J43 J45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{DC40FF24-0206-4817-8267-69BE7F4B942D}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,J43)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J43 J45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{AB9EDBF9-3DF8-4F67-8613-4452C9B15CB5}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H43)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7745,7 +7712,7 @@
           <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="68" operator="containsText" id="{4FDD3ADB-7390-42ED-A1B7-DAAB0151B75B}">
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{708A5992-4E4E-45BB-A37D-E839FC78126F}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,H43)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7756,7 +7723,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="69" operator="containsText" id="{F9676620-788E-4DB9-99D1-534EADD4C720}">
+          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{6D91843F-CA49-4802-AC94-9FCACD4D5231}">
             <xm:f>NOT(ISERROR(SEARCH($B$6,H43)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
@@ -7767,7 +7734,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="70" operator="containsText" id="{D2A2E413-4EB5-4C96-AD79-494718EA7840}">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{803B7AC4-B14D-4A35-950A-689114967C1C}">
             <xm:f>NOT(ISERROR(SEARCH($B$5,H43)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
@@ -7781,7 +7748,7 @@
           <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="67" operator="containsText" id="{9682DD23-F6B5-4640-8C41-A0BFF41E6BB3}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{03FE34A4-F3B5-4F9F-89F6-998751DBC785}">
             <xm:f>NOT(ISERROR(SEARCH($B$7,H43)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
@@ -7795,7 +7762,135 @@
           <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="66" operator="containsText" id="{C98EF63D-E013-44F5-9AA8-80BDC177842B}">
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{3B8945E7-458E-4D4E-86F5-5346D090A900}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,H42)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{BB2E7526-84FA-4891-8C58-61FD02D0DABD}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,H42)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{F22C062B-457A-4A51-B3C3-DC2CC2140BCB}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,H42)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{DEDB597B-BE59-4640-A09D-C96EA0B479AD}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,H42)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{2D86D9D8-756F-45D9-AB42-2988AAB91745}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,H42)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{CB86C007-5647-42AF-A405-B0EF521DCF80}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,J42)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{844870CC-938F-4837-9218-B078103DCF01}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,J42)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{87504CCC-1BA4-4320-A342-67418985563A}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,J42)))</xm:f>
+            <xm:f>$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{DB31F7C6-06AA-458D-A28B-BB46437D8CA5}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,J42)))</xm:f>
+            <xm:f>$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{C404BA9E-5D6A-4603-A0BB-C52D07EC2564}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,J42)))</xm:f>
+            <xm:f>$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{1CA8253B-D110-4BA9-8508-7751F238E1BE}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,J43)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -7806,22 +7901,36 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{A690FA06-243E-4F81-938E-744C769B6821}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J43)))</xm:f>
+          <xm:sqref>J43 J45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{7EB00815-48A8-4850-872C-2411AB866CAD}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,L42)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{96891AE0-F666-4B5B-913C-D111FC6EA62F}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,L42)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
                   <bgColor theme="0" tint="-0.14996795556505021"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{A59F275D-73B0-4809-8CC1-C29A7C8779AD}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,J43)))</xm:f>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{87FE0D1C-046F-4175-A7D8-C972EC70F959}">
+            <xm:f>NOT(ISERROR(SEARCH($B$6,L42)))</xm:f>
             <xm:f>$B$6</xm:f>
             <x14:dxf>
               <fill>
@@ -7831,8 +7940,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="65" operator="containsText" id="{72E6A40E-8561-4260-8761-D8C239F24BC9}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,J43)))</xm:f>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{3570CB72-2DE7-4EB4-B124-8AD0735B96C1}">
+            <xm:f>NOT(ISERROR(SEARCH($B$5,L42)))</xm:f>
             <xm:f>$B$5</xm:f>
             <x14:dxf>
               <fill>
@@ -7842,11 +7951,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{EE82AC45-195A-4C4C-B660-76C272A3373C}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,J43)))</xm:f>
+          <xm:sqref>L42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{132D1F50-0B75-4EFE-B40F-86BA31D1C582}">
+            <xm:f>NOT(ISERROR(SEARCH($B$7,L42)))</xm:f>
             <xm:f>$B$7</xm:f>
             <x14:dxf>
               <fill>
@@ -7856,711 +7965,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{9A60A9CC-995D-430C-BD9B-3BFB26DDA17A}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J44)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{D682F87B-BD25-469A-A30F-D64AFA32A32D}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L43)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{38A27175-3930-41ED-A12F-17B15AB58B1D}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L43)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{DE3BBC5E-C0DD-4C3B-8972-F737CACA4DE9}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,L43)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{70194737-EB7E-4F61-831C-2F565B08CB07}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,L43)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{4DA8858E-2C23-4087-80D2-61E8241CBD71}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,L43)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{28F11C4C-41B1-4EAD-B38B-63CCE832AA4E}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H61)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{207FCA14-C724-4355-8DEC-BD2F649BD29C}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,H61)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{9A1861C0-2FDA-4374-8242-11A211755415}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,H61)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L67 J67 H67 H63 J62:J63 L61:L63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{8943D2A1-FE71-4E36-B2EC-7D94CD85CE49}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,H61)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L67 J67 H67 H63 J62:J63 L61:L63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{37266B52-3AFA-4D78-9147-CC39E137B9D3}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L60)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="45" operator="containsText" id="{78504AAC-E34C-4B1F-8F38-664D71012AAF}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,L60)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="46" operator="containsText" id="{A4CC6E68-DC26-40D2-ADA1-7EE2C4FAD2B5}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,L60)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{692A2A83-1149-47AB-88DE-633EF4EACDEB}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,L60)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{9CD335AF-B3D6-4F32-B32B-67CA3C8667F6}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J61)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{381E9010-0FB8-4522-BB10-FDCEFF3D07CF}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,J61)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{E4A05E74-801B-4274-8C3A-73CAB2FEEA82}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,J61)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{DE04ED5E-C60B-4B37-B6D1-FA90F157B804}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,J61)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{5B618330-A76C-49CE-AB56-A46745B4C6E7}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H62)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{3104AA31-06C5-4F0A-8F0B-173C3D663C5D}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H62)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{A4745BF2-6A3D-4D95-89EF-646D485DBC91}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,H62)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{6F31ADCB-1E7B-4CF2-B353-99597E6F9D56}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,H62)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{C06AEE31-D820-4C1A-BE41-C8C59E615B9D}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,H62)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{4D759F6C-97D1-4D91-9B38-271AF6F98B60}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J62)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{C386DB1D-31A1-4512-8CB1-F6167D9DE652}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L62)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{8DA52499-5498-4BEB-8503-296ACA82B510}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H61)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{2ECF6DD8-E74F-4D46-A818-322C978BAB8D}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H61)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{989B97E0-16BE-4572-BEAF-C91FBA3F8CF4}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,H61)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{BAD58C46-6391-46A8-A13E-ABC1FD30E56F}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,H61)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{70EE5773-657A-41DE-B3AF-D6FB59594223}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,H61)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{8C9BABC6-084E-4BBE-8128-BEBDB4576194}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J60)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{96E95D3F-CA64-4E07-AD55-FD9AF4FEDF69}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,J60)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{703090C7-5773-4187-A48F-0B881E38BE8E}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,J60)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{A46CFE4F-156B-412E-A30F-7EB164F1E5C1}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,J60)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{CB9E2D5C-264F-4F95-9D72-CE98623E8470}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H60)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{935C28D7-DACD-4BF8-BC2C-4BC009173067}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H60)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{0A36E211-7CCA-40DA-B744-2D19C4780C30}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,H60)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{7D30750B-AF1E-4E79-A8DC-4D06EC5D03A3}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,H60)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{80AF6F8A-1CFB-4ED9-A6BA-DBB90CE01D1F}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,H60)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{225560BD-C063-4F90-B49A-8D069A840431}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H59)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{A7D2FCEC-89DE-4702-B4F1-A12D930C1304}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,H59)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{B1CCAFE9-CCE9-4C42-BF23-0503B5E4F450}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,H59)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{D8B2EAA1-4980-4B9D-B65C-C919347DFEBC}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,H59)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{07C36AF6-8663-4298-A546-41DF549E6333}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,H59)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{D7750484-9764-4225-A3ED-8D6F3506CCDC}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J59)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{5F5525C3-D9BA-478A-BF1D-C3E1432F68A9}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J59)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{A16EBB29-3344-496F-9963-CFB5DB5D4867}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,J59)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{13CF8409-9E1D-4A78-B0FF-4833E34810C9}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,J59)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{E70A2ABE-B2E1-453D-8B15-9E3F070721E9}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,J59)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{330E21D1-BDFF-4725-B492-F06526F323D0}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,J60)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{B486C76A-822C-499D-A80B-ACB25F6875BF}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L59)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{72FC4621-2A00-48A7-869F-D8B620BB512D}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,L59)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{342D8416-9721-49DB-90FA-458E53AA4FD1}">
-            <xm:f>NOT(ISERROR(SEARCH($B$6,L59)))</xm:f>
-            <xm:f>$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{4D77A3C4-DC81-42CA-8B77-5E9DC7611C54}">
-            <xm:f>NOT(ISERROR(SEARCH($B$5,L59)))</xm:f>
-            <xm:f>$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{4B3D9038-C3A0-4E83-A432-1534688B7FD0}">
-            <xm:f>NOT(ISERROR(SEARCH($B$7,L59)))</xm:f>
-            <xm:f>$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L59</xm:sqref>
+          <xm:sqref>L42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Basisverzeichnis/trunk/04_Test/Systemtest_TestCases.xlsx
+++ b/Basisverzeichnis/trunk/04_Test/Systemtest_TestCases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760"/>
@@ -9,8 +9,187 @@
   <sheets>
     <sheet name="Systemtest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>MathiasSchneider</author>
+  </authors>
+  <commentList>
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MathiasSchneider:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Bitte Testdatei angeben</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MathiasSchneider:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Bitte Testdatei angeben
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MathiasSchneider:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Zoomen und ziehen als UCs?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MathiasSchneider:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Verschieben und Redraw-Button</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MathiasSchneider:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Korrekte Order of Visit Property bei Szenario-Graph</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E94" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MathiasSchneider:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Neue Anforderung: Interne Attribute, welche z.B. für den SzenarioMatrixCreator benötigt werden, sollen nicht angezeigt werden</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D128" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MathiasSchneider:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Logging File Öffnen</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,8 +587,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +664,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -824,29 +1016,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,10 +1047,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -872,8 +1061,11 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -883,3774 +1075,7 @@
     <cellStyle name="Prozent" xfId="4" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="538">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4661,7 +1086,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -4735,7 +1160,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4770,7 +1194,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -4946,15 +1369,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
@@ -4985,16 +1408,16 @@
     <col min="27" max="27" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:20" ht="18.75">
+      <c r="A1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="12"/>
       <c r="I1" s="7"/>
       <c r="J1" s="12"/>
@@ -5007,16 +1430,16 @@
       <c r="Q1" s="12"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:20" ht="18.75">
+      <c r="A2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="12"/>
       <c r="I2" s="7"/>
       <c r="J2" s="12"/>
@@ -5029,14 +1452,14 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="23"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -5050,7 +1473,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -5065,7 +1488,7 @@
       <c r="J5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="14.25" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="11" t="s">
         <v>10</v>
@@ -5080,7 +1503,7 @@
       <c r="J6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="14.25" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -5091,7 +1514,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -5100,45 +1523,45 @@
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1">
       <c r="B9" s="10"/>
       <c r="D9" s="21"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+    <row r="10" spans="1:20" ht="18.75">
+      <c r="A10" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="57" t="s">
+      <c r="I10" s="56"/>
+      <c r="J10" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="57" t="s">
+      <c r="K10" s="56"/>
+      <c r="L10" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="58"/>
+      <c r="M10" s="56"/>
       <c r="O10"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
@@ -5172,14 +1595,14 @@
       <c r="O11"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:20" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="150" customHeight="1">
       <c r="A12" s="32">
         <v>1</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="36" t="s">
         <v>31</v>
       </c>
@@ -5209,14 +1632,14 @@
       <c r="O12"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:20" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="164.25" customHeight="1">
       <c r="A13" s="37">
         <v>2</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="36" t="s">
         <v>31</v>
       </c>
@@ -5244,14 +1667,14 @@
       <c r="O13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:20" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="164.25" customHeight="1">
       <c r="A14" s="32">
         <v>3</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="36" t="s">
         <v>31</v>
       </c>
@@ -5279,37 +1702,37 @@
       <c r="O14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
+    <row r="15" spans="1:20">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
       <c r="F15" s="13"/>
       <c r="O15"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+    <row r="16" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
       <c r="F16" s="13"/>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="O16" s="50" t="s">
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="O16" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
       <c r="F17" s="13"/>
       <c r="H17" s="16" t="s">
         <v>4</v>
@@ -5348,9 +1771,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
+    <row r="18" spans="1:20">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
       <c r="F18" s="13"/>
       <c r="H18" s="14">
         <f>COUNTIF(H12:H14,"O")</f>
@@ -5401,37 +1824,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+    <row r="19" spans="1:20">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
       <c r="F19" s="13"/>
       <c r="O19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+    <row r="20" spans="1:20">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
       <c r="F20" s="13"/>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="O20" s="50" t="s">
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="O20" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="F21" s="13"/>
       <c r="H21" s="16" t="s">
         <v>4</v>
@@ -5470,9 +1893,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+    <row r="22" spans="1:20">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
       <c r="F22" s="13"/>
       <c r="H22" s="14">
         <f>H18+O18+O22</f>
@@ -5523,44 +1946,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+    <row r="23" spans="1:20" ht="32.25" customHeight="1">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
       <c r="F23" s="13"/>
       <c r="O23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+    <row r="24" spans="1:20" ht="18.75">
+      <c r="A24" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="57" t="s">
+      <c r="I24" s="56"/>
+      <c r="J24" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="57" t="s">
+      <c r="K24" s="56"/>
+      <c r="L24" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="58"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M24" s="56"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="18" t="s">
         <v>1</v>
       </c>
@@ -5592,14 +2015,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="225" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="225">
       <c r="A26" s="32">
         <v>4</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="36" t="s">
         <v>35</v>
       </c>
@@ -5627,14 +2050,14 @@
       </c>
       <c r="M26" s="33"/>
     </row>
-    <row r="27" spans="1:20" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="198" customHeight="1">
       <c r="A27" s="32">
         <v>5</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="36" t="s">
         <v>41</v>
       </c>
@@ -5662,14 +2085,14 @@
       </c>
       <c r="M27" s="33"/>
     </row>
-    <row r="28" spans="1:20" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="198" customHeight="1">
       <c r="A28" s="32">
         <v>6</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="54"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="36" t="s">
         <v>43</v>
       </c>
@@ -5697,9 +2120,9 @@
       </c>
       <c r="M28" s="33"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+    <row r="29" spans="1:20">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
       <c r="F29" s="13"/>
       <c r="H29" s="45"/>
       <c r="J29" s="45"/>
@@ -5707,30 +2130,30 @@
       <c r="O29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+    <row r="30" spans="1:20">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
       <c r="F30" s="13"/>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="O30" s="50" t="s">
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="O30" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
       <c r="F31" s="13"/>
       <c r="H31" s="16" t="s">
         <v>4</v>
@@ -5769,9 +2192,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
+    <row r="32" spans="1:20">
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
       <c r="F32" s="13"/>
       <c r="H32" s="14">
         <f>COUNTIF(H26:H28,"O")</f>
@@ -5822,9 +2245,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+    <row r="33" spans="1:20">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
       <c r="F33" s="13"/>
       <c r="H33" s="45"/>
       <c r="J33" s="45"/>
@@ -5832,30 +2255,30 @@
       <c r="O33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+    <row r="34" spans="1:20">
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
       <c r="F34" s="13"/>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="O34" s="50" t="s">
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="O34" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
       <c r="F35" s="13"/>
       <c r="H35" s="16" t="s">
         <v>4</v>
@@ -5894,9 +2317,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
+    <row r="36" spans="1:20">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
       <c r="F36" s="13"/>
       <c r="H36" s="14">
         <f>H32+O32+O36</f>
@@ -5947,9 +2370,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
+    <row r="37" spans="1:20">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
       <c r="F37" s="13"/>
       <c r="H37" s="45"/>
       <c r="J37" s="45"/>
@@ -5957,32 +2380,32 @@
       <c r="O37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="55" t="s">
+    <row r="38" spans="1:20" ht="18.75">
+      <c r="A38" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="57" t="s">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="58"/>
-      <c r="J38" s="57" t="s">
+      <c r="I38" s="56"/>
+      <c r="J38" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="57" t="s">
+      <c r="K38" s="56"/>
+      <c r="L38" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M38" s="58"/>
+      <c r="M38" s="56"/>
       <c r="O38" s="25"/>
       <c r="Q38" s="25"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="19" t="s">
         <v>0</v>
       </c>
@@ -6023,14 +2446,14 @@
       <c r="O39" s="25"/>
       <c r="Q39" s="25"/>
     </row>
-    <row r="40" spans="1:20" ht="210" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="210">
       <c r="A40" s="32">
         <v>7</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="36" t="s">
         <v>108</v>
       </c>
@@ -6060,14 +2483,14 @@
       <c r="O40" s="25"/>
       <c r="Q40" s="25"/>
     </row>
-    <row r="41" spans="1:20" ht="210" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="210">
       <c r="A41" s="32">
         <v>8</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="53"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="36" t="s">
         <v>51</v>
       </c>
@@ -6097,10 +2520,10 @@
       <c r="O41" s="25"/>
       <c r="Q41" s="25"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="29"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
@@ -6114,9 +2537,9 @@
       <c r="O42" s="25"/>
       <c r="Q42" s="25"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
+    <row r="43" spans="1:20">
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
       <c r="F43" s="13"/>
       <c r="H43" s="25"/>
       <c r="J43" s="25"/>
@@ -6124,30 +2547,30 @@
       <c r="O43" s="25"/>
       <c r="Q43" s="25"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
+    <row r="44" spans="1:20">
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
       <c r="F44" s="13"/>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="O44" s="50" t="s">
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="O44" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
       <c r="F45" s="13"/>
       <c r="H45" s="16" t="s">
         <v>4</v>
@@ -6186,9 +2609,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
+    <row r="46" spans="1:20">
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
       <c r="F46" s="13"/>
       <c r="H46" s="14">
         <f>COUNTIF(H40:H42,"O")</f>
@@ -6239,9 +2662,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
+    <row r="47" spans="1:20">
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
       <c r="F47" s="13"/>
       <c r="H47" s="45"/>
       <c r="J47" s="45"/>
@@ -6249,30 +2672,30 @@
       <c r="O47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
+    <row r="48" spans="1:20">
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
       <c r="F48" s="13"/>
-      <c r="H48" s="48" t="s">
+      <c r="H48" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="O48" s="50" t="s">
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="O48" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="50"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
       <c r="F49" s="13"/>
       <c r="H49" s="16" t="s">
         <v>4</v>
@@ -6311,9 +2734,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
+    <row r="50" spans="1:20">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
       <c r="F50" s="13"/>
       <c r="H50" s="14">
         <f>H46+O46+O50</f>
@@ -6364,9 +2787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
+    <row r="51" spans="1:20">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
       <c r="F51" s="13"/>
       <c r="H51" s="25"/>
       <c r="J51" s="25"/>
@@ -6374,30 +2797,30 @@
       <c r="O51" s="25"/>
       <c r="Q51" s="25"/>
     </row>
-    <row r="52" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="55" t="s">
+    <row r="52" spans="1:20" ht="18.75">
+      <c r="A52" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="57" t="s">
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="58"/>
-      <c r="J52" s="57" t="s">
+      <c r="I52" s="56"/>
+      <c r="J52" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="58"/>
-      <c r="L52" s="57" t="s">
+      <c r="K52" s="56"/>
+      <c r="L52" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="58"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M52" s="56"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="28" t="s">
         <v>0</v>
       </c>
@@ -6436,14 +2859,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="164.25" customHeight="1">
       <c r="A54" s="37">
         <v>9</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="52"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="36" t="s">
         <v>112</v>
       </c>
@@ -6471,14 +2894,14 @@
       </c>
       <c r="M54" s="33"/>
     </row>
-    <row r="55" spans="1:20" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="174" customHeight="1">
       <c r="A55" s="37">
         <v>10</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="53"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="36" t="s">
         <v>111</v>
       </c>
@@ -6504,14 +2927,14 @@
       </c>
       <c r="M55" s="33"/>
     </row>
-    <row r="56" spans="1:20" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="168.75" customHeight="1">
       <c r="A56" s="37">
         <v>11</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="54"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="36" t="s">
         <v>57</v>
       </c>
@@ -6537,38 +2960,38 @@
       </c>
       <c r="M56" s="33"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
+    <row r="57" spans="1:20">
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
       <c r="F57" s="13"/>
       <c r="H57" s="26"/>
       <c r="J57" s="26"/>
       <c r="L57" s="26"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
+    <row r="58" spans="1:20">
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
       <c r="F58" s="13"/>
-      <c r="H58" s="50" t="s">
+      <c r="H58" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="O58" s="50" t="s">
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="O58" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="P58" s="50"/>
-      <c r="Q58" s="50"/>
-      <c r="R58" s="50"/>
-      <c r="S58" s="50"/>
-      <c r="T58" s="50"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="48"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
       <c r="F59" s="13"/>
       <c r="H59" s="16" t="s">
         <v>4</v>
@@ -6607,9 +3030,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
+    <row r="60" spans="1:20">
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
       <c r="F60" s="13"/>
       <c r="H60" s="14">
         <f>COUNTIF(H54:H56,"O")</f>
@@ -6660,9 +3083,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
+    <row r="61" spans="1:20">
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
       <c r="F61" s="13"/>
       <c r="H61" s="45"/>
       <c r="J61" s="45"/>
@@ -6670,30 +3093,30 @@
       <c r="O61"/>
       <c r="Q61"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
+    <row r="62" spans="1:20">
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
       <c r="F62" s="13"/>
-      <c r="H62" s="48" t="s">
+      <c r="H62" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48"/>
-      <c r="O62" s="50" t="s">
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="O62" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P62" s="50"/>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="50"/>
-      <c r="S62" s="50"/>
-      <c r="T62" s="50"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="48"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
       <c r="F63" s="13"/>
       <c r="H63" s="16" t="s">
         <v>4</v>
@@ -6732,9 +3155,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
+    <row r="64" spans="1:20">
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
       <c r="F64" s="13"/>
       <c r="H64" s="14">
         <f>H60+O60+O64</f>
@@ -6785,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="42" customFormat="1">
       <c r="B65" s="49"/>
       <c r="C65" s="49"/>
       <c r="F65" s="43"/>
@@ -6795,30 +3218,30 @@
       <c r="O65" s="44"/>
       <c r="Q65" s="44"/>
     </row>
-    <row r="66" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="55" t="s">
+    <row r="66" spans="1:20" ht="18.75">
+      <c r="A66" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="57" t="s">
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I66" s="58"/>
-      <c r="J66" s="57" t="s">
+      <c r="I66" s="56"/>
+      <c r="J66" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K66" s="58"/>
-      <c r="L66" s="57" t="s">
+      <c r="K66" s="56"/>
+      <c r="L66" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M66" s="58"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M66" s="56"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="28" t="s">
         <v>0</v>
       </c>
@@ -6857,14 +3280,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="60">
       <c r="A68" s="37">
         <v>12</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="52"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="36" t="s">
         <v>61</v>
       </c>
@@ -6890,14 +3313,14 @@
       </c>
       <c r="M68" s="33"/>
     </row>
-    <row r="69" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="60">
       <c r="A69" s="37">
         <v>13</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="53"/>
+      <c r="C69" s="58"/>
       <c r="D69" s="36" t="s">
         <v>96</v>
       </c>
@@ -6923,10 +3346,10 @@
       </c>
       <c r="M69" s="33"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="37"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="36"/>
       <c r="E70" s="34"/>
       <c r="F70" s="31"/>
@@ -6944,38 +3367,38 @@
       </c>
       <c r="M70" s="33"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
+    <row r="71" spans="1:20">
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
       <c r="F71" s="13"/>
       <c r="H71" s="26"/>
       <c r="J71" s="26"/>
       <c r="L71" s="26"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
+    <row r="72" spans="1:20">
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
       <c r="F72" s="13"/>
-      <c r="H72" s="50" t="s">
+      <c r="H72" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="O72" s="50" t="s">
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="48"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="48"/>
+      <c r="O72" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="50"/>
-      <c r="R72" s="50"/>
-      <c r="S72" s="50"/>
-      <c r="T72" s="50"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
+      <c r="P72" s="48"/>
+      <c r="Q72" s="48"/>
+      <c r="R72" s="48"/>
+      <c r="S72" s="48"/>
+      <c r="T72" s="48"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
       <c r="F73" s="13"/>
       <c r="H73" s="16" t="s">
         <v>4</v>
@@ -7014,9 +3437,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
+    <row r="74" spans="1:20">
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
       <c r="F74" s="13"/>
       <c r="H74" s="14">
         <f>COUNTIF(H68:H70,"O")</f>
@@ -7067,9 +3490,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
+    <row r="75" spans="1:20">
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
       <c r="F75" s="13"/>
       <c r="H75" s="45"/>
       <c r="J75" s="45"/>
@@ -7077,30 +3500,30 @@
       <c r="O75"/>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
+    <row r="76" spans="1:20">
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
       <c r="F76" s="13"/>
-      <c r="H76" s="48" t="s">
+      <c r="H76" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="48"/>
-      <c r="O76" s="50" t="s">
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="O76" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P76" s="50"/>
-      <c r="Q76" s="50"/>
-      <c r="R76" s="50"/>
-      <c r="S76" s="50"/>
-      <c r="T76" s="50"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
+      <c r="P76" s="48"/>
+      <c r="Q76" s="48"/>
+      <c r="R76" s="48"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="48"/>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
       <c r="F77" s="13"/>
       <c r="H77" s="16" t="s">
         <v>4</v>
@@ -7139,9 +3562,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
+    <row r="78" spans="1:20">
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
       <c r="F78" s="13"/>
       <c r="H78" s="14">
         <f>H74+O74+O78</f>
@@ -7192,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" s="42"/>
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
@@ -7208,32 +3631,32 @@
       <c r="M79" s="42"/>
       <c r="N79" s="42"/>
     </row>
-    <row r="80" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="55" t="s">
+    <row r="80" spans="1:20" ht="18.75">
+      <c r="A80" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="57" t="s">
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I80" s="58"/>
-      <c r="J80" s="57" t="s">
+      <c r="I80" s="56"/>
+      <c r="J80" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K80" s="58"/>
-      <c r="L80" s="57" t="s">
+      <c r="K80" s="56"/>
+      <c r="L80" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M80" s="58"/>
+      <c r="M80" s="56"/>
       <c r="O80" s="39"/>
       <c r="Q80" s="39"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="40" t="s">
         <v>0</v>
       </c>
@@ -7274,14 +3697,14 @@
       <c r="O81" s="39"/>
       <c r="Q81" s="39"/>
     </row>
-    <row r="82" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="75">
       <c r="A82" s="41">
         <v>14</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="52"/>
+      <c r="C82" s="59"/>
       <c r="D82" s="36" t="s">
         <v>66</v>
       </c>
@@ -7309,9 +3732,9 @@
       <c r="O82" s="39"/>
       <c r="Q82" s="39"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
+    <row r="83" spans="1:20">
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
       <c r="F83" s="13"/>
       <c r="H83" s="39"/>
       <c r="J83" s="39"/>
@@ -7319,30 +3742,30 @@
       <c r="O83" s="39"/>
       <c r="Q83" s="39"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
+    <row r="84" spans="1:20">
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
       <c r="F84" s="13"/>
-      <c r="H84" s="50" t="s">
+      <c r="H84" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I84" s="50"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="50"/>
-      <c r="M84" s="50"/>
-      <c r="O84" s="50" t="s">
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="O84" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="P84" s="50"/>
-      <c r="Q84" s="50"/>
-      <c r="R84" s="50"/>
-      <c r="S84" s="50"/>
-      <c r="T84" s="50"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
+      <c r="P84" s="48"/>
+      <c r="Q84" s="48"/>
+      <c r="R84" s="48"/>
+      <c r="S84" s="48"/>
+      <c r="T84" s="48"/>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
       <c r="F85" s="13"/>
       <c r="H85" s="16" t="s">
         <v>4</v>
@@ -7381,9 +3804,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
+    <row r="86" spans="1:20">
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
       <c r="F86" s="13"/>
       <c r="H86" s="14">
         <f>COUNTIF(H80:H82,"O")</f>
@@ -7434,9 +3857,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
+    <row r="87" spans="1:20">
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
       <c r="F87" s="13"/>
       <c r="H87" s="45"/>
       <c r="J87" s="45"/>
@@ -7444,30 +3867,30 @@
       <c r="O87"/>
       <c r="Q87"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
+    <row r="88" spans="1:20">
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
       <c r="F88" s="13"/>
-      <c r="H88" s="48" t="s">
+      <c r="H88" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
-      <c r="O88" s="50" t="s">
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="52"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="52"/>
+      <c r="O88" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P88" s="50"/>
-      <c r="Q88" s="50"/>
-      <c r="R88" s="50"/>
-      <c r="S88" s="50"/>
-      <c r="T88" s="50"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="48"/>
+      <c r="T88" s="48"/>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
       <c r="F89" s="13"/>
       <c r="H89" s="16" t="s">
         <v>4</v>
@@ -7506,9 +3929,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
+    <row r="90" spans="1:20">
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
       <c r="F90" s="13"/>
       <c r="H90" s="14">
         <f>H86+O86+O90</f>
@@ -7559,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" s="42"/>
       <c r="B91" s="49"/>
       <c r="C91" s="49"/>
@@ -7577,32 +4000,32 @@
       <c r="O91" s="39"/>
       <c r="Q91" s="39"/>
     </row>
-    <row r="92" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="55" t="s">
+    <row r="92" spans="1:20" ht="18.75">
+      <c r="A92" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="57" t="s">
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I92" s="58"/>
-      <c r="J92" s="57" t="s">
+      <c r="I92" s="56"/>
+      <c r="J92" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K92" s="58"/>
-      <c r="L92" s="57" t="s">
+      <c r="K92" s="56"/>
+      <c r="L92" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M92" s="58"/>
+      <c r="M92" s="56"/>
       <c r="O92" s="39"/>
       <c r="Q92" s="39"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" s="40" t="s">
         <v>0</v>
       </c>
@@ -7643,14 +4066,14 @@
       <c r="O93" s="39"/>
       <c r="Q93" s="39"/>
     </row>
-    <row r="94" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="60">
       <c r="A94" s="41">
         <v>15</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C94" s="52"/>
+      <c r="C94" s="59"/>
       <c r="D94" s="36" t="s">
         <v>72</v>
       </c>
@@ -7678,9 +4101,9 @@
       <c r="O94" s="39"/>
       <c r="Q94" s="39"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B95" s="47"/>
-      <c r="C95" s="47"/>
+    <row r="95" spans="1:20">
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
       <c r="F95" s="13"/>
       <c r="H95" s="39"/>
       <c r="J95" s="39"/>
@@ -7688,30 +4111,30 @@
       <c r="O95" s="39"/>
       <c r="Q95" s="39"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
+    <row r="96" spans="1:20">
+      <c r="B96" s="50"/>
+      <c r="C96" s="50"/>
       <c r="F96" s="13"/>
-      <c r="H96" s="50" t="s">
+      <c r="H96" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I96" s="50"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="50"/>
-      <c r="M96" s="50"/>
-      <c r="O96" s="50" t="s">
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="48"/>
+      <c r="O96" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="P96" s="50"/>
-      <c r="Q96" s="50"/>
-      <c r="R96" s="50"/>
-      <c r="S96" s="50"/>
-      <c r="T96" s="50"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
+      <c r="P96" s="48"/>
+      <c r="Q96" s="48"/>
+      <c r="R96" s="48"/>
+      <c r="S96" s="48"/>
+      <c r="T96" s="48"/>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
       <c r="F97" s="13"/>
       <c r="H97" s="16" t="s">
         <v>4</v>
@@ -7750,9 +4173,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
+    <row r="98" spans="1:20">
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
       <c r="F98" s="13"/>
       <c r="H98" s="14">
         <f>COUNTIF(H92:H94,"O")</f>
@@ -7803,9 +4226,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
+    <row r="99" spans="1:20">
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
       <c r="F99" s="13"/>
       <c r="H99" s="45"/>
       <c r="J99" s="45"/>
@@ -7813,30 +4236,30 @@
       <c r="O99"/>
       <c r="Q99"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
+    <row r="100" spans="1:20">
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
       <c r="F100" s="13"/>
-      <c r="H100" s="48" t="s">
+      <c r="H100" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I100" s="48"/>
-      <c r="J100" s="48"/>
-      <c r="K100" s="48"/>
-      <c r="L100" s="48"/>
-      <c r="M100" s="48"/>
-      <c r="O100" s="50" t="s">
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="52"/>
+      <c r="O100" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P100" s="50"/>
-      <c r="Q100" s="50"/>
-      <c r="R100" s="50"/>
-      <c r="S100" s="50"/>
-      <c r="T100" s="50"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
+      <c r="P100" s="48"/>
+      <c r="Q100" s="48"/>
+      <c r="R100" s="48"/>
+      <c r="S100" s="48"/>
+      <c r="T100" s="48"/>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
       <c r="F101" s="13"/>
       <c r="H101" s="16" t="s">
         <v>4</v>
@@ -7875,9 +4298,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
+    <row r="102" spans="1:20">
+      <c r="B102" s="50"/>
+      <c r="C102" s="50"/>
       <c r="F102" s="13"/>
       <c r="H102" s="14">
         <f>H98+O98+O102</f>
@@ -7928,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" s="42"/>
       <c r="B103" s="49"/>
       <c r="C103" s="49"/>
@@ -7946,32 +4369,32 @@
       <c r="O103" s="39"/>
       <c r="Q103" s="39"/>
     </row>
-    <row r="104" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="55" t="s">
+    <row r="104" spans="1:20" ht="18.75">
+      <c r="A104" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="55"/>
-      <c r="C104" s="55"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="57" t="s">
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I104" s="58"/>
-      <c r="J104" s="57" t="s">
+      <c r="I104" s="56"/>
+      <c r="J104" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K104" s="58"/>
-      <c r="L104" s="57" t="s">
+      <c r="K104" s="56"/>
+      <c r="L104" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M104" s="58"/>
+      <c r="M104" s="56"/>
       <c r="O104" s="39"/>
       <c r="Q104" s="39"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" s="40" t="s">
         <v>0</v>
       </c>
@@ -8012,13 +4435,13 @@
       <c r="O105" s="39"/>
       <c r="Q105" s="39"/>
     </row>
-    <row r="106" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="30">
       <c r="A106" s="41"/>
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C106" s="52"/>
-      <c r="D106" s="63" t="s">
+      <c r="C106" s="59"/>
+      <c r="D106" s="47" t="s">
         <v>100</v>
       </c>
       <c r="E106" s="34"/>
@@ -8041,12 +4464,12 @@
       <c r="O106" s="39"/>
       <c r="Q106" s="39"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" s="41"/>
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C107" s="53"/>
+      <c r="C107" s="58"/>
       <c r="D107" s="36"/>
       <c r="E107" s="34"/>
       <c r="F107" s="31"/>
@@ -8068,10 +4491,10 @@
       <c r="O107" s="39"/>
       <c r="Q107" s="39"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" s="41"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="36"/>
       <c r="E108" s="34"/>
       <c r="F108" s="31"/>
@@ -8093,9 +4516,9 @@
       <c r="O108" s="39"/>
       <c r="Q108" s="39"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B109" s="47"/>
-      <c r="C109" s="47"/>
+    <row r="109" spans="1:20">
+      <c r="B109" s="50"/>
+      <c r="C109" s="50"/>
       <c r="F109" s="13"/>
       <c r="H109" s="39"/>
       <c r="J109" s="39"/>
@@ -8103,30 +4526,30 @@
       <c r="O109" s="39"/>
       <c r="Q109" s="39"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B110" s="47"/>
-      <c r="C110" s="47"/>
+    <row r="110" spans="1:20">
+      <c r="B110" s="50"/>
+      <c r="C110" s="50"/>
       <c r="F110" s="13"/>
-      <c r="H110" s="50" t="s">
+      <c r="H110" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I110" s="50"/>
-      <c r="J110" s="50"/>
-      <c r="K110" s="50"/>
-      <c r="L110" s="50"/>
-      <c r="M110" s="50"/>
-      <c r="O110" s="50" t="s">
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="48"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="48"/>
+      <c r="O110" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="P110" s="50"/>
-      <c r="Q110" s="50"/>
-      <c r="R110" s="50"/>
-      <c r="S110" s="50"/>
-      <c r="T110" s="50"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B111" s="47"/>
-      <c r="C111" s="47"/>
+      <c r="P110" s="48"/>
+      <c r="Q110" s="48"/>
+      <c r="R110" s="48"/>
+      <c r="S110" s="48"/>
+      <c r="T110" s="48"/>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="B111" s="50"/>
+      <c r="C111" s="50"/>
       <c r="F111" s="13"/>
       <c r="H111" s="16" t="s">
         <v>4</v>
@@ -8165,9 +4588,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
+    <row r="112" spans="1:20">
+      <c r="B112" s="50"/>
+      <c r="C112" s="50"/>
       <c r="F112" s="13"/>
       <c r="H112" s="14">
         <f>COUNTIF(H106:H108,"O")</f>
@@ -8218,9 +4641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B113" s="47"/>
-      <c r="C113" s="47"/>
+    <row r="113" spans="1:20">
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
       <c r="F113" s="13"/>
       <c r="H113" s="45"/>
       <c r="J113" s="45"/>
@@ -8228,30 +4651,30 @@
       <c r="O113"/>
       <c r="Q113"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B114" s="47"/>
-      <c r="C114" s="47"/>
+    <row r="114" spans="1:20">
+      <c r="B114" s="50"/>
+      <c r="C114" s="50"/>
       <c r="F114" s="13"/>
-      <c r="H114" s="48" t="s">
+      <c r="H114" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I114" s="48"/>
-      <c r="J114" s="48"/>
-      <c r="K114" s="48"/>
-      <c r="L114" s="48"/>
-      <c r="M114" s="48"/>
-      <c r="O114" s="50" t="s">
+      <c r="I114" s="52"/>
+      <c r="J114" s="52"/>
+      <c r="K114" s="52"/>
+      <c r="L114" s="52"/>
+      <c r="M114" s="52"/>
+      <c r="O114" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P114" s="50"/>
-      <c r="Q114" s="50"/>
-      <c r="R114" s="50"/>
-      <c r="S114" s="50"/>
-      <c r="T114" s="50"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B115" s="47"/>
-      <c r="C115" s="47"/>
+      <c r="P114" s="48"/>
+      <c r="Q114" s="48"/>
+      <c r="R114" s="48"/>
+      <c r="S114" s="48"/>
+      <c r="T114" s="48"/>
+    </row>
+    <row r="115" spans="1:20">
+      <c r="B115" s="50"/>
+      <c r="C115" s="50"/>
       <c r="F115" s="13"/>
       <c r="H115" s="16" t="s">
         <v>4</v>
@@ -8290,9 +4713,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
+    <row r="116" spans="1:20">
+      <c r="B116" s="50"/>
+      <c r="C116" s="50"/>
       <c r="F116" s="13"/>
       <c r="H116" s="14">
         <f>H112+O112+O116</f>
@@ -8343,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" s="42"/>
       <c r="B117" s="49"/>
       <c r="C117" s="49"/>
@@ -8361,32 +4784,32 @@
       <c r="O117" s="39"/>
       <c r="Q117" s="39"/>
     </row>
-    <row r="118" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="55" t="s">
+    <row r="118" spans="1:20" ht="18.75">
+      <c r="A118" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B118" s="55"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="56"/>
-      <c r="H118" s="57" t="s">
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I118" s="58"/>
-      <c r="J118" s="57" t="s">
+      <c r="I118" s="56"/>
+      <c r="J118" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K118" s="58"/>
-      <c r="L118" s="57" t="s">
+      <c r="K118" s="56"/>
+      <c r="L118" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M118" s="58"/>
+      <c r="M118" s="56"/>
       <c r="O118" s="39"/>
       <c r="Q118" s="39"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" s="40" t="s">
         <v>0</v>
       </c>
@@ -8427,14 +4850,14 @@
       <c r="O119" s="39"/>
       <c r="Q119" s="39"/>
     </row>
-    <row r="120" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="45">
       <c r="A120" s="41">
         <v>16</v>
       </c>
-      <c r="B120" s="52" t="s">
+      <c r="B120" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C120" s="52"/>
+      <c r="C120" s="59"/>
       <c r="D120" s="36" t="s">
         <v>78</v>
       </c>
@@ -8462,14 +4885,14 @@
       <c r="O120" s="39"/>
       <c r="Q120" s="39"/>
     </row>
-    <row r="121" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="45">
       <c r="A121" s="41">
         <v>17</v>
       </c>
-      <c r="B121" s="53" t="s">
+      <c r="B121" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="53"/>
+      <c r="C121" s="58"/>
       <c r="D121" s="36" t="s">
         <v>82</v>
       </c>
@@ -8497,14 +4920,14 @@
       <c r="O121" s="39"/>
       <c r="Q121" s="39"/>
     </row>
-    <row r="122" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="45">
       <c r="A122" s="41">
         <v>18</v>
       </c>
-      <c r="B122" s="54" t="s">
+      <c r="B122" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C122" s="54"/>
+      <c r="C122" s="57"/>
       <c r="D122" s="36" t="s">
         <v>82</v>
       </c>
@@ -8532,14 +4955,14 @@
       <c r="O122" s="39"/>
       <c r="Q122" s="39"/>
     </row>
-    <row r="123" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="75">
       <c r="A123" s="46">
         <v>19</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C123" s="54"/>
+      <c r="C123" s="57"/>
       <c r="D123" s="36" t="s">
         <v>82</v>
       </c>
@@ -8567,14 +4990,14 @@
       <c r="O123" s="45"/>
       <c r="Q123" s="45"/>
     </row>
-    <row r="124" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="45">
       <c r="A124" s="46">
         <v>20</v>
       </c>
-      <c r="B124" s="54" t="s">
+      <c r="B124" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C124" s="54"/>
+      <c r="C124" s="57"/>
       <c r="D124" s="36" t="s">
         <v>88</v>
       </c>
@@ -8602,14 +5025,14 @@
       <c r="O124" s="45"/>
       <c r="Q124" s="45"/>
     </row>
-    <row r="125" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="45">
       <c r="A125" s="46">
         <v>21</v>
       </c>
-      <c r="B125" s="54" t="s">
+      <c r="B125" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C125" s="54"/>
+      <c r="C125" s="57"/>
       <c r="D125" s="36" t="s">
         <v>82</v>
       </c>
@@ -8637,14 +5060,14 @@
       <c r="O125" s="45"/>
       <c r="Q125" s="45"/>
     </row>
-    <row r="126" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="60">
       <c r="A126" s="46">
         <v>22</v>
       </c>
-      <c r="B126" s="54" t="s">
+      <c r="B126" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C126" s="54"/>
+      <c r="C126" s="57"/>
       <c r="D126" s="36" t="s">
         <v>93</v>
       </c>
@@ -8672,14 +5095,14 @@
       <c r="O126" s="45"/>
       <c r="Q126" s="45"/>
     </row>
-    <row r="127" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="75">
       <c r="A127" s="46">
         <v>23</v>
       </c>
-      <c r="B127" s="54" t="s">
+      <c r="B127" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C127" s="54"/>
+      <c r="C127" s="57"/>
       <c r="D127" s="36" t="s">
         <v>101</v>
       </c>
@@ -8707,14 +5130,14 @@
       <c r="O127" s="45"/>
       <c r="Q127" s="45"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" s="46">
         <v>24</v>
       </c>
-      <c r="B128" s="54" t="s">
+      <c r="B128" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C128" s="54"/>
+      <c r="C128" s="57"/>
       <c r="D128" s="36"/>
       <c r="E128" s="34"/>
       <c r="F128" s="31"/>
@@ -8736,9 +5159,9 @@
       <c r="O128" s="45"/>
       <c r="Q128" s="45"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B129" s="47"/>
-      <c r="C129" s="47"/>
+    <row r="129" spans="1:20">
+      <c r="B129" s="50"/>
+      <c r="C129" s="50"/>
       <c r="F129" s="13"/>
       <c r="H129" s="45"/>
       <c r="J129" s="45"/>
@@ -8746,30 +5169,30 @@
       <c r="O129" s="45"/>
       <c r="Q129" s="45"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B130" s="47"/>
-      <c r="C130" s="47"/>
+    <row r="130" spans="1:20">
+      <c r="B130" s="50"/>
+      <c r="C130" s="50"/>
       <c r="F130" s="13"/>
-      <c r="H130" s="50" t="s">
+      <c r="H130" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I130" s="50"/>
-      <c r="J130" s="50"/>
-      <c r="K130" s="50"/>
-      <c r="L130" s="50"/>
-      <c r="M130" s="50"/>
-      <c r="O130" s="50" t="s">
+      <c r="I130" s="48"/>
+      <c r="J130" s="48"/>
+      <c r="K130" s="48"/>
+      <c r="L130" s="48"/>
+      <c r="M130" s="48"/>
+      <c r="O130" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="P130" s="50"/>
-      <c r="Q130" s="50"/>
-      <c r="R130" s="50"/>
-      <c r="S130" s="50"/>
-      <c r="T130" s="50"/>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B131" s="47"/>
-      <c r="C131" s="47"/>
+      <c r="P130" s="48"/>
+      <c r="Q130" s="48"/>
+      <c r="R130" s="48"/>
+      <c r="S130" s="48"/>
+      <c r="T130" s="48"/>
+    </row>
+    <row r="131" spans="1:20">
+      <c r="B131" s="50"/>
+      <c r="C131" s="50"/>
       <c r="F131" s="13"/>
       <c r="H131" s="16" t="s">
         <v>4</v>
@@ -8808,9 +5231,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B132" s="47"/>
-      <c r="C132" s="47"/>
+    <row r="132" spans="1:20">
+      <c r="B132" s="50"/>
+      <c r="C132" s="50"/>
       <c r="F132" s="13"/>
       <c r="H132" s="14">
         <f>COUNTIF(H120:H128,"O")</f>
@@ -8861,9 +5284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B133" s="47"/>
-      <c r="C133" s="47"/>
+    <row r="133" spans="1:20">
+      <c r="B133" s="50"/>
+      <c r="C133" s="50"/>
       <c r="F133" s="13"/>
       <c r="H133" s="45"/>
       <c r="J133" s="45"/>
@@ -8871,30 +5294,30 @@
       <c r="O133"/>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B134" s="47"/>
-      <c r="C134" s="47"/>
+    <row r="134" spans="1:20">
+      <c r="B134" s="50"/>
+      <c r="C134" s="50"/>
       <c r="F134" s="13"/>
-      <c r="H134" s="48" t="s">
+      <c r="H134" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I134" s="48"/>
-      <c r="J134" s="48"/>
-      <c r="K134" s="48"/>
-      <c r="L134" s="48"/>
-      <c r="M134" s="48"/>
-      <c r="O134" s="50" t="s">
+      <c r="I134" s="52"/>
+      <c r="J134" s="52"/>
+      <c r="K134" s="52"/>
+      <c r="L134" s="52"/>
+      <c r="M134" s="52"/>
+      <c r="O134" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P134" s="50"/>
-      <c r="Q134" s="50"/>
-      <c r="R134" s="50"/>
-      <c r="S134" s="50"/>
-      <c r="T134" s="50"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B135" s="47"/>
-      <c r="C135" s="47"/>
+      <c r="P134" s="48"/>
+      <c r="Q134" s="48"/>
+      <c r="R134" s="48"/>
+      <c r="S134" s="48"/>
+      <c r="T134" s="48"/>
+    </row>
+    <row r="135" spans="1:20">
+      <c r="B135" s="50"/>
+      <c r="C135" s="50"/>
       <c r="F135" s="13"/>
       <c r="H135" s="16" t="s">
         <v>4</v>
@@ -8933,9 +5356,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B136" s="47"/>
-      <c r="C136" s="47"/>
+    <row r="136" spans="1:20">
+      <c r="B136" s="50"/>
+      <c r="C136" s="50"/>
       <c r="F136" s="13"/>
       <c r="H136" s="14">
         <f>H132+O132+O136</f>
@@ -8986,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" s="42"/>
       <c r="B137" s="49"/>
       <c r="C137" s="49"/>
@@ -9006,78 +5429,103 @@
     </row>
   </sheetData>
   <mergeCells count="193">
-    <mergeCell ref="O88:T88"/>
-    <mergeCell ref="O96:T96"/>
-    <mergeCell ref="O100:T100"/>
-    <mergeCell ref="O110:T110"/>
-    <mergeCell ref="O114:T114"/>
-    <mergeCell ref="O130:T130"/>
-    <mergeCell ref="O134:T134"/>
-    <mergeCell ref="O58:T58"/>
-    <mergeCell ref="O62:T62"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="O20:T20"/>
-    <mergeCell ref="O44:T44"/>
-    <mergeCell ref="O48:T48"/>
-    <mergeCell ref="O30:T30"/>
-    <mergeCell ref="O34:T34"/>
-    <mergeCell ref="O72:T72"/>
-    <mergeCell ref="O76:T76"/>
-    <mergeCell ref="O84:T84"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="H76:M76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="H72:M72"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="H58:M58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="H62:M62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="H134:M134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="H130:M130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="H110:M110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="H100:M100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="H96:M96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H84:M84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="H88:M88"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="H10:I10"/>
@@ -9102,110 +5550,85 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="H84:M84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="H88:M88"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="H100:M100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="H96:M96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="L118:M118"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="H114:M114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="H110:M110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="H134:M134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="H130:M130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="H58:M58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="H62:M62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="H76:M76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="H72:M72"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="O44:T44"/>
+    <mergeCell ref="O48:T48"/>
+    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="O34:T34"/>
+    <mergeCell ref="O72:T72"/>
+    <mergeCell ref="O76:T76"/>
+    <mergeCell ref="O84:T84"/>
+    <mergeCell ref="O88:T88"/>
+    <mergeCell ref="O96:T96"/>
+    <mergeCell ref="O100:T100"/>
+    <mergeCell ref="O110:T110"/>
+    <mergeCell ref="O114:T114"/>
+    <mergeCell ref="O130:T130"/>
+    <mergeCell ref="O134:T134"/>
+    <mergeCell ref="O58:T58"/>
+    <mergeCell ref="O62:T62"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B9">
     <cfRule type="colorScale" priority="872">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9215,8 +5638,8 @@
   <conditionalFormatting sqref="A4:B7 B8:B9">
     <cfRule type="dataBar" priority="874">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
@@ -9229,9 +5652,9 @@
   <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="840">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9241,9 +5664,9 @@
   <conditionalFormatting sqref="H19">
     <cfRule type="colorScale" priority="878">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9253,9 +5676,9 @@
   <conditionalFormatting sqref="H43">
     <cfRule type="colorScale" priority="396">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9265,9 +5688,9 @@
   <conditionalFormatting sqref="H57">
     <cfRule type="colorScale" priority="337">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9277,9 +5700,9 @@
   <conditionalFormatting sqref="H71">
     <cfRule type="colorScale" priority="297">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9289,9 +5712,9 @@
   <conditionalFormatting sqref="H83">
     <cfRule type="colorScale" priority="262">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9301,9 +5724,9 @@
   <conditionalFormatting sqref="H95">
     <cfRule type="colorScale" priority="227">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9313,9 +5736,9 @@
   <conditionalFormatting sqref="H109">
     <cfRule type="colorScale" priority="192">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9325,9 +5748,9 @@
   <conditionalFormatting sqref="H129">
     <cfRule type="colorScale" priority="157">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9337,9 +5760,9 @@
   <conditionalFormatting sqref="H47">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9349,9 +5772,9 @@
   <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9361,9 +5784,9 @@
   <conditionalFormatting sqref="H33">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9373,9 +5796,9 @@
   <conditionalFormatting sqref="H75">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9385,9 +5808,9 @@
   <conditionalFormatting sqref="H87">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9397,9 +5820,9 @@
   <conditionalFormatting sqref="H99">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9409,9 +5832,9 @@
   <conditionalFormatting sqref="H113">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9421,9 +5844,9 @@
   <conditionalFormatting sqref="H133">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9433,9 +5856,9 @@
   <conditionalFormatting sqref="H61">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -9444,6 +5867,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Basisverzeichnis/trunk/04_Test/Systemtest_TestCases.xlsx
+++ b/Basisverzeichnis/trunk/04_Test/Systemtest_TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="160">
   <si>
     <t>Nr.</t>
   </si>
@@ -287,11 +287,6 @@
   <si>
     <t>Test-Datei: UseCase_Correct_Abstract.docx
 liegt vor und ist vom Tool eingelesen</t>
-  </si>
-  <si>
-    <t>1. Der Anwender wählt jeden einzelnen UseCase aus, lässt ihn darstellen und vergleicht ihn mit der Darstellung in der Datei
-UseCase_Abstract_Darstellungen.docx
-2. Test erfolgreich wenn Darstellungen identisch sind</t>
   </si>
   <si>
     <t>Zweiter Testdurchlauf Auswertung</t>
@@ -623,6 +618,20 @@
 sind vorhanden
 </t>
   </si>
+  <si>
+    <t>1. Der Anwender wählt jeden einzelnen UseCase aus, lässt ihn darstellen und vergleicht ihn mit der Darstellung in der Datei
+Darstellungen_UseCase_Abstract.docx
+2. Test erfolgreich wenn Darstellungen identisch sind</t>
+  </si>
+  <si>
+    <t>Mit Beyond Compare am 29.06.15 getestet</t>
+  </si>
+  <si>
+    <t>Anpassungen der Darstellungen waren notwendig aufgrund Funktionalitätsänderung (Ende - Knoten entfernt)</t>
+  </si>
+  <si>
+    <t>Dritter Testdurchlauf am 29.06.2015</t>
+  </si>
 </sst>
 </file>
 
@@ -934,7 +943,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1131,6 +1140,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1146,20 +1158,20 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1167,8 +1179,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5653,8 +5665,8 @@
   </sheetPr>
   <dimension ref="A1:T199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5671,7 +5683,7 @@
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
     <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.42578125" customWidth="1"/>
@@ -5689,15 +5701,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="12"/>
       <c r="I1" s="7"/>
       <c r="J1" s="12"/>
@@ -5711,15 +5723,15 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
       <c r="H2" s="12"/>
       <c r="I2" s="7"/>
       <c r="J2" s="12"/>
@@ -5750,7 +5762,7 @@
       <c r="D4" s="19"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -5764,7 +5776,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5"/>
       <c r="J5"/>
@@ -5780,7 +5792,9 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>159</v>
+      </c>
       <c r="H6"/>
       <c r="J6"/>
       <c r="L6"/>
@@ -5803,7 +5817,7 @@
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -5814,27 +5828,27 @@
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="75" t="s">
+      <c r="I10" s="77"/>
+      <c r="J10" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="75" t="s">
+      <c r="K10" s="77"/>
+      <c r="L10" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="76"/>
+      <c r="M10" s="77"/>
       <c r="O10"/>
       <c r="Q10"/>
     </row>
@@ -5842,10 +5856,10 @@
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
@@ -5883,12 +5897,12 @@
       <c r="A12" s="30">
         <v>1</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>31</v>
@@ -5910,7 +5924,7 @@
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M12" s="33"/>
       <c r="O12"/>
@@ -5920,12 +5934,12 @@
       <c r="A13" s="35">
         <v>2</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>37</v>
@@ -5945,7 +5959,7 @@
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M13" s="33"/>
       <c r="O13"/>
@@ -5955,12 +5969,12 @@
       <c r="A14" s="30">
         <v>3</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>38</v>
@@ -5980,7 +5994,7 @@
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M14" s="33"/>
       <c r="O14"/>
@@ -5997,22 +6011,22 @@
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
       <c r="F16" s="13"/>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="O16" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="O16" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="70"/>
@@ -6127,14 +6141,14 @@
       <c r="K20" s="71"/>
       <c r="L20" s="71"/>
       <c r="M20" s="71"/>
-      <c r="O20" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
+      <c r="O20" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" s="70"/>
@@ -6183,7 +6197,7 @@
       <c r="F22" s="13"/>
       <c r="H22" s="14">
         <f>H18+O18+O22</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="14">
         <f>I18+P18+P22</f>
@@ -6195,7 +6209,7 @@
       </c>
       <c r="K22" s="14">
         <f>K18+R18+R22</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L22" s="14">
         <f>SUM(H22:K22)</f>
@@ -6203,11 +6217,11 @@
       </c>
       <c r="M22" s="15">
         <f>(K22+I22)/L22</f>
-        <v>0.55555555555555558</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="O22" s="14">
         <f>COUNTIF(L12:L14,"O")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P22" s="14">
         <f>COUNTIF(J16:J18,"N")</f>
@@ -6219,7 +6233,7 @@
       </c>
       <c r="R22" s="14">
         <f>COUNTIF(L12:L14,"R")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S22" s="14">
         <f>SUM(O22:R22)</f>
@@ -6227,7 +6241,7 @@
       </c>
       <c r="T22" s="15">
         <f>(R22+P22)/S22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6248,27 +6262,27 @@
       <c r="Q24"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="75" t="s">
+      <c r="I25" s="77"/>
+      <c r="J25" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="76"/>
-      <c r="L25" s="75" t="s">
+      <c r="K25" s="77"/>
+      <c r="L25" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="76"/>
+      <c r="M25" s="77"/>
       <c r="O25" s="23"/>
       <c r="Q25" s="23"/>
     </row>
@@ -6276,10 +6290,10 @@
       <c r="A26" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="17" t="s">
         <v>1</v>
       </c>
@@ -6317,18 +6331,18 @@
       <c r="A27" s="30">
         <v>4</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>32</v>
@@ -6337,16 +6351,16 @@
         <v>10</v>
       </c>
       <c r="I27" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>12</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M27" s="31"/>
       <c r="O27" s="23"/>
@@ -6356,18 +6370,18 @@
       <c r="A28" s="30">
         <v>5</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="80"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>32</v>
@@ -6376,16 +6390,16 @@
         <v>10</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M28" s="31"/>
       <c r="O28" s="23"/>
@@ -6395,18 +6409,18 @@
       <c r="A29" s="58">
         <v>6</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="78"/>
+      <c r="C29" s="80"/>
       <c r="D29" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G29" s="58" t="s">
         <v>32</v>
@@ -6420,7 +6434,7 @@
       </c>
       <c r="K29" s="58"/>
       <c r="L29" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M29" s="31"/>
       <c r="O29" s="56"/>
@@ -6430,18 +6444,18 @@
       <c r="A30" s="58">
         <v>7</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="80"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>142</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>143</v>
       </c>
       <c r="G30" s="58" t="s">
         <v>32</v>
@@ -6455,7 +6469,7 @@
       </c>
       <c r="K30" s="58"/>
       <c r="L30" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M30" s="31"/>
       <c r="O30" s="56"/>
@@ -6463,8 +6477,8 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
@@ -6492,22 +6506,22 @@
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
       <c r="F33" s="13"/>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="O33" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="O33" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" s="70"/>
@@ -6625,14 +6639,14 @@
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
       <c r="M37" s="71"/>
-      <c r="O37" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
+      <c r="O37" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="70"/>
@@ -6681,7 +6695,7 @@
       <c r="F39" s="13"/>
       <c r="H39" s="14">
         <f>H35+O35+O39</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39" s="14">
         <f>I35+P35+P39</f>
@@ -6693,7 +6707,7 @@
       </c>
       <c r="K39" s="14">
         <f>K35+R35+R39</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L39" s="14">
         <f>SUM(H39:K39)</f>
@@ -6701,11 +6715,11 @@
       </c>
       <c r="M39" s="15">
         <f>(K39+I39)/L39</f>
-        <v>0.41666666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="O39" s="14">
         <f>COUNTIF(L27:L31,"O")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P39" s="14">
         <f>COUNTIF(J33:J35,"N")</f>
@@ -6717,7 +6731,7 @@
       </c>
       <c r="R39" s="14">
         <f>COUNTIF(L27:L31,"R")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S39" s="14">
         <f>SUM(O39:R39)</f>
@@ -6725,7 +6739,7 @@
       </c>
       <c r="T39" s="15">
         <f>(R39+P39)/S39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -6739,36 +6753,36 @@
       <c r="Q40" s="23"/>
     </row>
     <row r="41" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="75" t="s">
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I41" s="76"/>
-      <c r="J41" s="75" t="s">
+      <c r="I41" s="77"/>
+      <c r="J41" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="76"/>
-      <c r="L41" s="75" t="s">
+      <c r="K41" s="77"/>
+      <c r="L41" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="76"/>
+      <c r="M41" s="77"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="77"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="26" t="s">
         <v>1</v>
       </c>
@@ -6804,12 +6818,12 @@
       <c r="A43" s="35">
         <v>8</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="78"/>
+      <c r="C43" s="80"/>
       <c r="D43" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="32" t="s">
         <v>42</v>
@@ -6824,14 +6838,14 @@
         <v>12</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="31"/>
       <c r="L43" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M43" s="31"/>
     </row>
@@ -6839,18 +6853,18 @@
       <c r="A44" s="35">
         <v>9</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="80"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>32</v>
@@ -6864,7 +6878,7 @@
       </c>
       <c r="K44" s="31"/>
       <c r="L44" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M44" s="31"/>
     </row>
@@ -6872,10 +6886,10 @@
       <c r="A45" s="35">
         <v>10</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="34" t="s">
         <v>45</v>
       </c>
@@ -6897,7 +6911,7 @@
       </c>
       <c r="K45" s="31"/>
       <c r="L45" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M45" s="31"/>
     </row>
@@ -6905,18 +6919,18 @@
       <c r="A46" s="68">
         <v>11</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="29" t="s">
         <v>151</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>152</v>
       </c>
       <c r="G46" s="68" t="s">
         <v>32</v>
@@ -6930,7 +6944,7 @@
       </c>
       <c r="K46" s="31"/>
       <c r="L46" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M46" s="31"/>
       <c r="O46" s="67"/>
@@ -6948,22 +6962,22 @@
       <c r="B48" s="70"/>
       <c r="C48" s="70"/>
       <c r="F48" s="13"/>
-      <c r="H48" s="72" t="s">
+      <c r="H48" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="O48" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="O48" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B49" s="70"/>
@@ -7081,14 +7095,14 @@
       <c r="K52" s="71"/>
       <c r="L52" s="71"/>
       <c r="M52" s="71"/>
-      <c r="O52" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
+      <c r="O52" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="70"/>
@@ -7137,7 +7151,7 @@
       <c r="F54" s="13"/>
       <c r="H54" s="14">
         <f>H50+O50+O54</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" s="14">
         <f>I50+P50+P54</f>
@@ -7149,7 +7163,7 @@
       </c>
       <c r="K54" s="14">
         <f>K50+R50+R54</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L54" s="14">
         <f>SUM(H54:K54)</f>
@@ -7157,11 +7171,11 @@
       </c>
       <c r="M54" s="15">
         <f>(K54+I54)/L54</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O54" s="14">
         <f>COUNTIF(L43:L45,"O")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P54" s="14">
         <f>COUNTIF(J48:J50,"N")</f>
@@ -7173,7 +7187,7 @@
       </c>
       <c r="R54" s="14">
         <f>COUNTIF(L43:L45,"R")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S54" s="14">
         <f>SUM(O54:R54)</f>
@@ -7181,12 +7195,12 @@
       </c>
       <c r="T54" s="15">
         <f>(R54+P54)/S54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
       <c r="F55" s="41"/>
       <c r="H55" s="42"/>
       <c r="J55" s="42"/>
@@ -7195,36 +7209,36 @@
       <c r="Q55" s="42"/>
     </row>
     <row r="56" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="75" t="s">
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I56" s="76"/>
-      <c r="J56" s="75" t="s">
+      <c r="I56" s="77"/>
+      <c r="J56" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K56" s="76"/>
-      <c r="L56" s="75" t="s">
+      <c r="K56" s="77"/>
+      <c r="L56" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M56" s="76"/>
+      <c r="M56" s="77"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="77"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="26" t="s">
         <v>1</v>
       </c>
@@ -7260,10 +7274,10 @@
       <c r="A58" s="35">
         <v>12</v>
       </c>
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="78"/>
+      <c r="C58" s="80"/>
       <c r="D58" s="34" t="s">
         <v>49</v>
       </c>
@@ -7285,7 +7299,7 @@
       </c>
       <c r="K58" s="31"/>
       <c r="L58" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M58" s="31"/>
     </row>
@@ -7293,18 +7307,18 @@
       <c r="A59" s="35">
         <v>13</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="80"/>
+      <c r="C59" s="81"/>
       <c r="D59" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>32</v>
@@ -7318,9 +7332,11 @@
       </c>
       <c r="K59" s="31"/>
       <c r="L59" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M59" s="31"/>
+        <v>12</v>
+      </c>
+      <c r="M59" s="69" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B60" s="70"/>
@@ -7334,22 +7350,22 @@
       <c r="B61" s="70"/>
       <c r="C61" s="70"/>
       <c r="F61" s="13"/>
-      <c r="H61" s="72" t="s">
+      <c r="H61" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="O61" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="O61" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B62" s="70"/>
@@ -7467,14 +7483,14 @@
       <c r="K65" s="71"/>
       <c r="L65" s="71"/>
       <c r="M65" s="71"/>
-      <c r="O65" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="72"/>
-      <c r="R65" s="72"/>
-      <c r="S65" s="72"/>
-      <c r="T65" s="72"/>
+      <c r="O65" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B66" s="70"/>
@@ -7523,7 +7539,7 @@
       <c r="F67" s="13"/>
       <c r="H67" s="14">
         <f>H63+O63+O67</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" s="14">
         <f>I63+P63+P67</f>
@@ -7535,7 +7551,7 @@
       </c>
       <c r="K67" s="14">
         <f>K63+R63+R67</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L67" s="14">
         <f>SUM(H67:K67)</f>
@@ -7543,11 +7559,11 @@
       </c>
       <c r="M67" s="15">
         <f>(K67+I67)/L67</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O67" s="14">
         <f>COUNTIF(L58:L59,"O")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P67" s="14">
         <f>COUNTIF(J61:J63,"N")</f>
@@ -7559,7 +7575,7 @@
       </c>
       <c r="R67" s="14">
         <f>COUNTIF(L58:L59,"R")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S67" s="14">
         <f>SUM(O67:R67)</f>
@@ -7567,13 +7583,13 @@
       </c>
       <c r="T67" s="15">
         <f>(R67+P67)/S67</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
-      <c r="B68" s="79"/>
-      <c r="C68" s="79"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="F68" s="41"/>
@@ -7587,27 +7603,27 @@
       <c r="N68" s="40"/>
     </row>
     <row r="69" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="75" t="s">
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I69" s="76"/>
-      <c r="J69" s="75" t="s">
+      <c r="I69" s="77"/>
+      <c r="J69" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K69" s="76"/>
-      <c r="L69" s="75" t="s">
+      <c r="K69" s="77"/>
+      <c r="L69" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M69" s="76"/>
+      <c r="M69" s="77"/>
       <c r="O69" s="37"/>
       <c r="Q69" s="37"/>
     </row>
@@ -7615,10 +7631,10 @@
       <c r="A70" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="77"/>
+      <c r="C70" s="79"/>
       <c r="D70" s="38" t="s">
         <v>1</v>
       </c>
@@ -7656,10 +7672,10 @@
       <c r="A71" s="39">
         <v>14</v>
       </c>
-      <c r="B71" s="78" t="s">
+      <c r="B71" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="78"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="34" t="s">
         <v>54</v>
       </c>
@@ -7681,7 +7697,7 @@
       </c>
       <c r="K71" s="31"/>
       <c r="L71" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M71" s="31"/>
       <c r="O71" s="37"/>
@@ -7701,22 +7717,22 @@
       <c r="B73" s="70"/>
       <c r="C73" s="70"/>
       <c r="F73" s="13"/>
-      <c r="H73" s="72" t="s">
+      <c r="H73" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="O73" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="O73" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B74" s="70"/>
@@ -7834,14 +7850,14 @@
       <c r="K77" s="71"/>
       <c r="L77" s="71"/>
       <c r="M77" s="71"/>
-      <c r="O77" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P77" s="72"/>
-      <c r="Q77" s="72"/>
-      <c r="R77" s="72"/>
-      <c r="S77" s="72"/>
-      <c r="T77" s="72"/>
+      <c r="O77" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P77" s="73"/>
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="73"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B78" s="70"/>
@@ -7890,7 +7906,7 @@
       <c r="F79" s="13"/>
       <c r="H79" s="14">
         <f>H75+O75+O79</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="14">
         <f>I75+P75+P79</f>
@@ -7902,7 +7918,7 @@
       </c>
       <c r="K79" s="14">
         <f>K75+R75+R79</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L79" s="14">
         <f>SUM(H79:K79)</f>
@@ -7910,11 +7926,11 @@
       </c>
       <c r="M79" s="15">
         <f>(K79+I79)/L79</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O79" s="14">
         <f>COUNTIF(L69:L71,"O")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79" s="14">
         <f>COUNTIF(J73:J75,"N")</f>
@@ -7926,7 +7942,7 @@
       </c>
       <c r="R79" s="14">
         <f>COUNTIF(L69:L71,"R")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" s="14">
         <f>SUM(O79:R79)</f>
@@ -7934,13 +7950,13 @@
       </c>
       <c r="T79" s="15">
         <f>(R79+P79)/S79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="F80" s="41"/>
@@ -7956,27 +7972,27 @@
       <c r="Q80" s="37"/>
     </row>
     <row r="81" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="73" t="s">
+      <c r="A81" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="75" t="s">
+      <c r="B81" s="74"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I81" s="76"/>
-      <c r="J81" s="75" t="s">
+      <c r="I81" s="77"/>
+      <c r="J81" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K81" s="76"/>
-      <c r="L81" s="75" t="s">
+      <c r="K81" s="77"/>
+      <c r="L81" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M81" s="76"/>
+      <c r="M81" s="77"/>
       <c r="O81" s="37"/>
       <c r="Q81" s="37"/>
     </row>
@@ -7984,10 +8000,10 @@
       <c r="A82" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="77" t="s">
+      <c r="B82" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C82" s="77"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="38" t="s">
         <v>1</v>
       </c>
@@ -8025,10 +8041,10 @@
       <c r="A83" s="39">
         <v>15</v>
       </c>
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="78"/>
+      <c r="C83" s="80"/>
       <c r="D83" s="34" t="s">
         <v>59</v>
       </c>
@@ -8050,7 +8066,7 @@
       </c>
       <c r="K83" s="31"/>
       <c r="L83" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M83" s="31"/>
       <c r="O83" s="37"/>
@@ -8070,22 +8086,22 @@
       <c r="B85" s="70"/>
       <c r="C85" s="70"/>
       <c r="F85" s="13"/>
-      <c r="H85" s="72" t="s">
+      <c r="H85" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="72"/>
-      <c r="L85" s="72"/>
-      <c r="M85" s="72"/>
-      <c r="O85" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P85" s="72"/>
-      <c r="Q85" s="72"/>
-      <c r="R85" s="72"/>
-      <c r="S85" s="72"/>
-      <c r="T85" s="72"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
+      <c r="K85" s="73"/>
+      <c r="L85" s="73"/>
+      <c r="M85" s="73"/>
+      <c r="O85" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P85" s="73"/>
+      <c r="Q85" s="73"/>
+      <c r="R85" s="73"/>
+      <c r="S85" s="73"/>
+      <c r="T85" s="73"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B86" s="70"/>
@@ -8203,14 +8219,14 @@
       <c r="K89" s="71"/>
       <c r="L89" s="71"/>
       <c r="M89" s="71"/>
-      <c r="O89" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P89" s="72"/>
-      <c r="Q89" s="72"/>
-      <c r="R89" s="72"/>
-      <c r="S89" s="72"/>
-      <c r="T89" s="72"/>
+      <c r="O89" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P89" s="73"/>
+      <c r="Q89" s="73"/>
+      <c r="R89" s="73"/>
+      <c r="S89" s="73"/>
+      <c r="T89" s="73"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B90" s="70"/>
@@ -8259,7 +8275,7 @@
       <c r="F91" s="13"/>
       <c r="H91" s="14">
         <f>H87+O87+O91</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="14">
         <f>I87+P87+P91</f>
@@ -8271,7 +8287,7 @@
       </c>
       <c r="K91" s="14">
         <f>K87+R87+R91</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L91" s="14">
         <f>SUM(H91:K91)</f>
@@ -8279,11 +8295,11 @@
       </c>
       <c r="M91" s="15">
         <f>(K91+I91)/L91</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O91" s="14">
         <f>COUNTIF(L81:L83,"O")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" s="14">
         <f>COUNTIF(J85:J87,"N")</f>
@@ -8295,7 +8311,7 @@
       </c>
       <c r="R91" s="14">
         <f>COUNTIF(L81:L83,"R")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91" s="14">
         <f>SUM(O91:R91)</f>
@@ -8303,13 +8319,13 @@
       </c>
       <c r="T91" s="15">
         <f>(R91+P91)/S91</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="79"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="72"/>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
       <c r="F92" s="41"/>
@@ -8325,27 +8341,27 @@
       <c r="Q92" s="37"/>
     </row>
     <row r="93" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="73"/>
-      <c r="C93" s="73"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="73"/>
-      <c r="F93" s="73"/>
-      <c r="G93" s="74"/>
-      <c r="H93" s="75" t="s">
+      <c r="A93" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="74"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I93" s="76"/>
-      <c r="J93" s="75" t="s">
+      <c r="I93" s="77"/>
+      <c r="J93" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K93" s="76"/>
-      <c r="L93" s="75" t="s">
+      <c r="K93" s="77"/>
+      <c r="L93" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M93" s="76"/>
+      <c r="M93" s="77"/>
       <c r="O93" s="37"/>
       <c r="Q93" s="37"/>
     </row>
@@ -8353,10 +8369,10 @@
       <c r="A94" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="77" t="s">
+      <c r="B94" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C94" s="77"/>
+      <c r="C94" s="79"/>
       <c r="D94" s="38" t="s">
         <v>1</v>
       </c>
@@ -8394,18 +8410,18 @@
       <c r="A95" s="39">
         <v>16</v>
       </c>
-      <c r="B95" s="78" t="s">
+      <c r="B95" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="78"/>
+      <c r="C95" s="80"/>
       <c r="D95" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E95" s="32" t="s">
+      <c r="F95" s="29" t="s">
         <v>94</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>95</v>
       </c>
       <c r="G95" s="39" t="s">
         <v>32</v>
@@ -8419,7 +8435,7 @@
       </c>
       <c r="K95" s="31"/>
       <c r="L95" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M95" s="31"/>
       <c r="O95" s="37"/>
@@ -8429,18 +8445,18 @@
       <c r="A96" s="39">
         <v>17</v>
       </c>
-      <c r="B96" s="80" t="s">
+      <c r="B96" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="80"/>
+      <c r="C96" s="81"/>
       <c r="D96" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96" s="29" t="s">
         <v>126</v>
-      </c>
-      <c r="E96" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>127</v>
       </c>
       <c r="G96" s="39" t="s">
         <v>32</v>
@@ -8454,7 +8470,7 @@
       </c>
       <c r="K96" s="31"/>
       <c r="L96" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M96" s="31"/>
       <c r="O96" s="37"/>
@@ -8474,22 +8490,22 @@
       <c r="B98" s="70"/>
       <c r="C98" s="70"/>
       <c r="F98" s="13"/>
-      <c r="H98" s="72" t="s">
+      <c r="H98" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I98" s="72"/>
-      <c r="J98" s="72"/>
-      <c r="K98" s="72"/>
-      <c r="L98" s="72"/>
-      <c r="M98" s="72"/>
-      <c r="O98" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P98" s="72"/>
-      <c r="Q98" s="72"/>
-      <c r="R98" s="72"/>
-      <c r="S98" s="72"/>
-      <c r="T98" s="72"/>
+      <c r="I98" s="73"/>
+      <c r="J98" s="73"/>
+      <c r="K98" s="73"/>
+      <c r="L98" s="73"/>
+      <c r="M98" s="73"/>
+      <c r="O98" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P98" s="73"/>
+      <c r="Q98" s="73"/>
+      <c r="R98" s="73"/>
+      <c r="S98" s="73"/>
+      <c r="T98" s="73"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B99" s="70"/>
@@ -8607,14 +8623,14 @@
       <c r="K102" s="71"/>
       <c r="L102" s="71"/>
       <c r="M102" s="71"/>
-      <c r="O102" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P102" s="72"/>
-      <c r="Q102" s="72"/>
-      <c r="R102" s="72"/>
-      <c r="S102" s="72"/>
-      <c r="T102" s="72"/>
+      <c r="O102" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P102" s="73"/>
+      <c r="Q102" s="73"/>
+      <c r="R102" s="73"/>
+      <c r="S102" s="73"/>
+      <c r="T102" s="73"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B103" s="70"/>
@@ -8663,7 +8679,7 @@
       <c r="F104" s="13"/>
       <c r="H104" s="14">
         <f>H100+O100+O104</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" s="14">
         <f>I100+P100+P104</f>
@@ -8675,7 +8691,7 @@
       </c>
       <c r="K104" s="14">
         <f>K100+R100+R104</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L104" s="14">
         <f>SUM(H104:K104)</f>
@@ -8683,11 +8699,11 @@
       </c>
       <c r="M104" s="15">
         <f>(K104+I104)/L104</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O104" s="14">
         <f>COUNTIF(L95:L96,"O")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P104" s="14">
         <f>COUNTIF(J98:J100,"N")</f>
@@ -8699,7 +8715,7 @@
       </c>
       <c r="R104" s="14">
         <f>COUNTIF(L95:L96,"R")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S104" s="14">
         <f>SUM(O104:R104)</f>
@@ -8707,13 +8723,13 @@
       </c>
       <c r="T104" s="15">
         <f>(R104+P104)/S104</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
-      <c r="B105" s="79"/>
-      <c r="C105" s="79"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="72"/>
       <c r="D105" s="40"/>
       <c r="E105" s="40"/>
       <c r="F105" s="41"/>
@@ -8729,27 +8745,27 @@
       <c r="Q105" s="37"/>
     </row>
     <row r="106" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="73"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="75" t="s">
+      <c r="A106" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="74"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="75"/>
+      <c r="H106" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I106" s="76"/>
-      <c r="J106" s="75" t="s">
+      <c r="I106" s="77"/>
+      <c r="J106" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K106" s="76"/>
-      <c r="L106" s="75" t="s">
+      <c r="K106" s="77"/>
+      <c r="L106" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M106" s="76"/>
+      <c r="M106" s="77"/>
       <c r="O106" s="46"/>
       <c r="Q106" s="46"/>
     </row>
@@ -8757,10 +8773,10 @@
       <c r="A107" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="77" t="s">
+      <c r="B107" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C107" s="77"/>
+      <c r="C107" s="79"/>
       <c r="D107" s="49" t="s">
         <v>1</v>
       </c>
@@ -8798,18 +8814,18 @@
       <c r="A108" s="48">
         <v>18</v>
       </c>
-      <c r="B108" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="C108" s="78"/>
+      <c r="B108" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" s="80"/>
       <c r="D108" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E108" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="29" t="s">
         <v>97</v>
-      </c>
-      <c r="F108" s="29" t="s">
-        <v>98</v>
       </c>
       <c r="G108" s="48" t="s">
         <v>32</v>
@@ -8823,7 +8839,7 @@
       </c>
       <c r="K108" s="31"/>
       <c r="L108" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M108" s="31"/>
       <c r="O108" s="46"/>
@@ -8833,18 +8849,18 @@
       <c r="A109" s="68">
         <v>19</v>
       </c>
-      <c r="B109" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="C109" s="80"/>
+      <c r="B109" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="81"/>
       <c r="D109" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F109" s="29" t="s">
         <v>129</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>130</v>
       </c>
       <c r="G109" s="48" t="s">
         <v>32</v>
@@ -8858,7 +8874,7 @@
       </c>
       <c r="K109" s="31"/>
       <c r="L109" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M109" s="31"/>
       <c r="O109" s="46"/>
@@ -8878,22 +8894,22 @@
       <c r="B111" s="70"/>
       <c r="C111" s="70"/>
       <c r="F111" s="13"/>
-      <c r="H111" s="72" t="s">
+      <c r="H111" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I111" s="72"/>
-      <c r="J111" s="72"/>
-      <c r="K111" s="72"/>
-      <c r="L111" s="72"/>
-      <c r="M111" s="72"/>
-      <c r="O111" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P111" s="72"/>
-      <c r="Q111" s="72"/>
-      <c r="R111" s="72"/>
-      <c r="S111" s="72"/>
-      <c r="T111" s="72"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="73"/>
+      <c r="K111" s="73"/>
+      <c r="L111" s="73"/>
+      <c r="M111" s="73"/>
+      <c r="O111" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P111" s="73"/>
+      <c r="Q111" s="73"/>
+      <c r="R111" s="73"/>
+      <c r="S111" s="73"/>
+      <c r="T111" s="73"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B112" s="70"/>
@@ -9011,14 +9027,14 @@
       <c r="K115" s="71"/>
       <c r="L115" s="71"/>
       <c r="M115" s="71"/>
-      <c r="O115" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P115" s="72"/>
-      <c r="Q115" s="72"/>
-      <c r="R115" s="72"/>
-      <c r="S115" s="72"/>
-      <c r="T115" s="72"/>
+      <c r="O115" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P115" s="73"/>
+      <c r="Q115" s="73"/>
+      <c r="R115" s="73"/>
+      <c r="S115" s="73"/>
+      <c r="T115" s="73"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B116" s="70"/>
@@ -9067,7 +9083,7 @@
       <c r="F117" s="13"/>
       <c r="H117" s="14">
         <f>H113+O113+O117</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" s="14">
         <f>I113+P113+P117</f>
@@ -9079,7 +9095,7 @@
       </c>
       <c r="K117" s="14">
         <f>K113+R113+R117</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L117" s="14">
         <f>SUM(H117:K117)</f>
@@ -9087,11 +9103,11 @@
       </c>
       <c r="M117" s="15">
         <f>(K117+I117)/L117</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O117" s="14">
         <f>COUNTIF(L108:L109,"O")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P117" s="14">
         <f>COUNTIF(J111:J113,"N")</f>
@@ -9103,7 +9119,7 @@
       </c>
       <c r="R117" s="14">
         <f>COUNTIF(L108:L109,"R")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S117" s="14">
         <f>SUM(O117:R117)</f>
@@ -9111,7 +9127,7 @@
       </c>
       <c r="T117" s="15">
         <f>(R117+P117)/S117</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -9132,27 +9148,27 @@
       <c r="T118" s="62"/>
     </row>
     <row r="119" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="B119" s="73"/>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="74"/>
-      <c r="H119" s="75" t="s">
+      <c r="A119" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="74"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="75"/>
+      <c r="H119" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I119" s="76"/>
-      <c r="J119" s="75" t="s">
+      <c r="I119" s="77"/>
+      <c r="J119" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K119" s="76"/>
-      <c r="L119" s="75" t="s">
+      <c r="K119" s="77"/>
+      <c r="L119" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M119" s="76"/>
+      <c r="M119" s="77"/>
       <c r="O119" s="63"/>
       <c r="Q119" s="63"/>
     </row>
@@ -9160,10 +9176,10 @@
       <c r="A120" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="77" t="s">
+      <c r="B120" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="77"/>
+      <c r="C120" s="79"/>
       <c r="D120" s="66" t="s">
         <v>1</v>
       </c>
@@ -9201,18 +9217,18 @@
       <c r="A121" s="65">
         <v>20</v>
       </c>
-      <c r="B121" s="78" t="s">
+      <c r="B121" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="80"/>
+      <c r="D121" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F121" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="C121" s="78"/>
-      <c r="D121" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="E121" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F121" s="29" t="s">
-        <v>147</v>
       </c>
       <c r="G121" s="65" t="s">
         <v>32</v>
@@ -9226,9 +9242,11 @@
       </c>
       <c r="K121" s="31"/>
       <c r="L121" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M121" s="31"/>
+        <v>12</v>
+      </c>
+      <c r="M121" s="31" t="s">
+        <v>157</v>
+      </c>
       <c r="O121" s="63"/>
       <c r="Q121" s="63"/>
     </row>
@@ -9246,28 +9264,28 @@
       <c r="B123" s="70"/>
       <c r="C123" s="70"/>
       <c r="F123" s="13"/>
-      <c r="H123" s="72" t="s">
+      <c r="H123" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I123" s="72"/>
-      <c r="J123" s="72"/>
-      <c r="K123" s="72"/>
-      <c r="L123" s="72"/>
-      <c r="M123" s="72"/>
-      <c r="O123" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P123" s="72"/>
-      <c r="Q123" s="72"/>
-      <c r="R123" s="72"/>
-      <c r="S123" s="72"/>
-      <c r="T123" s="72"/>
+      <c r="I123" s="73"/>
+      <c r="J123" s="73"/>
+      <c r="K123" s="73"/>
+      <c r="L123" s="73"/>
+      <c r="M123" s="73"/>
+      <c r="O123" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P123" s="73"/>
+      <c r="Q123" s="73"/>
+      <c r="R123" s="73"/>
+      <c r="S123" s="73"/>
+      <c r="T123" s="73"/>
     </row>
     <row r="124" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="70"/>
       <c r="C124" s="70"/>
       <c r="E124" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F124" s="13"/>
       <c r="H124" s="16" t="s">
@@ -9382,14 +9400,14 @@
       <c r="K127" s="71"/>
       <c r="L127" s="71"/>
       <c r="M127" s="71"/>
-      <c r="O127" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P127" s="72"/>
-      <c r="Q127" s="72"/>
-      <c r="R127" s="72"/>
-      <c r="S127" s="72"/>
-      <c r="T127" s="72"/>
+      <c r="O127" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P127" s="73"/>
+      <c r="Q127" s="73"/>
+      <c r="R127" s="73"/>
+      <c r="S127" s="73"/>
+      <c r="T127" s="73"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B128" s="70"/>
@@ -9438,7 +9456,7 @@
       <c r="F129" s="13"/>
       <c r="H129" s="14">
         <f>H125+O125+O129</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" s="14">
         <f>I125+P125+P129</f>
@@ -9450,7 +9468,7 @@
       </c>
       <c r="K129" s="14">
         <f>K125+R125+R129</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L129" s="14">
         <f>SUM(H129:K129)</f>
@@ -9458,11 +9476,11 @@
       </c>
       <c r="M129" s="15">
         <f>(K129+I129)/L129</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O129" s="14">
         <f>COUNTIF(L121:L121,"O")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P129" s="14">
         <f>COUNTIF(J123:J125,"N")</f>
@@ -9474,7 +9492,7 @@
       </c>
       <c r="R129" s="14">
         <f>COUNTIF(L121:L121,"R")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S129" s="14">
         <f>SUM(O129:R129)</f>
@@ -9482,7 +9500,7 @@
       </c>
       <c r="T129" s="15">
         <f>(R129+P129)/S129</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
@@ -9503,27 +9521,27 @@
       <c r="T130" s="62"/>
     </row>
     <row r="131" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A131" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="B131" s="73"/>
-      <c r="C131" s="73"/>
-      <c r="D131" s="73"/>
-      <c r="E131" s="73"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="75" t="s">
+      <c r="A131" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" s="74"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="75"/>
+      <c r="H131" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I131" s="76"/>
-      <c r="J131" s="75" t="s">
+      <c r="I131" s="77"/>
+      <c r="J131" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K131" s="76"/>
-      <c r="L131" s="75" t="s">
+      <c r="K131" s="77"/>
+      <c r="L131" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M131" s="76"/>
+      <c r="M131" s="77"/>
       <c r="O131" s="52"/>
       <c r="Q131" s="52"/>
     </row>
@@ -9531,10 +9549,10 @@
       <c r="A132" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="77" t="s">
+      <c r="B132" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C132" s="77"/>
+      <c r="C132" s="79"/>
       <c r="D132" s="55" t="s">
         <v>1</v>
       </c>
@@ -9572,18 +9590,18 @@
       <c r="A133" s="54">
         <v>21</v>
       </c>
-      <c r="B133" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C133" s="78"/>
+      <c r="B133" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C133" s="80"/>
       <c r="D133" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E133" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="E133" s="32" t="s">
+      <c r="F133" s="29" t="s">
         <v>108</v>
-      </c>
-      <c r="F133" s="29" t="s">
-        <v>109</v>
       </c>
       <c r="G133" s="54" t="s">
         <v>32</v>
@@ -9597,7 +9615,7 @@
       </c>
       <c r="K133" s="31"/>
       <c r="L133" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M133" s="31"/>
       <c r="O133" s="52"/>
@@ -9607,18 +9625,18 @@
       <c r="A134" s="54">
         <v>22</v>
       </c>
-      <c r="B134" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C134" s="80"/>
+      <c r="B134" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="81"/>
       <c r="D134" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E134" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F134" s="29" t="s">
         <v>110</v>
-      </c>
-      <c r="F134" s="29" t="s">
-        <v>111</v>
       </c>
       <c r="G134" s="54" t="s">
         <v>32</v>
@@ -9632,7 +9650,7 @@
       </c>
       <c r="K134" s="31"/>
       <c r="L134" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M134" s="31"/>
       <c r="O134" s="52"/>
@@ -9652,22 +9670,22 @@
       <c r="B136" s="70"/>
       <c r="C136" s="70"/>
       <c r="F136" s="13"/>
-      <c r="H136" s="72" t="s">
+      <c r="H136" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
-      <c r="L136" s="72"/>
-      <c r="M136" s="72"/>
-      <c r="O136" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P136" s="72"/>
-      <c r="Q136" s="72"/>
-      <c r="R136" s="72"/>
-      <c r="S136" s="72"/>
-      <c r="T136" s="72"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="73"/>
+      <c r="K136" s="73"/>
+      <c r="L136" s="73"/>
+      <c r="M136" s="73"/>
+      <c r="O136" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P136" s="73"/>
+      <c r="Q136" s="73"/>
+      <c r="R136" s="73"/>
+      <c r="S136" s="73"/>
+      <c r="T136" s="73"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B137" s="70"/>
@@ -9785,14 +9803,14 @@
       <c r="K140" s="71"/>
       <c r="L140" s="71"/>
       <c r="M140" s="71"/>
-      <c r="O140" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P140" s="72"/>
-      <c r="Q140" s="72"/>
-      <c r="R140" s="72"/>
-      <c r="S140" s="72"/>
-      <c r="T140" s="72"/>
+      <c r="O140" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P140" s="73"/>
+      <c r="Q140" s="73"/>
+      <c r="R140" s="73"/>
+      <c r="S140" s="73"/>
+      <c r="T140" s="73"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B141" s="70"/>
@@ -9841,7 +9859,7 @@
       <c r="F142" s="13"/>
       <c r="H142" s="14">
         <f>H138+O138+O142</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" s="14">
         <f>I138+P138+P142</f>
@@ -9853,7 +9871,7 @@
       </c>
       <c r="K142" s="14">
         <f>K138+R138+R142</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L142" s="14">
         <f>SUM(H142:K142)</f>
@@ -9861,11 +9879,11 @@
       </c>
       <c r="M142" s="15">
         <f>(K142+I142)/L142</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O142" s="14">
         <f>COUNTIF(L133:L134,"O")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P142" s="14">
         <f>COUNTIF(J136:J138,"N")</f>
@@ -9877,7 +9895,7 @@
       </c>
       <c r="R142" s="14">
         <f>COUNTIF(L133:L134,"R")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S142" s="14">
         <f>SUM(O142:R142)</f>
@@ -9885,13 +9903,13 @@
       </c>
       <c r="T142" s="15">
         <f>(R142+P142)/S142</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
-      <c r="B143" s="79"/>
-      <c r="C143" s="79"/>
+      <c r="B143" s="72"/>
+      <c r="C143" s="72"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="41"/>
@@ -9907,27 +9925,27 @@
       <c r="Q143" s="46"/>
     </row>
     <row r="144" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A144" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="B144" s="73"/>
-      <c r="C144" s="73"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="73"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="74"/>
-      <c r="H144" s="75" t="s">
+      <c r="A144" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B144" s="74"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="74"/>
+      <c r="F144" s="74"/>
+      <c r="G144" s="75"/>
+      <c r="H144" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I144" s="76"/>
-      <c r="J144" s="75" t="s">
+      <c r="I144" s="77"/>
+      <c r="J144" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K144" s="76"/>
-      <c r="L144" s="75" t="s">
+      <c r="K144" s="77"/>
+      <c r="L144" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M144" s="76"/>
+      <c r="M144" s="77"/>
       <c r="O144" s="52"/>
       <c r="Q144" s="52"/>
     </row>
@@ -9935,10 +9953,10 @@
       <c r="A145" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="77" t="s">
+      <c r="B145" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C145" s="77"/>
+      <c r="C145" s="79"/>
       <c r="D145" s="55" t="s">
         <v>1</v>
       </c>
@@ -9976,18 +9994,18 @@
       <c r="A146" s="54">
         <v>23</v>
       </c>
-      <c r="B146" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="C146" s="78"/>
+      <c r="B146" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C146" s="80"/>
       <c r="D146" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E146" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F146" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="F146" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="G146" s="54" t="s">
         <v>32</v>
@@ -10001,7 +10019,7 @@
       </c>
       <c r="K146" s="31"/>
       <c r="L146" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M146" s="31"/>
       <c r="O146" s="52"/>
@@ -10011,18 +10029,18 @@
       <c r="A147" s="54">
         <v>24</v>
       </c>
-      <c r="B147" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C147" s="80"/>
+      <c r="B147" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C147" s="81"/>
       <c r="D147" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E147" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F147" s="29" t="s">
         <v>119</v>
-      </c>
-      <c r="E147" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F147" s="29" t="s">
-        <v>120</v>
       </c>
       <c r="G147" s="54" t="s">
         <v>32</v>
@@ -10036,7 +10054,7 @@
       </c>
       <c r="K147" s="31"/>
       <c r="L147" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M147" s="31"/>
       <c r="O147" s="52"/>
@@ -10056,22 +10074,22 @@
       <c r="B149" s="70"/>
       <c r="C149" s="70"/>
       <c r="F149" s="13"/>
-      <c r="H149" s="72" t="s">
+      <c r="H149" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I149" s="72"/>
-      <c r="J149" s="72"/>
-      <c r="K149" s="72"/>
-      <c r="L149" s="72"/>
-      <c r="M149" s="72"/>
-      <c r="O149" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P149" s="72"/>
-      <c r="Q149" s="72"/>
-      <c r="R149" s="72"/>
-      <c r="S149" s="72"/>
-      <c r="T149" s="72"/>
+      <c r="I149" s="73"/>
+      <c r="J149" s="73"/>
+      <c r="K149" s="73"/>
+      <c r="L149" s="73"/>
+      <c r="M149" s="73"/>
+      <c r="O149" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P149" s="73"/>
+      <c r="Q149" s="73"/>
+      <c r="R149" s="73"/>
+      <c r="S149" s="73"/>
+      <c r="T149" s="73"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B150" s="70"/>
@@ -10189,14 +10207,14 @@
       <c r="K153" s="71"/>
       <c r="L153" s="71"/>
       <c r="M153" s="71"/>
-      <c r="O153" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P153" s="72"/>
-      <c r="Q153" s="72"/>
-      <c r="R153" s="72"/>
-      <c r="S153" s="72"/>
-      <c r="T153" s="72"/>
+      <c r="O153" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P153" s="73"/>
+      <c r="Q153" s="73"/>
+      <c r="R153" s="73"/>
+      <c r="S153" s="73"/>
+      <c r="T153" s="73"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B154" s="70"/>
@@ -10245,7 +10263,7 @@
       <c r="F155" s="13"/>
       <c r="H155" s="14">
         <f>H151+O151+O155</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" s="14">
         <f>I151+P151+P155</f>
@@ -10257,7 +10275,7 @@
       </c>
       <c r="K155" s="14">
         <f>K151+R151+R155</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L155" s="14">
         <f>SUM(H155:K155)</f>
@@ -10265,11 +10283,11 @@
       </c>
       <c r="M155" s="15">
         <f>(K155+I155)/L155</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O155" s="14">
         <f>COUNTIF(L146:L147,"O")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P155" s="14">
         <f>COUNTIF(J149:J151,"N")</f>
@@ -10281,7 +10299,7 @@
       </c>
       <c r="R155" s="14">
         <f>COUNTIF(L146:L147,"R")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S155" s="14">
         <f>SUM(O155:R155)</f>
@@ -10289,13 +10307,13 @@
       </c>
       <c r="T155" s="15">
         <f>(R155+P155)/S155</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
-      <c r="B156" s="79"/>
-      <c r="C156" s="79"/>
+      <c r="B156" s="72"/>
+      <c r="C156" s="72"/>
       <c r="D156" s="40"/>
       <c r="E156" s="40"/>
       <c r="F156" s="41"/>
@@ -10311,27 +10329,27 @@
       <c r="Q156" s="52"/>
     </row>
     <row r="157" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A157" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B157" s="73"/>
-      <c r="C157" s="73"/>
-      <c r="D157" s="73"/>
-      <c r="E157" s="73"/>
-      <c r="F157" s="73"/>
-      <c r="G157" s="74"/>
-      <c r="H157" s="75" t="s">
+      <c r="A157" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="B157" s="74"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="74"/>
+      <c r="F157" s="74"/>
+      <c r="G157" s="75"/>
+      <c r="H157" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I157" s="76"/>
-      <c r="J157" s="75" t="s">
+      <c r="I157" s="77"/>
+      <c r="J157" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K157" s="76"/>
-      <c r="L157" s="75" t="s">
+      <c r="K157" s="77"/>
+      <c r="L157" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M157" s="76"/>
+      <c r="M157" s="77"/>
       <c r="O157" s="52"/>
       <c r="Q157" s="52"/>
     </row>
@@ -10339,10 +10357,10 @@
       <c r="A158" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="77" t="s">
+      <c r="B158" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C158" s="77"/>
+      <c r="C158" s="79"/>
       <c r="D158" s="55" t="s">
         <v>1</v>
       </c>
@@ -10380,18 +10398,18 @@
       <c r="A159" s="54">
         <v>25</v>
       </c>
-      <c r="B159" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="C159" s="78"/>
+      <c r="B159" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C159" s="80"/>
       <c r="D159" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F159" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G159" s="54" t="s">
         <v>32</v>
@@ -10405,7 +10423,7 @@
       </c>
       <c r="K159" s="31"/>
       <c r="L159" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M159" s="31"/>
       <c r="O159" s="52"/>
@@ -10425,28 +10443,28 @@
       <c r="B161" s="70"/>
       <c r="C161" s="70"/>
       <c r="F161" s="13"/>
-      <c r="H161" s="72" t="s">
+      <c r="H161" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I161" s="72"/>
-      <c r="J161" s="72"/>
-      <c r="K161" s="72"/>
-      <c r="L161" s="72"/>
-      <c r="M161" s="72"/>
-      <c r="O161" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P161" s="72"/>
-      <c r="Q161" s="72"/>
-      <c r="R161" s="72"/>
-      <c r="S161" s="72"/>
-      <c r="T161" s="72"/>
+      <c r="I161" s="73"/>
+      <c r="J161" s="73"/>
+      <c r="K161" s="73"/>
+      <c r="L161" s="73"/>
+      <c r="M161" s="73"/>
+      <c r="O161" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P161" s="73"/>
+      <c r="Q161" s="73"/>
+      <c r="R161" s="73"/>
+      <c r="S161" s="73"/>
+      <c r="T161" s="73"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B162" s="70"/>
       <c r="C162" s="70"/>
       <c r="E162" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F162" s="13"/>
       <c r="H162" s="16" t="s">
@@ -10561,14 +10579,14 @@
       <c r="K165" s="71"/>
       <c r="L165" s="71"/>
       <c r="M165" s="71"/>
-      <c r="O165" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P165" s="72"/>
-      <c r="Q165" s="72"/>
-      <c r="R165" s="72"/>
-      <c r="S165" s="72"/>
-      <c r="T165" s="72"/>
+      <c r="O165" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P165" s="73"/>
+      <c r="Q165" s="73"/>
+      <c r="R165" s="73"/>
+      <c r="S165" s="73"/>
+      <c r="T165" s="73"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B166" s="70"/>
@@ -10617,7 +10635,7 @@
       <c r="F167" s="13"/>
       <c r="H167" s="14">
         <f>H163+O163+O167</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" s="14">
         <f>I163+P163+P167</f>
@@ -10629,7 +10647,7 @@
       </c>
       <c r="K167" s="14">
         <f>K163+R163+R167</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L167" s="14">
         <f>SUM(H167:K167)</f>
@@ -10637,11 +10655,11 @@
       </c>
       <c r="M167" s="15">
         <f>(K167+I167)/L167</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O167" s="14">
         <f>COUNTIF(L159:L159,"O")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P167" s="14">
         <f>COUNTIF(J161:J163,"N")</f>
@@ -10653,7 +10671,7 @@
       </c>
       <c r="R167" s="14">
         <f>COUNTIF(L159:L159,"R")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S167" s="14">
         <f>SUM(O167:R167)</f>
@@ -10661,13 +10679,13 @@
       </c>
       <c r="T167" s="15">
         <f>(R167+P167)/S167</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
-      <c r="B168" s="79"/>
-      <c r="C168" s="79"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="72"/>
       <c r="D168" s="40"/>
       <c r="E168" s="40"/>
       <c r="F168" s="41"/>
@@ -10683,27 +10701,27 @@
       <c r="Q168" s="52"/>
     </row>
     <row r="169" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A169" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="B169" s="73"/>
-      <c r="C169" s="73"/>
-      <c r="D169" s="73"/>
-      <c r="E169" s="73"/>
-      <c r="F169" s="73"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="75" t="s">
+      <c r="A169" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B169" s="74"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="74"/>
+      <c r="G169" s="75"/>
+      <c r="H169" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I169" s="76"/>
-      <c r="J169" s="75" t="s">
+      <c r="I169" s="77"/>
+      <c r="J169" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K169" s="76"/>
-      <c r="L169" s="75" t="s">
+      <c r="K169" s="77"/>
+      <c r="L169" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M169" s="76"/>
+      <c r="M169" s="77"/>
       <c r="O169" s="56"/>
       <c r="Q169" s="56"/>
     </row>
@@ -10711,10 +10729,10 @@
       <c r="A170" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="77" t="s">
+      <c r="B170" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C170" s="77"/>
+      <c r="C170" s="79"/>
       <c r="D170" s="60" t="s">
         <v>1</v>
       </c>
@@ -10752,18 +10770,18 @@
       <c r="A171" s="58">
         <v>26</v>
       </c>
-      <c r="B171" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="C171" s="78"/>
+      <c r="B171" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="C171" s="80"/>
       <c r="D171" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E171" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F171" s="29" t="s">
         <v>154</v>
-      </c>
-      <c r="F171" s="29" t="s">
-        <v>155</v>
       </c>
       <c r="G171" s="58" t="s">
         <v>32</v>
@@ -10777,7 +10795,7 @@
       </c>
       <c r="K171" s="31"/>
       <c r="L171" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M171" s="31"/>
       <c r="O171" s="56"/>
@@ -10797,22 +10815,22 @@
       <c r="B173" s="70"/>
       <c r="C173" s="70"/>
       <c r="F173" s="13"/>
-      <c r="H173" s="72" t="s">
+      <c r="H173" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I173" s="72"/>
-      <c r="J173" s="72"/>
-      <c r="K173" s="72"/>
-      <c r="L173" s="72"/>
-      <c r="M173" s="72"/>
-      <c r="O173" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P173" s="72"/>
-      <c r="Q173" s="72"/>
-      <c r="R173" s="72"/>
-      <c r="S173" s="72"/>
-      <c r="T173" s="72"/>
+      <c r="I173" s="73"/>
+      <c r="J173" s="73"/>
+      <c r="K173" s="73"/>
+      <c r="L173" s="73"/>
+      <c r="M173" s="73"/>
+      <c r="O173" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P173" s="73"/>
+      <c r="Q173" s="73"/>
+      <c r="R173" s="73"/>
+      <c r="S173" s="73"/>
+      <c r="T173" s="73"/>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B174" s="70"/>
@@ -10930,14 +10948,14 @@
       <c r="K177" s="71"/>
       <c r="L177" s="71"/>
       <c r="M177" s="71"/>
-      <c r="O177" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P177" s="72"/>
-      <c r="Q177" s="72"/>
-      <c r="R177" s="72"/>
-      <c r="S177" s="72"/>
-      <c r="T177" s="72"/>
+      <c r="O177" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P177" s="73"/>
+      <c r="Q177" s="73"/>
+      <c r="R177" s="73"/>
+      <c r="S177" s="73"/>
+      <c r="T177" s="73"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B178" s="70"/>
@@ -10986,7 +11004,7 @@
       <c r="F179" s="13"/>
       <c r="H179" s="14">
         <f>H175+O175+O179</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" s="14">
         <f>I175+P175+P179</f>
@@ -10998,7 +11016,7 @@
       </c>
       <c r="K179" s="14">
         <f>K175+R175+R179</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L179" s="14">
         <f>SUM(H179:K179)</f>
@@ -11006,11 +11024,11 @@
       </c>
       <c r="M179" s="15">
         <f>(K179+I179)/L179</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O179" s="14">
         <f>COUNTIF(L171:L171,"O")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P179" s="14">
         <f>COUNTIF(J173:J175,"N")</f>
@@ -11022,7 +11040,7 @@
       </c>
       <c r="R179" s="14">
         <f>COUNTIF(L171:L171,"R")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S179" s="14">
         <f>SUM(O179:R179)</f>
@@ -11030,13 +11048,13 @@
       </c>
       <c r="T179" s="15">
         <f>(R179+P179)/S179</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
-      <c r="B180" s="79"/>
-      <c r="C180" s="79"/>
+      <c r="B180" s="72"/>
+      <c r="C180" s="72"/>
       <c r="D180" s="40"/>
       <c r="E180" s="40"/>
       <c r="F180" s="41"/>
@@ -11052,27 +11070,27 @@
       <c r="Q180" s="56"/>
     </row>
     <row r="181" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A181" s="73" t="s">
+      <c r="A181" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B181" s="73"/>
-      <c r="C181" s="73"/>
-      <c r="D181" s="73"/>
-      <c r="E181" s="73"/>
-      <c r="F181" s="73"/>
-      <c r="G181" s="74"/>
-      <c r="H181" s="75" t="s">
+      <c r="B181" s="74"/>
+      <c r="C181" s="74"/>
+      <c r="D181" s="74"/>
+      <c r="E181" s="74"/>
+      <c r="F181" s="74"/>
+      <c r="G181" s="75"/>
+      <c r="H181" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I181" s="76"/>
-      <c r="J181" s="75" t="s">
+      <c r="I181" s="77"/>
+      <c r="J181" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K181" s="76"/>
-      <c r="L181" s="75" t="s">
+      <c r="K181" s="77"/>
+      <c r="L181" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M181" s="76"/>
+      <c r="M181" s="77"/>
       <c r="O181" s="37"/>
       <c r="Q181" s="37"/>
     </row>
@@ -11080,10 +11098,10 @@
       <c r="A182" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="77" t="s">
+      <c r="B182" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C182" s="77"/>
+      <c r="C182" s="79"/>
       <c r="D182" s="38" t="s">
         <v>1</v>
       </c>
@@ -11121,10 +11139,10 @@
       <c r="A183" s="39">
         <v>27</v>
       </c>
-      <c r="B183" s="78" t="s">
+      <c r="B183" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C183" s="78"/>
+      <c r="C183" s="80"/>
       <c r="D183" s="34" t="s">
         <v>64</v>
       </c>
@@ -11146,7 +11164,7 @@
       </c>
       <c r="K183" s="31"/>
       <c r="L183" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M183" s="31"/>
       <c r="O183" s="37"/>
@@ -11156,10 +11174,10 @@
       <c r="A184" s="39">
         <v>28</v>
       </c>
-      <c r="B184" s="80" t="s">
+      <c r="B184" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C184" s="80"/>
+      <c r="C184" s="81"/>
       <c r="D184" s="34" t="s">
         <v>68</v>
       </c>
@@ -11181,7 +11199,7 @@
       </c>
       <c r="K184" s="31"/>
       <c r="L184" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M184" s="31"/>
       <c r="O184" s="37"/>
@@ -11191,10 +11209,10 @@
       <c r="A185" s="68">
         <v>29</v>
       </c>
-      <c r="B185" s="69" t="s">
+      <c r="B185" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C185" s="69"/>
+      <c r="C185" s="78"/>
       <c r="D185" s="34" t="s">
         <v>68</v>
       </c>
@@ -11216,7 +11234,7 @@
       </c>
       <c r="K185" s="31"/>
       <c r="L185" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M185" s="31"/>
       <c r="O185" s="37"/>
@@ -11226,10 +11244,10 @@
       <c r="A186" s="68">
         <v>30</v>
       </c>
-      <c r="B186" s="69" t="s">
+      <c r="B186" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C186" s="69"/>
+      <c r="C186" s="78"/>
       <c r="D186" s="34" t="s">
         <v>68</v>
       </c>
@@ -11251,7 +11269,7 @@
       </c>
       <c r="K186" s="31"/>
       <c r="L186" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M186" s="31"/>
       <c r="O186" s="43"/>
@@ -11261,10 +11279,10 @@
       <c r="A187" s="68">
         <v>31</v>
       </c>
-      <c r="B187" s="69" t="s">
+      <c r="B187" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C187" s="69"/>
+      <c r="C187" s="78"/>
       <c r="D187" s="34" t="s">
         <v>68</v>
       </c>
@@ -11286,7 +11304,7 @@
       </c>
       <c r="K187" s="31"/>
       <c r="L187" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M187" s="31"/>
       <c r="O187" s="43"/>
@@ -11296,10 +11314,10 @@
       <c r="A188" s="68">
         <v>32</v>
       </c>
-      <c r="B188" s="69" t="s">
+      <c r="B188" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C188" s="69"/>
+      <c r="C188" s="78"/>
       <c r="D188" s="34" t="s">
         <v>68</v>
       </c>
@@ -11321,7 +11339,7 @@
       </c>
       <c r="K188" s="31"/>
       <c r="L188" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M188" s="31"/>
       <c r="O188" s="43"/>
@@ -11331,10 +11349,10 @@
       <c r="A189" s="68">
         <v>33</v>
       </c>
-      <c r="B189" s="69" t="s">
+      <c r="B189" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C189" s="69"/>
+      <c r="C189" s="78"/>
       <c r="D189" s="34" t="s">
         <v>78</v>
       </c>
@@ -11356,7 +11374,7 @@
       </c>
       <c r="K189" s="31"/>
       <c r="L189" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M189" s="31"/>
       <c r="O189" s="43"/>
@@ -11366,18 +11384,18 @@
       <c r="A190" s="68">
         <v>34</v>
       </c>
-      <c r="B190" s="69" t="s">
+      <c r="B190" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C190" s="69"/>
+      <c r="C190" s="78"/>
       <c r="D190" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E190" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E190" s="32" t="s">
+      <c r="F190" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="F190" s="29" t="s">
-        <v>102</v>
       </c>
       <c r="G190" s="44" t="s">
         <v>32</v>
@@ -11391,7 +11409,7 @@
       </c>
       <c r="K190" s="31"/>
       <c r="L190" s="31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M190" s="31"/>
       <c r="O190" s="43"/>
@@ -11411,22 +11429,22 @@
       <c r="B192" s="70"/>
       <c r="C192" s="70"/>
       <c r="F192" s="13"/>
-      <c r="H192" s="72" t="s">
+      <c r="H192" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I192" s="72"/>
-      <c r="J192" s="72"/>
-      <c r="K192" s="72"/>
-      <c r="L192" s="72"/>
-      <c r="M192" s="72"/>
-      <c r="O192" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="P192" s="72"/>
-      <c r="Q192" s="72"/>
-      <c r="R192" s="72"/>
-      <c r="S192" s="72"/>
-      <c r="T192" s="72"/>
+      <c r="I192" s="73"/>
+      <c r="J192" s="73"/>
+      <c r="K192" s="73"/>
+      <c r="L192" s="73"/>
+      <c r="M192" s="73"/>
+      <c r="O192" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P192" s="73"/>
+      <c r="Q192" s="73"/>
+      <c r="R192" s="73"/>
+      <c r="S192" s="73"/>
+      <c r="T192" s="73"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B193" s="70"/>
@@ -11544,14 +11562,14 @@
       <c r="K196" s="71"/>
       <c r="L196" s="71"/>
       <c r="M196" s="71"/>
-      <c r="O196" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P196" s="72"/>
-      <c r="Q196" s="72"/>
-      <c r="R196" s="72"/>
-      <c r="S196" s="72"/>
-      <c r="T196" s="72"/>
+      <c r="O196" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P196" s="73"/>
+      <c r="Q196" s="73"/>
+      <c r="R196" s="73"/>
+      <c r="S196" s="73"/>
+      <c r="T196" s="73"/>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B197" s="70"/>
@@ -11600,7 +11618,7 @@
       <c r="F198" s="13"/>
       <c r="H198" s="14">
         <f>H194+O194+O198</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I198" s="14">
         <f>I194+P194+P198</f>
@@ -11612,7 +11630,7 @@
       </c>
       <c r="K198" s="14">
         <f>K194+R194+R198</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L198" s="14">
         <f>SUM(H198:K198)</f>
@@ -11620,11 +11638,11 @@
       </c>
       <c r="M198" s="15">
         <f>(K198+I198)/L198</f>
-        <v>0.60869565217391308</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="O198" s="14">
         <f>COUNTIF(L183:L190,"O")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P198" s="14">
         <f>COUNTIF(J192:J194,"N")</f>
@@ -11636,7 +11654,7 @@
       </c>
       <c r="R198" s="14">
         <f>COUNTIF(L183:L190,"R")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S198" s="14">
         <f>SUM(O198:R198)</f>
@@ -11644,13 +11662,13 @@
       </c>
       <c r="T198" s="15">
         <f>(R198+P198)/S198</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
-      <c r="B199" s="79"/>
-      <c r="C199" s="79"/>
+      <c r="B199" s="72"/>
+      <c r="C199" s="72"/>
       <c r="D199" s="40"/>
       <c r="E199" s="40"/>
       <c r="F199" s="41"/>
@@ -11667,16 +11685,260 @@
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="H196:M196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="H192:M192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="H127:M127"/>
+    <mergeCell ref="O127:T127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="H123:M123"/>
+    <mergeCell ref="O89:T89"/>
+    <mergeCell ref="O98:T98"/>
+    <mergeCell ref="O102:T102"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="H161:M161"/>
+    <mergeCell ref="O161:T161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="H165:M165"/>
+    <mergeCell ref="O165:T165"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="H149:M149"/>
+    <mergeCell ref="O149:T149"/>
+    <mergeCell ref="H153:M153"/>
+    <mergeCell ref="O153:T153"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="H140:M140"/>
+    <mergeCell ref="O140:T140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="H136:M136"/>
+    <mergeCell ref="O192:T192"/>
+    <mergeCell ref="O196:T196"/>
+    <mergeCell ref="O48:T48"/>
+    <mergeCell ref="O52:T52"/>
+    <mergeCell ref="O111:T111"/>
+    <mergeCell ref="O115:T115"/>
+    <mergeCell ref="O136:T136"/>
+    <mergeCell ref="O173:T173"/>
+    <mergeCell ref="O177:T177"/>
+    <mergeCell ref="O123:T123"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="O33:T33"/>
+    <mergeCell ref="O37:T37"/>
+    <mergeCell ref="O61:T61"/>
+    <mergeCell ref="O65:T65"/>
+    <mergeCell ref="O73:T73"/>
+    <mergeCell ref="O77:T77"/>
+    <mergeCell ref="O85:T85"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="H61:M61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H73:M73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="H77:M77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="H89:M89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="H85:M85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="H111:M111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="H102:M102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="H98:M98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="H173:M173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="H177:M177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="L106:M106"/>
     <mergeCell ref="B191:C191"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="A181:G181"/>
@@ -11701,260 +11963,16 @@
     <mergeCell ref="J169:K169"/>
     <mergeCell ref="L169:M169"/>
     <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="H98:M98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="H173:M173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="H177:M177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="H111:M111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="H102:M102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="H89:M89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="H85:M85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H73:M73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="H77:M77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="H61:M61"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="O20:T20"/>
-    <mergeCell ref="O33:T33"/>
-    <mergeCell ref="O37:T37"/>
-    <mergeCell ref="O61:T61"/>
-    <mergeCell ref="O65:T65"/>
-    <mergeCell ref="O73:T73"/>
-    <mergeCell ref="O77:T77"/>
-    <mergeCell ref="O85:T85"/>
-    <mergeCell ref="O192:T192"/>
-    <mergeCell ref="O196:T196"/>
-    <mergeCell ref="O48:T48"/>
-    <mergeCell ref="O52:T52"/>
-    <mergeCell ref="O111:T111"/>
-    <mergeCell ref="O115:T115"/>
-    <mergeCell ref="O136:T136"/>
-    <mergeCell ref="O173:T173"/>
-    <mergeCell ref="O177:T177"/>
-    <mergeCell ref="O123:T123"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="H140:M140"/>
-    <mergeCell ref="O140:T140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="A131:G131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="L131:M131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="H136:M136"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="L144:M144"/>
-    <mergeCell ref="H149:M149"/>
-    <mergeCell ref="O149:T149"/>
-    <mergeCell ref="H153:M153"/>
-    <mergeCell ref="O153:T153"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="H161:M161"/>
-    <mergeCell ref="O161:T161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="H165:M165"/>
-    <mergeCell ref="O165:T165"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="H127:M127"/>
-    <mergeCell ref="O127:T127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="L119:M119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="H123:M123"/>
-    <mergeCell ref="O89:T89"/>
-    <mergeCell ref="O98:T98"/>
-    <mergeCell ref="O102:T102"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="H196:M196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="H192:M192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B9">
     <cfRule type="colorScale" priority="1143">

--- a/Basisverzeichnis/trunk/04_Test/Systemtest_TestCases.xlsx
+++ b/Basisverzeichnis/trunk/04_Test/Systemtest_TestCases.xlsx
@@ -164,9 +164,6 @@
 2. Der Anwender wählt den Pfad zu seinem UseCaseDokument
 3. Der Anwender wählt sein Dokument aus und bestätigt den Dialog mit dem Button "Öffnen"
 4. Das Tool gibt dem Anwender Feedback darüber, dass das Word-Dokument nicht eingelesen werden kann. Das Tool informiert über die Ursache des Fehlers (Kann WORD-Dokument nicht öffnen, Fehler in der Dokumentstruktur, leeres Dokument)</t>
-  </si>
-  <si>
-    <t>Das einzulesende UseCase-Dokument ist ein leeres WORD-Dokuement</t>
   </si>
   <si>
     <t>Das UseCase-Dokument ist leer (Tool soll melden, dass die Datei leer ist)</t>
@@ -630,7 +627,11 @@
     <t>Anpassungen der Darstellungen waren notwendig aufgrund Funktionalitätsänderung (Ende - Knoten entfernt)</t>
   </si>
   <si>
-    <t>Dritter Testdurchlauf am 29.06.2015</t>
+    <t>Das einzulesende UseCase-Dokument ist ein leeres WORD-Dokuement
+(TestFile: UseCase_Empty.docx)</t>
+  </si>
+  <si>
+    <t>Dritter Testdurchlauf am 29.06.2015 + 30.06.2015</t>
   </si>
 </sst>
 </file>
@@ -1135,12 +1136,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1158,20 +1159,20 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1179,8 +1180,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5665,8 +5666,8 @@
   </sheetPr>
   <dimension ref="A1:T199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5701,15 +5702,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
       <c r="H1" s="12"/>
       <c r="I1" s="7"/>
       <c r="J1" s="12"/>
@@ -5723,15 +5724,15 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="12"/>
       <c r="I2" s="7"/>
       <c r="J2" s="12"/>
@@ -5762,7 +5763,7 @@
       <c r="D4" s="19"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -5776,7 +5777,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5"/>
       <c r="J5"/>
@@ -5817,7 +5818,7 @@
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -5902,7 +5903,7 @@
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>31</v>
@@ -5934,12 +5935,12 @@
       <c r="A13" s="35">
         <v>2</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>37</v>
@@ -5969,12 +5970,12 @@
       <c r="A14" s="30">
         <v>3</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>38</v>
@@ -6001,15 +6002,15 @@
       <c r="Q14"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
       <c r="F15" s="13"/>
       <c r="O15"/>
       <c r="Q15"/>
     </row>
     <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
       <c r="F16" s="13"/>
       <c r="H16" s="73" t="s">
         <v>19</v>
@@ -6020,7 +6021,7 @@
       <c r="L16" s="73"/>
       <c r="M16" s="73"/>
       <c r="O16" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P16" s="73"/>
       <c r="Q16" s="73"/>
@@ -6029,8 +6030,8 @@
       <c r="T16" s="73"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
       <c r="F17" s="13"/>
       <c r="H17" s="16" t="s">
         <v>4</v>
@@ -6070,8 +6071,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
       <c r="F18" s="13"/>
       <c r="H18" s="14">
         <f>COUNTIF(H12:H14,"O")</f>
@@ -6123,26 +6124,26 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="F19" s="13"/>
       <c r="O19"/>
       <c r="Q19"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
       <c r="F20" s="13"/>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
       <c r="O20" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P20" s="73"/>
       <c r="Q20" s="73"/>
@@ -6151,8 +6152,8 @@
       <c r="T20" s="73"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
       <c r="F21" s="13"/>
       <c r="H21" s="16" t="s">
         <v>4</v>
@@ -6192,8 +6193,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
       <c r="F22" s="13"/>
       <c r="H22" s="14">
         <f>H18+O18+O22</f>
@@ -6245,15 +6246,15 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
       <c r="F23" s="13"/>
       <c r="O23"/>
       <c r="Q23"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
       <c r="F24" s="13"/>
       <c r="H24" s="43"/>
       <c r="J24" s="43"/>
@@ -6290,10 +6291,10 @@
       <c r="A26" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="17" t="s">
         <v>1</v>
       </c>
@@ -6331,18 +6332,18 @@
       <c r="A27" s="30">
         <v>4</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="80"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>32</v>
@@ -6351,13 +6352,13 @@
         <v>10</v>
       </c>
       <c r="I27" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>12</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L27" s="31" t="s">
         <v>12</v>
@@ -6375,13 +6376,13 @@
       </c>
       <c r="C28" s="81"/>
       <c r="D28" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>32</v>
@@ -6390,13 +6391,13 @@
         <v>10</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L28" s="31" t="s">
         <v>12</v>
@@ -6409,18 +6410,18 @@
       <c r="A29" s="58">
         <v>6</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="80"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G29" s="58" t="s">
         <v>32</v>
@@ -6449,13 +6450,13 @@
       </c>
       <c r="C30" s="81"/>
       <c r="D30" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>141</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>142</v>
       </c>
       <c r="G30" s="58" t="s">
         <v>32</v>
@@ -6477,8 +6478,8 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
@@ -6493,8 +6494,8 @@
       <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
       <c r="F32" s="13"/>
       <c r="H32" s="23"/>
       <c r="J32" s="23"/>
@@ -6503,8 +6504,8 @@
       <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
       <c r="F33" s="13"/>
       <c r="H33" s="73" t="s">
         <v>19</v>
@@ -6515,7 +6516,7 @@
       <c r="L33" s="73"/>
       <c r="M33" s="73"/>
       <c r="O33" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P33" s="73"/>
       <c r="Q33" s="73"/>
@@ -6524,8 +6525,8 @@
       <c r="T33" s="73"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
       <c r="F34" s="13"/>
       <c r="H34" s="16" t="s">
         <v>4</v>
@@ -6565,8 +6566,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
       <c r="F35" s="13"/>
       <c r="H35" s="14">
         <f>COUNTIF(H27:H31,"O")</f>
@@ -6618,8 +6619,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
       <c r="F36" s="13"/>
       <c r="H36" s="43"/>
       <c r="J36" s="43"/>
@@ -6628,19 +6629,19 @@
       <c r="Q36"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
       <c r="F37" s="13"/>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
       <c r="O37" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P37" s="73"/>
       <c r="Q37" s="73"/>
@@ -6649,8 +6650,8 @@
       <c r="T37" s="73"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
       <c r="F38" s="13"/>
       <c r="H38" s="16" t="s">
         <v>4</v>
@@ -6690,8 +6691,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
       <c r="F39" s="13"/>
       <c r="H39" s="14">
         <f>H35+O35+O39</f>
@@ -6743,8 +6744,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
       <c r="F40" s="13"/>
       <c r="H40" s="23"/>
       <c r="J40" s="23"/>
@@ -6779,10 +6780,10 @@
       <c r="A42" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="79"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="26" t="s">
         <v>1</v>
       </c>
@@ -6818,12 +6819,12 @@
       <c r="A43" s="35">
         <v>8</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="80"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43" s="32" t="s">
         <v>42</v>
@@ -6838,7 +6839,7 @@
         <v>12</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>12</v>
@@ -6858,13 +6859,13 @@
       </c>
       <c r="C44" s="81"/>
       <c r="D44" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>32</v>
@@ -6886,15 +6887,15 @@
       <c r="A45" s="35">
         <v>10</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="78"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="32" t="s">
         <v>45</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>46</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>44</v>
@@ -6919,18 +6920,18 @@
       <c r="A46" s="68">
         <v>11</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>151</v>
       </c>
       <c r="G46" s="68" t="s">
         <v>32</v>
@@ -6951,16 +6952,16 @@
       <c r="Q46" s="67"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
       <c r="F47" s="13"/>
       <c r="H47" s="24"/>
       <c r="J47" s="24"/>
       <c r="L47" s="24"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
       <c r="F48" s="13"/>
       <c r="H48" s="73" t="s">
         <v>19</v>
@@ -6971,7 +6972,7 @@
       <c r="L48" s="73"/>
       <c r="M48" s="73"/>
       <c r="O48" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P48" s="73"/>
       <c r="Q48" s="73"/>
@@ -6980,8 +6981,8 @@
       <c r="T48" s="73"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
       <c r="F49" s="13"/>
       <c r="H49" s="16" t="s">
         <v>4</v>
@@ -7021,8 +7022,8 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
       <c r="F50" s="13"/>
       <c r="H50" s="14">
         <f>COUNTIF(H43:H45,"O")</f>
@@ -7074,8 +7075,8 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
       <c r="F51" s="13"/>
       <c r="H51" s="43"/>
       <c r="J51" s="43"/>
@@ -7084,19 +7085,19 @@
       <c r="Q51"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
       <c r="F52" s="13"/>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
       <c r="O52" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P52" s="73"/>
       <c r="Q52" s="73"/>
@@ -7105,8 +7106,8 @@
       <c r="T52" s="73"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
       <c r="F53" s="13"/>
       <c r="H53" s="16" t="s">
         <v>4</v>
@@ -7146,8 +7147,8 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
       <c r="F54" s="13"/>
       <c r="H54" s="14">
         <f>H50+O50+O54</f>
@@ -7199,8 +7200,8 @@
       </c>
     </row>
     <row r="55" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
       <c r="F55" s="41"/>
       <c r="H55" s="42"/>
       <c r="J55" s="42"/>
@@ -7210,7 +7211,7 @@
     </row>
     <row r="56" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="74"/>
       <c r="C56" s="74"/>
@@ -7235,10 +7236,10 @@
       <c r="A57" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="79"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="26" t="s">
         <v>1</v>
       </c>
@@ -7274,18 +7275,18 @@
       <c r="A58" s="35">
         <v>12</v>
       </c>
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="79"/>
+      <c r="D58" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="80"/>
-      <c r="D58" s="34" t="s">
+      <c r="E58" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="F58" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>32</v>
@@ -7308,17 +7309,17 @@
         <v>13</v>
       </c>
       <c r="B59" s="81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="81"/>
       <c r="D59" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>32</v>
@@ -7335,20 +7336,20 @@
         <v>12</v>
       </c>
       <c r="M59" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
       <c r="F60" s="13"/>
       <c r="H60" s="24"/>
       <c r="J60" s="24"/>
       <c r="L60" s="24"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
       <c r="F61" s="13"/>
       <c r="H61" s="73" t="s">
         <v>19</v>
@@ -7359,7 +7360,7 @@
       <c r="L61" s="73"/>
       <c r="M61" s="73"/>
       <c r="O61" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P61" s="73"/>
       <c r="Q61" s="73"/>
@@ -7368,8 +7369,8 @@
       <c r="T61" s="73"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
       <c r="F62" s="13"/>
       <c r="H62" s="16" t="s">
         <v>4</v>
@@ -7409,8 +7410,8 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
       <c r="F63" s="13"/>
       <c r="H63" s="14">
         <f>COUNTIF(H58:H59,"O")</f>
@@ -7462,8 +7463,8 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
       <c r="F64" s="13"/>
       <c r="H64" s="43"/>
       <c r="J64" s="43"/>
@@ -7472,19 +7473,19 @@
       <c r="Q64"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
       <c r="F65" s="13"/>
-      <c r="H65" s="71" t="s">
+      <c r="H65" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
       <c r="O65" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P65" s="73"/>
       <c r="Q65" s="73"/>
@@ -7493,8 +7494,8 @@
       <c r="T65" s="73"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
       <c r="F66" s="13"/>
       <c r="H66" s="16" t="s">
         <v>4</v>
@@ -7534,8 +7535,8 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="71"/>
       <c r="F67" s="13"/>
       <c r="H67" s="14">
         <f>H63+O63+O67</f>
@@ -7588,8 +7589,8 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="F68" s="41"/>
@@ -7604,7 +7605,7 @@
     </row>
     <row r="69" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="74"/>
       <c r="C69" s="74"/>
@@ -7631,10 +7632,10 @@
       <c r="A70" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="79" t="s">
+      <c r="B70" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="79"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="38" t="s">
         <v>1</v>
       </c>
@@ -7672,18 +7673,18 @@
       <c r="A71" s="39">
         <v>14</v>
       </c>
-      <c r="B71" s="80" t="s">
+      <c r="B71" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="79"/>
+      <c r="D71" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="80"/>
-      <c r="D71" s="34" t="s">
+      <c r="E71" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="F71" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="G71" s="39" t="s">
         <v>32</v>
@@ -7704,8 +7705,8 @@
       <c r="Q71" s="37"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
       <c r="F72" s="13"/>
       <c r="H72" s="37"/>
       <c r="J72" s="37"/>
@@ -7714,8 +7715,8 @@
       <c r="Q72" s="37"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
       <c r="F73" s="13"/>
       <c r="H73" s="73" t="s">
         <v>19</v>
@@ -7726,7 +7727,7 @@
       <c r="L73" s="73"/>
       <c r="M73" s="73"/>
       <c r="O73" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P73" s="73"/>
       <c r="Q73" s="73"/>
@@ -7735,8 +7736,8 @@
       <c r="T73" s="73"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
       <c r="F74" s="13"/>
       <c r="H74" s="16" t="s">
         <v>4</v>
@@ -7776,8 +7777,8 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
       <c r="F75" s="13"/>
       <c r="H75" s="14">
         <f>COUNTIF(H69:H71,"O")</f>
@@ -7829,8 +7830,8 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
       <c r="F76" s="13"/>
       <c r="H76" s="43"/>
       <c r="J76" s="43"/>
@@ -7839,19 +7840,19 @@
       <c r="Q76"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
       <c r="F77" s="13"/>
-      <c r="H77" s="71" t="s">
+      <c r="H77" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="72"/>
       <c r="O77" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P77" s="73"/>
       <c r="Q77" s="73"/>
@@ -7860,8 +7861,8 @@
       <c r="T77" s="73"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
       <c r="F78" s="13"/>
       <c r="H78" s="16" t="s">
         <v>4</v>
@@ -7901,8 +7902,8 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
       <c r="F79" s="13"/>
       <c r="H79" s="14">
         <f>H75+O75+O79</f>
@@ -7955,8 +7956,8 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="72"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="F80" s="41"/>
@@ -7973,7 +7974,7 @@
     </row>
     <row r="81" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" s="74"/>
       <c r="C81" s="74"/>
@@ -8000,10 +8001,10 @@
       <c r="A82" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C82" s="79"/>
+      <c r="C82" s="78"/>
       <c r="D82" s="38" t="s">
         <v>1</v>
       </c>
@@ -8041,18 +8042,18 @@
       <c r="A83" s="39">
         <v>15</v>
       </c>
-      <c r="B83" s="80" t="s">
+      <c r="B83" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="79"/>
+      <c r="D83" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="34" t="s">
+      <c r="E83" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="F83" s="29" t="s">
         <v>60</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>61</v>
       </c>
       <c r="G83" s="39" t="s">
         <v>32</v>
@@ -8073,8 +8074,8 @@
       <c r="Q83" s="37"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B84" s="70"/>
-      <c r="C84" s="70"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
       <c r="F84" s="13"/>
       <c r="H84" s="37"/>
       <c r="J84" s="37"/>
@@ -8083,8 +8084,8 @@
       <c r="Q84" s="37"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
       <c r="F85" s="13"/>
       <c r="H85" s="73" t="s">
         <v>19</v>
@@ -8095,7 +8096,7 @@
       <c r="L85" s="73"/>
       <c r="M85" s="73"/>
       <c r="O85" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P85" s="73"/>
       <c r="Q85" s="73"/>
@@ -8104,8 +8105,8 @@
       <c r="T85" s="73"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
       <c r="F86" s="13"/>
       <c r="H86" s="16" t="s">
         <v>4</v>
@@ -8145,8 +8146,8 @@
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71"/>
       <c r="F87" s="13"/>
       <c r="H87" s="14">
         <f>COUNTIF(H81:H83,"O")</f>
@@ -8198,8 +8199,8 @@
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
       <c r="F88" s="13"/>
       <c r="H88" s="43"/>
       <c r="J88" s="43"/>
@@ -8208,19 +8209,19 @@
       <c r="Q88"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
       <c r="F89" s="13"/>
-      <c r="H89" s="71" t="s">
+      <c r="H89" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
-      <c r="L89" s="71"/>
-      <c r="M89" s="71"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="72"/>
+      <c r="L89" s="72"/>
+      <c r="M89" s="72"/>
       <c r="O89" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P89" s="73"/>
       <c r="Q89" s="73"/>
@@ -8229,8 +8230,8 @@
       <c r="T89" s="73"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B90" s="70"/>
-      <c r="C90" s="70"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
       <c r="F90" s="13"/>
       <c r="H90" s="16" t="s">
         <v>4</v>
@@ -8270,8 +8271,8 @@
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="71"/>
       <c r="F91" s="13"/>
       <c r="H91" s="14">
         <f>H87+O87+O91</f>
@@ -8324,8 +8325,8 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="72"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="80"/>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
       <c r="F92" s="41"/>
@@ -8342,7 +8343,7 @@
     </row>
     <row r="93" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="74"/>
       <c r="C93" s="74"/>
@@ -8369,10 +8370,10 @@
       <c r="A94" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="79" t="s">
+      <c r="B94" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C94" s="79"/>
+      <c r="C94" s="78"/>
       <c r="D94" s="38" t="s">
         <v>1</v>
       </c>
@@ -8410,18 +8411,18 @@
       <c r="A95" s="39">
         <v>16</v>
       </c>
-      <c r="B95" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C95" s="80"/>
+      <c r="B95" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="79"/>
       <c r="D95" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E95" s="32" t="s">
+      <c r="F95" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="G95" s="39" t="s">
         <v>32</v>
@@ -8446,17 +8447,17 @@
         <v>17</v>
       </c>
       <c r="B96" s="81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C96" s="81"/>
       <c r="D96" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="29" t="s">
         <v>125</v>
-      </c>
-      <c r="E96" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="G96" s="39" t="s">
         <v>32</v>
@@ -8477,8 +8478,8 @@
       <c r="Q96" s="37"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B97" s="70"/>
-      <c r="C97" s="70"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="71"/>
       <c r="F97" s="13"/>
       <c r="H97" s="37"/>
       <c r="J97" s="37"/>
@@ -8487,8 +8488,8 @@
       <c r="Q97" s="37"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B98" s="70"/>
-      <c r="C98" s="70"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
       <c r="F98" s="13"/>
       <c r="H98" s="73" t="s">
         <v>19</v>
@@ -8499,7 +8500,7 @@
       <c r="L98" s="73"/>
       <c r="M98" s="73"/>
       <c r="O98" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P98" s="73"/>
       <c r="Q98" s="73"/>
@@ -8508,8 +8509,8 @@
       <c r="T98" s="73"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B99" s="70"/>
-      <c r="C99" s="70"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
       <c r="F99" s="13"/>
       <c r="H99" s="16" t="s">
         <v>4</v>
@@ -8549,8 +8550,8 @@
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B100" s="70"/>
-      <c r="C100" s="70"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
       <c r="F100" s="13"/>
       <c r="H100" s="14">
         <f>COUNTIF(H95:H96,"O")</f>
@@ -8602,8 +8603,8 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B101" s="70"/>
-      <c r="C101" s="70"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
       <c r="F101" s="13"/>
       <c r="H101" s="43"/>
       <c r="J101" s="43"/>
@@ -8612,19 +8613,19 @@
       <c r="Q101"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B102" s="70"/>
-      <c r="C102" s="70"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="71"/>
       <c r="F102" s="13"/>
-      <c r="H102" s="71" t="s">
+      <c r="H102" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I102" s="71"/>
-      <c r="J102" s="71"/>
-      <c r="K102" s="71"/>
-      <c r="L102" s="71"/>
-      <c r="M102" s="71"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="72"/>
+      <c r="L102" s="72"/>
+      <c r="M102" s="72"/>
       <c r="O102" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P102" s="73"/>
       <c r="Q102" s="73"/>
@@ -8633,8 +8634,8 @@
       <c r="T102" s="73"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B103" s="70"/>
-      <c r="C103" s="70"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="71"/>
       <c r="F103" s="13"/>
       <c r="H103" s="16" t="s">
         <v>4</v>
@@ -8674,8 +8675,8 @@
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B104" s="70"/>
-      <c r="C104" s="70"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="71"/>
       <c r="F104" s="13"/>
       <c r="H104" s="14">
         <f>H100+O100+O104</f>
@@ -8728,8 +8729,8 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
       <c r="D105" s="40"/>
       <c r="E105" s="40"/>
       <c r="F105" s="41"/>
@@ -8746,7 +8747,7 @@
     </row>
     <row r="106" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" s="74"/>
       <c r="C106" s="74"/>
@@ -8773,10 +8774,10 @@
       <c r="A107" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="79" t="s">
+      <c r="B107" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C107" s="79"/>
+      <c r="C107" s="78"/>
       <c r="D107" s="49" t="s">
         <v>1</v>
       </c>
@@ -8814,18 +8815,18 @@
       <c r="A108" s="48">
         <v>18</v>
       </c>
-      <c r="B108" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" s="80"/>
+      <c r="B108" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="79"/>
       <c r="D108" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E108" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F108" s="29" t="s">
         <v>96</v>
-      </c>
-      <c r="F108" s="29" t="s">
-        <v>97</v>
       </c>
       <c r="G108" s="48" t="s">
         <v>32</v>
@@ -8850,17 +8851,17 @@
         <v>19</v>
       </c>
       <c r="B109" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" s="81"/>
       <c r="D109" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="29" t="s">
         <v>128</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>129</v>
       </c>
       <c r="G109" s="48" t="s">
         <v>32</v>
@@ -8881,8 +8882,8 @@
       <c r="Q109" s="46"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B110" s="70"/>
-      <c r="C110" s="70"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="71"/>
       <c r="F110" s="13"/>
       <c r="H110" s="46"/>
       <c r="J110" s="46"/>
@@ -8891,8 +8892,8 @@
       <c r="Q110" s="46"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
+      <c r="B111" s="71"/>
+      <c r="C111" s="71"/>
       <c r="F111" s="13"/>
       <c r="H111" s="73" t="s">
         <v>19</v>
@@ -8903,7 +8904,7 @@
       <c r="L111" s="73"/>
       <c r="M111" s="73"/>
       <c r="O111" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P111" s="73"/>
       <c r="Q111" s="73"/>
@@ -8912,8 +8913,8 @@
       <c r="T111" s="73"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="71"/>
       <c r="F112" s="13"/>
       <c r="H112" s="16" t="s">
         <v>4</v>
@@ -8953,8 +8954,8 @@
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="71"/>
       <c r="F113" s="13"/>
       <c r="H113" s="14">
         <f>COUNTIF(H108:H109,"O")</f>
@@ -9006,8 +9007,8 @@
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B114" s="70"/>
-      <c r="C114" s="70"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="71"/>
       <c r="F114" s="13"/>
       <c r="H114" s="46"/>
       <c r="J114" s="46"/>
@@ -9016,19 +9017,19 @@
       <c r="Q114"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
+      <c r="B115" s="71"/>
+      <c r="C115" s="71"/>
       <c r="F115" s="13"/>
-      <c r="H115" s="71" t="s">
+      <c r="H115" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I115" s="71"/>
-      <c r="J115" s="71"/>
-      <c r="K115" s="71"/>
-      <c r="L115" s="71"/>
-      <c r="M115" s="71"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="72"/>
+      <c r="K115" s="72"/>
+      <c r="L115" s="72"/>
+      <c r="M115" s="72"/>
       <c r="O115" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P115" s="73"/>
       <c r="Q115" s="73"/>
@@ -9037,8 +9038,8 @@
       <c r="T115" s="73"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="71"/>
       <c r="F116" s="13"/>
       <c r="H116" s="16" t="s">
         <v>4</v>
@@ -9078,8 +9079,8 @@
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="71"/>
       <c r="F117" s="13"/>
       <c r="H117" s="14">
         <f>H113+O113+O117</f>
@@ -9149,7 +9150,7 @@
     </row>
     <row r="119" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B119" s="74"/>
       <c r="C119" s="74"/>
@@ -9176,10 +9177,10 @@
       <c r="A120" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="79" t="s">
+      <c r="B120" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="79"/>
+      <c r="C120" s="78"/>
       <c r="D120" s="66" t="s">
         <v>1</v>
       </c>
@@ -9217,18 +9218,18 @@
       <c r="A121" s="65">
         <v>20</v>
       </c>
-      <c r="B121" s="80" t="s">
+      <c r="B121" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" s="79"/>
+      <c r="D121" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F121" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="C121" s="80"/>
-      <c r="D121" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="E121" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F121" s="29" t="s">
-        <v>146</v>
       </c>
       <c r="G121" s="65" t="s">
         <v>32</v>
@@ -9245,14 +9246,14 @@
         <v>12</v>
       </c>
       <c r="M121" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O121" s="63"/>
       <c r="Q121" s="63"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="71"/>
       <c r="F122" s="13"/>
       <c r="H122" s="63"/>
       <c r="J122" s="63"/>
@@ -9261,8 +9262,8 @@
       <c r="Q122" s="63"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="71"/>
       <c r="F123" s="13"/>
       <c r="H123" s="73" t="s">
         <v>19</v>
@@ -9273,7 +9274,7 @@
       <c r="L123" s="73"/>
       <c r="M123" s="73"/>
       <c r="O123" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P123" s="73"/>
       <c r="Q123" s="73"/>
@@ -9282,10 +9283,10 @@
       <c r="T123" s="73"/>
     </row>
     <row r="124" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="71"/>
       <c r="E124" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F124" s="13"/>
       <c r="H124" s="16" t="s">
@@ -9326,8 +9327,8 @@
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
+      <c r="B125" s="71"/>
+      <c r="C125" s="71"/>
       <c r="F125" s="13"/>
       <c r="H125" s="14">
         <f>COUNTIF(H121:H121,"O")</f>
@@ -9379,8 +9380,8 @@
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B126" s="70"/>
-      <c r="C126" s="70"/>
+      <c r="B126" s="71"/>
+      <c r="C126" s="71"/>
       <c r="F126" s="13"/>
       <c r="H126" s="63"/>
       <c r="J126" s="63"/>
@@ -9389,19 +9390,19 @@
       <c r="Q126"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B127" s="70"/>
-      <c r="C127" s="70"/>
+      <c r="B127" s="71"/>
+      <c r="C127" s="71"/>
       <c r="F127" s="13"/>
-      <c r="H127" s="71" t="s">
+      <c r="H127" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I127" s="71"/>
-      <c r="J127" s="71"/>
-      <c r="K127" s="71"/>
-      <c r="L127" s="71"/>
-      <c r="M127" s="71"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="72"/>
+      <c r="L127" s="72"/>
+      <c r="M127" s="72"/>
       <c r="O127" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P127" s="73"/>
       <c r="Q127" s="73"/>
@@ -9410,8 +9411,8 @@
       <c r="T127" s="73"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B128" s="70"/>
-      <c r="C128" s="70"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="71"/>
       <c r="F128" s="13"/>
       <c r="H128" s="16" t="s">
         <v>4</v>
@@ -9451,8 +9452,8 @@
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B129" s="70"/>
-      <c r="C129" s="70"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="71"/>
       <c r="F129" s="13"/>
       <c r="H129" s="14">
         <f>H125+O125+O129</f>
@@ -9522,7 +9523,7 @@
     </row>
     <row r="131" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B131" s="74"/>
       <c r="C131" s="74"/>
@@ -9549,10 +9550,10 @@
       <c r="A132" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="79" t="s">
+      <c r="B132" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C132" s="79"/>
+      <c r="C132" s="78"/>
       <c r="D132" s="55" t="s">
         <v>1</v>
       </c>
@@ -9590,18 +9591,18 @@
       <c r="A133" s="54">
         <v>21</v>
       </c>
-      <c r="B133" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="C133" s="80"/>
+      <c r="B133" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" s="79"/>
       <c r="D133" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E133" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E133" s="32" t="s">
+      <c r="F133" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="F133" s="29" t="s">
-        <v>108</v>
       </c>
       <c r="G133" s="54" t="s">
         <v>32</v>
@@ -9626,17 +9627,17 @@
         <v>22</v>
       </c>
       <c r="B134" s="81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C134" s="81"/>
       <c r="D134" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E134" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F134" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="F134" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="G134" s="54" t="s">
         <v>32</v>
@@ -9657,8 +9658,8 @@
       <c r="Q134" s="52"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="71"/>
       <c r="F135" s="13"/>
       <c r="H135" s="52"/>
       <c r="J135" s="52"/>
@@ -9667,8 +9668,8 @@
       <c r="Q135" s="52"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="71"/>
       <c r="F136" s="13"/>
       <c r="H136" s="73" t="s">
         <v>19</v>
@@ -9679,7 +9680,7 @@
       <c r="L136" s="73"/>
       <c r="M136" s="73"/>
       <c r="O136" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P136" s="73"/>
       <c r="Q136" s="73"/>
@@ -9688,8 +9689,8 @@
       <c r="T136" s="73"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B137" s="70"/>
-      <c r="C137" s="70"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="71"/>
       <c r="F137" s="13"/>
       <c r="H137" s="16" t="s">
         <v>4</v>
@@ -9729,8 +9730,8 @@
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="71"/>
       <c r="F138" s="13"/>
       <c r="H138" s="14">
         <f>COUNTIF(H133:H134,"O")</f>
@@ -9782,8 +9783,8 @@
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="71"/>
       <c r="F139" s="13"/>
       <c r="H139" s="52"/>
       <c r="J139" s="52"/>
@@ -9792,19 +9793,19 @@
       <c r="Q139"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
+      <c r="B140" s="71"/>
+      <c r="C140" s="71"/>
       <c r="F140" s="13"/>
-      <c r="H140" s="71" t="s">
+      <c r="H140" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I140" s="71"/>
-      <c r="J140" s="71"/>
-      <c r="K140" s="71"/>
-      <c r="L140" s="71"/>
-      <c r="M140" s="71"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="72"/>
+      <c r="K140" s="72"/>
+      <c r="L140" s="72"/>
+      <c r="M140" s="72"/>
       <c r="O140" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P140" s="73"/>
       <c r="Q140" s="73"/>
@@ -9813,8 +9814,8 @@
       <c r="T140" s="73"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
+      <c r="B141" s="71"/>
+      <c r="C141" s="71"/>
       <c r="F141" s="13"/>
       <c r="H141" s="16" t="s">
         <v>4</v>
@@ -9854,8 +9855,8 @@
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
+      <c r="B142" s="71"/>
+      <c r="C142" s="71"/>
       <c r="F142" s="13"/>
       <c r="H142" s="14">
         <f>H138+O138+O142</f>
@@ -9908,8 +9909,8 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
-      <c r="B143" s="72"/>
-      <c r="C143" s="72"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="80"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="41"/>
@@ -9926,7 +9927,7 @@
     </row>
     <row r="144" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B144" s="74"/>
       <c r="C144" s="74"/>
@@ -9953,10 +9954,10 @@
       <c r="A145" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="79" t="s">
+      <c r="B145" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C145" s="79"/>
+      <c r="C145" s="78"/>
       <c r="D145" s="55" t="s">
         <v>1</v>
       </c>
@@ -9994,18 +9995,18 @@
       <c r="A146" s="54">
         <v>23</v>
       </c>
-      <c r="B146" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C146" s="80"/>
+      <c r="B146" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C146" s="79"/>
       <c r="D146" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E146" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F146" s="29" t="s">
         <v>116</v>
-      </c>
-      <c r="F146" s="29" t="s">
-        <v>117</v>
       </c>
       <c r="G146" s="54" t="s">
         <v>32</v>
@@ -10030,17 +10031,17 @@
         <v>24</v>
       </c>
       <c r="B147" s="81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C147" s="81"/>
       <c r="D147" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E147" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F147" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="E147" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F147" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="G147" s="54" t="s">
         <v>32</v>
@@ -10061,8 +10062,8 @@
       <c r="Q147" s="52"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B148" s="70"/>
-      <c r="C148" s="70"/>
+      <c r="B148" s="71"/>
+      <c r="C148" s="71"/>
       <c r="F148" s="13"/>
       <c r="H148" s="52"/>
       <c r="J148" s="52"/>
@@ -10071,8 +10072,8 @@
       <c r="Q148" s="52"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B149" s="70"/>
-      <c r="C149" s="70"/>
+      <c r="B149" s="71"/>
+      <c r="C149" s="71"/>
       <c r="F149" s="13"/>
       <c r="H149" s="73" t="s">
         <v>19</v>
@@ -10083,7 +10084,7 @@
       <c r="L149" s="73"/>
       <c r="M149" s="73"/>
       <c r="O149" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P149" s="73"/>
       <c r="Q149" s="73"/>
@@ -10092,8 +10093,8 @@
       <c r="T149" s="73"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B150" s="70"/>
-      <c r="C150" s="70"/>
+      <c r="B150" s="71"/>
+      <c r="C150" s="71"/>
       <c r="F150" s="13"/>
       <c r="H150" s="16" t="s">
         <v>4</v>
@@ -10133,8 +10134,8 @@
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B151" s="70"/>
-      <c r="C151" s="70"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="71"/>
       <c r="F151" s="13"/>
       <c r="H151" s="14">
         <f>COUNTIF(H146:H147,"O")</f>
@@ -10186,8 +10187,8 @@
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B152" s="70"/>
-      <c r="C152" s="70"/>
+      <c r="B152" s="71"/>
+      <c r="C152" s="71"/>
       <c r="F152" s="13"/>
       <c r="H152" s="52"/>
       <c r="J152" s="52"/>
@@ -10196,19 +10197,19 @@
       <c r="Q152"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B153" s="70"/>
-      <c r="C153" s="70"/>
+      <c r="B153" s="71"/>
+      <c r="C153" s="71"/>
       <c r="F153" s="13"/>
-      <c r="H153" s="71" t="s">
+      <c r="H153" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I153" s="71"/>
-      <c r="J153" s="71"/>
-      <c r="K153" s="71"/>
-      <c r="L153" s="71"/>
-      <c r="M153" s="71"/>
+      <c r="I153" s="72"/>
+      <c r="J153" s="72"/>
+      <c r="K153" s="72"/>
+      <c r="L153" s="72"/>
+      <c r="M153" s="72"/>
       <c r="O153" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P153" s="73"/>
       <c r="Q153" s="73"/>
@@ -10217,8 +10218,8 @@
       <c r="T153" s="73"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B154" s="70"/>
-      <c r="C154" s="70"/>
+      <c r="B154" s="71"/>
+      <c r="C154" s="71"/>
       <c r="F154" s="13"/>
       <c r="H154" s="16" t="s">
         <v>4</v>
@@ -10258,8 +10259,8 @@
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B155" s="70"/>
-      <c r="C155" s="70"/>
+      <c r="B155" s="71"/>
+      <c r="C155" s="71"/>
       <c r="F155" s="13"/>
       <c r="H155" s="14">
         <f>H151+O151+O155</f>
@@ -10312,8 +10313,8 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
-      <c r="B156" s="72"/>
-      <c r="C156" s="72"/>
+      <c r="B156" s="80"/>
+      <c r="C156" s="80"/>
       <c r="D156" s="40"/>
       <c r="E156" s="40"/>
       <c r="F156" s="41"/>
@@ -10330,7 +10331,7 @@
     </row>
     <row r="157" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B157" s="74"/>
       <c r="C157" s="74"/>
@@ -10357,10 +10358,10 @@
       <c r="A158" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="79" t="s">
+      <c r="B158" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C158" s="79"/>
+      <c r="C158" s="78"/>
       <c r="D158" s="55" t="s">
         <v>1</v>
       </c>
@@ -10398,18 +10399,18 @@
       <c r="A159" s="54">
         <v>25</v>
       </c>
-      <c r="B159" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C159" s="80"/>
+      <c r="B159" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C159" s="79"/>
       <c r="D159" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F159" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G159" s="54" t="s">
         <v>32</v>
@@ -10430,8 +10431,8 @@
       <c r="Q159" s="52"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B160" s="70"/>
-      <c r="C160" s="70"/>
+      <c r="B160" s="71"/>
+      <c r="C160" s="71"/>
       <c r="F160" s="13"/>
       <c r="H160" s="52"/>
       <c r="J160" s="52"/>
@@ -10440,8 +10441,8 @@
       <c r="Q160" s="52"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B161" s="70"/>
-      <c r="C161" s="70"/>
+      <c r="B161" s="71"/>
+      <c r="C161" s="71"/>
       <c r="F161" s="13"/>
       <c r="H161" s="73" t="s">
         <v>19</v>
@@ -10452,7 +10453,7 @@
       <c r="L161" s="73"/>
       <c r="M161" s="73"/>
       <c r="O161" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P161" s="73"/>
       <c r="Q161" s="73"/>
@@ -10461,10 +10462,10 @@
       <c r="T161" s="73"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B162" s="70"/>
-      <c r="C162" s="70"/>
+      <c r="B162" s="71"/>
+      <c r="C162" s="71"/>
       <c r="E162" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F162" s="13"/>
       <c r="H162" s="16" t="s">
@@ -10505,8 +10506,8 @@
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B163" s="70"/>
-      <c r="C163" s="70"/>
+      <c r="B163" s="71"/>
+      <c r="C163" s="71"/>
       <c r="F163" s="13"/>
       <c r="H163" s="14">
         <f>COUNTIF(H159:H159,"O")</f>
@@ -10558,8 +10559,8 @@
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B164" s="70"/>
-      <c r="C164" s="70"/>
+      <c r="B164" s="71"/>
+      <c r="C164" s="71"/>
       <c r="F164" s="13"/>
       <c r="H164" s="52"/>
       <c r="J164" s="52"/>
@@ -10568,19 +10569,19 @@
       <c r="Q164"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B165" s="70"/>
-      <c r="C165" s="70"/>
+      <c r="B165" s="71"/>
+      <c r="C165" s="71"/>
       <c r="F165" s="13"/>
-      <c r="H165" s="71" t="s">
+      <c r="H165" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I165" s="71"/>
-      <c r="J165" s="71"/>
-      <c r="K165" s="71"/>
-      <c r="L165" s="71"/>
-      <c r="M165" s="71"/>
+      <c r="I165" s="72"/>
+      <c r="J165" s="72"/>
+      <c r="K165" s="72"/>
+      <c r="L165" s="72"/>
+      <c r="M165" s="72"/>
       <c r="O165" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P165" s="73"/>
       <c r="Q165" s="73"/>
@@ -10589,8 +10590,8 @@
       <c r="T165" s="73"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B166" s="70"/>
-      <c r="C166" s="70"/>
+      <c r="B166" s="71"/>
+      <c r="C166" s="71"/>
       <c r="F166" s="13"/>
       <c r="H166" s="16" t="s">
         <v>4</v>
@@ -10630,8 +10631,8 @@
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B167" s="70"/>
-      <c r="C167" s="70"/>
+      <c r="B167" s="71"/>
+      <c r="C167" s="71"/>
       <c r="F167" s="13"/>
       <c r="H167" s="14">
         <f>H163+O163+O167</f>
@@ -10684,8 +10685,8 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
-      <c r="B168" s="72"/>
-      <c r="C168" s="72"/>
+      <c r="B168" s="80"/>
+      <c r="C168" s="80"/>
       <c r="D168" s="40"/>
       <c r="E168" s="40"/>
       <c r="F168" s="41"/>
@@ -10702,7 +10703,7 @@
     </row>
     <row r="169" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B169" s="74"/>
       <c r="C169" s="74"/>
@@ -10729,10 +10730,10 @@
       <c r="A170" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="79" t="s">
+      <c r="B170" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C170" s="79"/>
+      <c r="C170" s="78"/>
       <c r="D170" s="60" t="s">
         <v>1</v>
       </c>
@@ -10770,18 +10771,18 @@
       <c r="A171" s="58">
         <v>26</v>
       </c>
-      <c r="B171" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="C171" s="80"/>
+      <c r="B171" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C171" s="79"/>
       <c r="D171" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E171" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F171" s="29" t="s">
         <v>153</v>
-      </c>
-      <c r="F171" s="29" t="s">
-        <v>154</v>
       </c>
       <c r="G171" s="58" t="s">
         <v>32</v>
@@ -10802,8 +10803,8 @@
       <c r="Q171" s="56"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B172" s="70"/>
-      <c r="C172" s="70"/>
+      <c r="B172" s="71"/>
+      <c r="C172" s="71"/>
       <c r="F172" s="13"/>
       <c r="H172" s="56"/>
       <c r="J172" s="56"/>
@@ -10812,8 +10813,8 @@
       <c r="Q172" s="56"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B173" s="70"/>
-      <c r="C173" s="70"/>
+      <c r="B173" s="71"/>
+      <c r="C173" s="71"/>
       <c r="F173" s="13"/>
       <c r="H173" s="73" t="s">
         <v>19</v>
@@ -10824,7 +10825,7 @@
       <c r="L173" s="73"/>
       <c r="M173" s="73"/>
       <c r="O173" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P173" s="73"/>
       <c r="Q173" s="73"/>
@@ -10833,8 +10834,8 @@
       <c r="T173" s="73"/>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B174" s="70"/>
-      <c r="C174" s="70"/>
+      <c r="B174" s="71"/>
+      <c r="C174" s="71"/>
       <c r="F174" s="13"/>
       <c r="H174" s="16" t="s">
         <v>4</v>
@@ -10874,8 +10875,8 @@
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B175" s="70"/>
-      <c r="C175" s="70"/>
+      <c r="B175" s="71"/>
+      <c r="C175" s="71"/>
       <c r="F175" s="13"/>
       <c r="H175" s="14">
         <f>COUNTIF(H171:H171,"O")</f>
@@ -10927,8 +10928,8 @@
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B176" s="70"/>
-      <c r="C176" s="70"/>
+      <c r="B176" s="71"/>
+      <c r="C176" s="71"/>
       <c r="F176" s="13"/>
       <c r="H176" s="56"/>
       <c r="J176" s="56"/>
@@ -10937,19 +10938,19 @@
       <c r="Q176"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B177" s="70"/>
-      <c r="C177" s="70"/>
+      <c r="B177" s="71"/>
+      <c r="C177" s="71"/>
       <c r="F177" s="13"/>
-      <c r="H177" s="71" t="s">
+      <c r="H177" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I177" s="71"/>
-      <c r="J177" s="71"/>
-      <c r="K177" s="71"/>
-      <c r="L177" s="71"/>
-      <c r="M177" s="71"/>
+      <c r="I177" s="72"/>
+      <c r="J177" s="72"/>
+      <c r="K177" s="72"/>
+      <c r="L177" s="72"/>
+      <c r="M177" s="72"/>
       <c r="O177" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P177" s="73"/>
       <c r="Q177" s="73"/>
@@ -10958,8 +10959,8 @@
       <c r="T177" s="73"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B178" s="70"/>
-      <c r="C178" s="70"/>
+      <c r="B178" s="71"/>
+      <c r="C178" s="71"/>
       <c r="F178" s="13"/>
       <c r="H178" s="16" t="s">
         <v>4</v>
@@ -10999,8 +11000,8 @@
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B179" s="70"/>
-      <c r="C179" s="70"/>
+      <c r="B179" s="71"/>
+      <c r="C179" s="71"/>
       <c r="F179" s="13"/>
       <c r="H179" s="14">
         <f>H175+O175+O179</f>
@@ -11053,8 +11054,8 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
-      <c r="B180" s="72"/>
-      <c r="C180" s="72"/>
+      <c r="B180" s="80"/>
+      <c r="C180" s="80"/>
       <c r="D180" s="40"/>
       <c r="E180" s="40"/>
       <c r="F180" s="41"/>
@@ -11071,7 +11072,7 @@
     </row>
     <row r="181" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B181" s="74"/>
       <c r="C181" s="74"/>
@@ -11098,10 +11099,10 @@
       <c r="A182" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="79" t="s">
+      <c r="B182" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C182" s="79"/>
+      <c r="C182" s="78"/>
       <c r="D182" s="38" t="s">
         <v>1</v>
       </c>
@@ -11139,18 +11140,18 @@
       <c r="A183" s="39">
         <v>27</v>
       </c>
-      <c r="B183" s="80" t="s">
+      <c r="B183" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C183" s="79"/>
+      <c r="D183" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E183" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C183" s="80"/>
-      <c r="D183" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E183" s="32" t="s">
+      <c r="F183" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="F183" s="29" t="s">
-        <v>66</v>
       </c>
       <c r="G183" s="39" t="s">
         <v>32</v>
@@ -11175,17 +11176,17 @@
         <v>28</v>
       </c>
       <c r="B184" s="81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C184" s="81"/>
       <c r="D184" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E184" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F184" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="E184" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F184" s="29" t="s">
-        <v>69</v>
       </c>
       <c r="G184" s="39" t="s">
         <v>32</v>
@@ -11209,18 +11210,18 @@
       <c r="A185" s="68">
         <v>29</v>
       </c>
-      <c r="B185" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C185" s="78"/>
+      <c r="B185" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C185" s="70"/>
       <c r="D185" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E185" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F185" s="29" t="s">
         <v>70</v>
-      </c>
-      <c r="F185" s="29" t="s">
-        <v>71</v>
       </c>
       <c r="G185" s="39" t="s">
         <v>32</v>
@@ -11244,18 +11245,18 @@
       <c r="A186" s="68">
         <v>30</v>
       </c>
-      <c r="B186" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C186" s="78"/>
+      <c r="B186" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C186" s="70"/>
       <c r="D186" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E186" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F186" s="29" t="s">
         <v>72</v>
-      </c>
-      <c r="F186" s="29" t="s">
-        <v>73</v>
       </c>
       <c r="G186" s="44" t="s">
         <v>32</v>
@@ -11279,18 +11280,18 @@
       <c r="A187" s="68">
         <v>31</v>
       </c>
-      <c r="B187" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C187" s="78"/>
+      <c r="B187" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C187" s="70"/>
       <c r="D187" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E187" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F187" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="F187" s="29" t="s">
-        <v>75</v>
       </c>
       <c r="G187" s="44" t="s">
         <v>32</v>
@@ -11314,18 +11315,18 @@
       <c r="A188" s="68">
         <v>32</v>
       </c>
-      <c r="B188" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C188" s="78"/>
+      <c r="B188" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" s="70"/>
       <c r="D188" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E188" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F188" s="29" t="s">
         <v>76</v>
-      </c>
-      <c r="F188" s="29" t="s">
-        <v>77</v>
       </c>
       <c r="G188" s="44" t="s">
         <v>32</v>
@@ -11349,18 +11350,18 @@
       <c r="A189" s="68">
         <v>33</v>
       </c>
-      <c r="B189" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C189" s="78"/>
+      <c r="B189" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" s="70"/>
       <c r="D189" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E189" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E189" s="32" t="s">
+      <c r="F189" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="F189" s="29" t="s">
-        <v>80</v>
       </c>
       <c r="G189" s="44" t="s">
         <v>32</v>
@@ -11384,18 +11385,18 @@
       <c r="A190" s="68">
         <v>34</v>
       </c>
-      <c r="B190" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C190" s="78"/>
+      <c r="B190" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" s="70"/>
       <c r="D190" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E190" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E190" s="32" t="s">
+      <c r="F190" s="29" t="s">
         <v>100</v>
-      </c>
-      <c r="F190" s="29" t="s">
-        <v>101</v>
       </c>
       <c r="G190" s="44" t="s">
         <v>32</v>
@@ -11416,8 +11417,8 @@
       <c r="Q190" s="43"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B191" s="70"/>
-      <c r="C191" s="70"/>
+      <c r="B191" s="71"/>
+      <c r="C191" s="71"/>
       <c r="F191" s="13"/>
       <c r="H191" s="43"/>
       <c r="J191" s="43"/>
@@ -11426,8 +11427,8 @@
       <c r="Q191" s="43"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B192" s="70"/>
-      <c r="C192" s="70"/>
+      <c r="B192" s="71"/>
+      <c r="C192" s="71"/>
       <c r="F192" s="13"/>
       <c r="H192" s="73" t="s">
         <v>19</v>
@@ -11438,7 +11439,7 @@
       <c r="L192" s="73"/>
       <c r="M192" s="73"/>
       <c r="O192" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P192" s="73"/>
       <c r="Q192" s="73"/>
@@ -11447,8 +11448,8 @@
       <c r="T192" s="73"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B193" s="70"/>
-      <c r="C193" s="70"/>
+      <c r="B193" s="71"/>
+      <c r="C193" s="71"/>
       <c r="F193" s="13"/>
       <c r="H193" s="16" t="s">
         <v>4</v>
@@ -11488,8 +11489,8 @@
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B194" s="70"/>
-      <c r="C194" s="70"/>
+      <c r="B194" s="71"/>
+      <c r="C194" s="71"/>
       <c r="F194" s="13"/>
       <c r="H194" s="14">
         <f>COUNTIF(H183:H190,"O")</f>
@@ -11541,8 +11542,8 @@
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B195" s="70"/>
-      <c r="C195" s="70"/>
+      <c r="B195" s="71"/>
+      <c r="C195" s="71"/>
       <c r="F195" s="13"/>
       <c r="H195" s="43"/>
       <c r="J195" s="43"/>
@@ -11551,19 +11552,19 @@
       <c r="Q195"/>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B196" s="70"/>
-      <c r="C196" s="70"/>
+      <c r="B196" s="71"/>
+      <c r="C196" s="71"/>
       <c r="F196" s="13"/>
-      <c r="H196" s="71" t="s">
+      <c r="H196" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I196" s="71"/>
-      <c r="J196" s="71"/>
-      <c r="K196" s="71"/>
-      <c r="L196" s="71"/>
-      <c r="M196" s="71"/>
+      <c r="I196" s="72"/>
+      <c r="J196" s="72"/>
+      <c r="K196" s="72"/>
+      <c r="L196" s="72"/>
+      <c r="M196" s="72"/>
       <c r="O196" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P196" s="73"/>
       <c r="Q196" s="73"/>
@@ -11572,8 +11573,8 @@
       <c r="T196" s="73"/>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B197" s="70"/>
-      <c r="C197" s="70"/>
+      <c r="B197" s="71"/>
+      <c r="C197" s="71"/>
       <c r="F197" s="13"/>
       <c r="H197" s="16" t="s">
         <v>4</v>
@@ -11613,8 +11614,8 @@
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B198" s="70"/>
-      <c r="C198" s="70"/>
+      <c r="B198" s="71"/>
+      <c r="C198" s="71"/>
       <c r="F198" s="13"/>
       <c r="H198" s="14">
         <f>H194+O194+O198</f>
@@ -11667,8 +11668,8 @@
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
-      <c r="B199" s="72"/>
-      <c r="C199" s="72"/>
+      <c r="B199" s="80"/>
+      <c r="C199" s="80"/>
       <c r="D199" s="40"/>
       <c r="E199" s="40"/>
       <c r="F199" s="41"/>
@@ -11685,6 +11686,270 @@
     </row>
   </sheetData>
   <mergeCells count="288">
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="H196:M196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="H192:M192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="A181:G181"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="H115:M115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="L181:M181"/>
+    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="A169:G169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="H98:M98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="H173:M173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="H177:M177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="H111:M111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="H102:M102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="H89:M89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="H85:M85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H73:M73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="H77:M77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="H61:M61"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="O33:T33"/>
+    <mergeCell ref="O37:T37"/>
+    <mergeCell ref="O61:T61"/>
+    <mergeCell ref="O65:T65"/>
+    <mergeCell ref="O73:T73"/>
+    <mergeCell ref="O77:T77"/>
+    <mergeCell ref="O85:T85"/>
+    <mergeCell ref="O192:T192"/>
+    <mergeCell ref="O196:T196"/>
+    <mergeCell ref="O48:T48"/>
+    <mergeCell ref="O52:T52"/>
+    <mergeCell ref="O111:T111"/>
+    <mergeCell ref="O115:T115"/>
+    <mergeCell ref="O136:T136"/>
+    <mergeCell ref="O173:T173"/>
+    <mergeCell ref="O177:T177"/>
+    <mergeCell ref="O123:T123"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="H140:M140"/>
+    <mergeCell ref="O140:T140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="H136:M136"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="H149:M149"/>
+    <mergeCell ref="O149:T149"/>
+    <mergeCell ref="H153:M153"/>
+    <mergeCell ref="O153:T153"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="H161:M161"/>
+    <mergeCell ref="O161:T161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="H165:M165"/>
+    <mergeCell ref="O165:T165"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B124:C124"/>
     <mergeCell ref="B125:C125"/>
@@ -11709,270 +11974,6 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="H161:M161"/>
-    <mergeCell ref="O161:T161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="H165:M165"/>
-    <mergeCell ref="O165:T165"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="L144:M144"/>
-    <mergeCell ref="H149:M149"/>
-    <mergeCell ref="O149:T149"/>
-    <mergeCell ref="H153:M153"/>
-    <mergeCell ref="O153:T153"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="H140:M140"/>
-    <mergeCell ref="O140:T140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="A131:G131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="L131:M131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="H136:M136"/>
-    <mergeCell ref="O192:T192"/>
-    <mergeCell ref="O196:T196"/>
-    <mergeCell ref="O48:T48"/>
-    <mergeCell ref="O52:T52"/>
-    <mergeCell ref="O111:T111"/>
-    <mergeCell ref="O115:T115"/>
-    <mergeCell ref="O136:T136"/>
-    <mergeCell ref="O173:T173"/>
-    <mergeCell ref="O177:T177"/>
-    <mergeCell ref="O123:T123"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="O20:T20"/>
-    <mergeCell ref="O33:T33"/>
-    <mergeCell ref="O37:T37"/>
-    <mergeCell ref="O61:T61"/>
-    <mergeCell ref="O65:T65"/>
-    <mergeCell ref="O73:T73"/>
-    <mergeCell ref="O77:T77"/>
-    <mergeCell ref="O85:T85"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="H61:M61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H73:M73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="H77:M77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="H89:M89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="H85:M85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="H111:M111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="H102:M102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="H98:M98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="H173:M173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="H177:M177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="A181:G181"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="H115:M115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="L181:M181"/>
-    <mergeCell ref="A106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="A169:G169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="L169:M169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="H196:M196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="H192:M192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B9">
     <cfRule type="colorScale" priority="1143">
